--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6156,6 +6156,114 @@
       <c r="G227" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>313.5666666666667</v>
+      </c>
+      <c r="C228" t="n">
+        <v>341.98</v>
+      </c>
+      <c r="D228" t="n">
+        <v>317.6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>320.2666666666667</v>
+      </c>
+      <c r="F228" t="n">
+        <v>303</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>323.51</v>
+      </c>
+      <c r="C229" t="n">
+        <v>339.66</v>
+      </c>
+      <c r="D229" t="n">
+        <v>322.37</v>
+      </c>
+      <c r="E229" t="n">
+        <v>316.59</v>
+      </c>
+      <c r="F229" t="n">
+        <v>299.11</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>321.68</v>
+      </c>
+      <c r="C230" t="n">
+        <v>352.15</v>
+      </c>
+      <c r="D230" t="n">
+        <v>327.6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>332.18</v>
+      </c>
+      <c r="F230" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:18:03+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>355.91</v>
+      </c>
+      <c r="D231" t="n">
+        <v>329.81</v>
+      </c>
+      <c r="E231" t="n">
+        <v>335.77</v>
+      </c>
+      <c r="F231" t="n">
+        <v>304.3</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8838,6 +8946,46 @@
       </c>
       <c r="B266" t="n">
         <v>1.04</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -9006,28 +9154,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009249351242581522</v>
+        <v>0.1069959677010739</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K2" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L2" t="n">
-        <v>1.035560579665251e-05</v>
+        <v>0.001415495464433203</v>
       </c>
       <c r="M2" t="n">
-        <v>16.38353819871129</v>
+        <v>16.54652776722018</v>
       </c>
       <c r="N2" t="n">
-        <v>440.1862273700036</v>
+        <v>444.4864063923176</v>
       </c>
       <c r="O2" t="n">
-        <v>20.98061551456495</v>
+        <v>21.08284625927718</v>
       </c>
       <c r="P2" t="n">
-        <v>294.5721110588877</v>
+        <v>293.5082354050841</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -9083,28 +9231,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3341187165818465</v>
+        <v>0.5224715090991613</v>
       </c>
       <c r="J3" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K3" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01366089600742471</v>
+        <v>0.03173031505529167</v>
       </c>
       <c r="M3" t="n">
-        <v>17.05838875345256</v>
+        <v>17.60487937072049</v>
       </c>
       <c r="N3" t="n">
-        <v>457.3066980665427</v>
+        <v>487.4475827996321</v>
       </c>
       <c r="O3" t="n">
-        <v>21.3847304885178</v>
+        <v>22.07821511806677</v>
       </c>
       <c r="P3" t="n">
-        <v>294.2987875813317</v>
+        <v>292.6617059678756</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -9160,28 +9308,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2582087118458701</v>
+        <v>-0.1246448464348999</v>
       </c>
       <c r="J4" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009683039656451564</v>
+        <v>0.002279196125826499</v>
       </c>
       <c r="M4" t="n">
-        <v>14.62973403755814</v>
+        <v>14.8916629152283</v>
       </c>
       <c r="N4" t="n">
-        <v>356.2533701568563</v>
+        <v>366.658764269131</v>
       </c>
       <c r="O4" t="n">
-        <v>18.87467536560182</v>
+        <v>19.14833580938905</v>
       </c>
       <c r="P4" t="n">
-        <v>301.2293830101412</v>
+        <v>299.9752467992645</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -9237,28 +9385,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5151479175982898</v>
+        <v>-0.3845343706239661</v>
       </c>
       <c r="J5" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K5" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03968511965943078</v>
+        <v>0.02239178122242369</v>
       </c>
       <c r="M5" t="n">
-        <v>14.48475780059944</v>
+        <v>14.77163135175894</v>
       </c>
       <c r="N5" t="n">
-        <v>335.579301961636</v>
+        <v>347.4083050549631</v>
       </c>
       <c r="O5" t="n">
-        <v>18.31882370573056</v>
+        <v>18.63889227006163</v>
       </c>
       <c r="P5" t="n">
-        <v>309.4310159666335</v>
+        <v>308.190546150214</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -9314,28 +9462,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3977782715939833</v>
+        <v>-0.3503381066845163</v>
       </c>
       <c r="J6" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K6" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01827295302773413</v>
+        <v>0.01488948849711969</v>
       </c>
       <c r="M6" t="n">
-        <v>15.60569141304388</v>
+        <v>15.52515823841676</v>
       </c>
       <c r="N6" t="n">
-        <v>432.4958555843336</v>
+        <v>425.672247022227</v>
       </c>
       <c r="O6" t="n">
-        <v>20.79653470134709</v>
+        <v>20.63182607095715</v>
       </c>
       <c r="P6" t="n">
-        <v>301.1725949581997</v>
+        <v>300.7140394807172</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -9372,7 +9520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16947,6 +17095,154 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-35.333507675670965,173.18625860301654</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-35.333079677794665,173.1854659356704</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-35.332363254579064,173.18513541116747</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-35.331794588621456,173.1845681255522</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>-35.33111701964829,173.18417533001403</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-35.333561998496144,173.18617156072264</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-35.333067003166946,173.18548624453737</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-35.33238931399396,173.18509365573874</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-35.33177450238272,173.18460031005557</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>-35.33109576798906,173.18420938174677</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-35.333552000770055,173.18618758024843</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-35.333135238514586,173.18537690922605</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-35.33241788645952,173.18504787355022</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-35.33185967307491,173.18446383948168</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>-35.33110336177072,173.18419721416308</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:18:03+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-35.33355648062572,173.18618040210077</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-35.33315578012106,173.18534399479688</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-35.33242996009652,173.1850285277209</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-35.331879285803836,173.18443241356806</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-35.33112412174307,173.1841639502536</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -8999,7 +8999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9090,35 +9090,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -9177,27 +9182,28 @@
       <c r="P2" t="n">
         <v>293.5082354050841</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.18900345388624 -35.33179455322433, 173.18089707438796 -35.336853536014125)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1890034538862</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.33179455322433</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.180897074388</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.33685353601413</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1849502641371</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.33432404461922</v>
       </c>
     </row>
@@ -9254,27 +9260,28 @@
       <c r="P3" t="n">
         <v>292.6617059678756</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.18845949921362 -35.33121133522411, 173.18035313519118 -35.33627030748529)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1884594992136</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.33121133522411</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1803531351912</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.33627030748529</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1844063172024</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.3337408213547</v>
       </c>
     </row>
@@ -9331,27 +9338,28 @@
       <c r="P4" t="n">
         <v>299.9752467992645</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.18791554454083 -35.33062811301525, 173.17980919599472 -35.3356870747481)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1879155445408</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.33062811301525</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1798091959947</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.3356870747481</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1838623702678</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.33315759388168</v>
       </c>
     </row>
@@ -9408,27 +9416,28 @@
       <c r="P5" t="n">
         <v>308.190546150214</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.18737158986778 -35.33004488659774, 173.17926525679871 -35.33510383780258)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.1873715898678</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.33004488659774</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.1792652567987</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.33510383780258</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.1833184233332</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.33257436220016</v>
       </c>
     </row>
@@ -9485,27 +9494,28 @@
       <c r="P6" t="n">
         <v>300.7140394807172</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.18682763519456 -35.3294616559716, 173.17872131760313 -35.33452059664874)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.1868276351946</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.3294616559716</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.1787213176031</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.33452059664874</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.1827744763988</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.33199112631017</v>
       </c>
     </row>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6262,6 +6262,106 @@
         <v>304.3</v>
       </c>
       <c r="G231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>331.7133333333333</v>
+      </c>
+      <c r="C232" t="n">
+        <v>319.45</v>
+      </c>
+      <c r="D232" t="n">
+        <v>318.6799999999999</v>
+      </c>
+      <c r="E232" t="n">
+        <v>319.3633333333333</v>
+      </c>
+      <c r="F232" t="n">
+        <v>323.82</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:40+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>326.49</v>
+      </c>
+      <c r="C233" t="n">
+        <v>319.06</v>
+      </c>
+      <c r="D233" t="n">
+        <v>315.55</v>
+      </c>
+      <c r="E233" t="n">
+        <v>317.3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>312.38</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>344.41</v>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:41+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>338.03</v>
+      </c>
+      <c r="C235" t="n">
+        <v>330.16</v>
+      </c>
+      <c r="D235" t="n">
+        <v>318.69</v>
+      </c>
+      <c r="E235" t="n">
+        <v>322.06</v>
+      </c>
+      <c r="F235" t="n">
+        <v>330.17</v>
+      </c>
+      <c r="G235" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6278,7 +6378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8986,6 +9086,56 @@
       </c>
       <c r="B270" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -9159,28 +9309,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1069959677010739</v>
+        <v>0.2227214276940173</v>
       </c>
       <c r="J2" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K2" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001415495464433203</v>
+        <v>0.006072945038586242</v>
       </c>
       <c r="M2" t="n">
-        <v>16.54652776722018</v>
+        <v>16.78938685659229</v>
       </c>
       <c r="N2" t="n">
-        <v>444.4864063923176</v>
+        <v>457.0127180113166</v>
       </c>
       <c r="O2" t="n">
-        <v>21.08284625927718</v>
+        <v>21.37785578610064</v>
       </c>
       <c r="P2" t="n">
-        <v>293.5082354050841</v>
+        <v>292.4402694234909</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9237,28 +9387,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5224715090991613</v>
+        <v>0.6114540395749483</v>
       </c>
       <c r="J3" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K3" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03173031505529167</v>
+        <v>0.04399767427789869</v>
       </c>
       <c r="M3" t="n">
-        <v>17.60487937072049</v>
+        <v>17.68443530145609</v>
       </c>
       <c r="N3" t="n">
-        <v>487.4475827996321</v>
+        <v>489.0655594081961</v>
       </c>
       <c r="O3" t="n">
-        <v>22.07821511806677</v>
+        <v>22.11482668727468</v>
       </c>
       <c r="P3" t="n">
-        <v>292.6617059678756</v>
+        <v>291.8805606344505</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9315,28 +9465,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1246448464348999</v>
+        <v>-0.05689354711278248</v>
       </c>
       <c r="J4" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K4" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002279196125826499</v>
+        <v>0.0004852458997298692</v>
       </c>
       <c r="M4" t="n">
-        <v>14.8916629152283</v>
+        <v>14.95651455825837</v>
       </c>
       <c r="N4" t="n">
-        <v>366.658764269131</v>
+        <v>367.4172409752808</v>
       </c>
       <c r="O4" t="n">
-        <v>19.14833580938905</v>
+        <v>19.16813086806538</v>
       </c>
       <c r="P4" t="n">
-        <v>299.9752467992645</v>
+        <v>299.3340439324184</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9393,28 +9543,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3845343706239661</v>
+        <v>-0.3173799559825066</v>
       </c>
       <c r="J5" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K5" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02239178122242369</v>
+        <v>0.01561944455764774</v>
       </c>
       <c r="M5" t="n">
-        <v>14.77163135175894</v>
+        <v>14.84638641380477</v>
       </c>
       <c r="N5" t="n">
-        <v>347.4083050549631</v>
+        <v>348.7304402068024</v>
       </c>
       <c r="O5" t="n">
-        <v>18.63889227006163</v>
+        <v>18.67432569617448</v>
       </c>
       <c r="P5" t="n">
-        <v>308.190546150214</v>
+        <v>307.5477013221087</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9471,28 +9621,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3503381066845163</v>
+        <v>-0.2524766632028122</v>
       </c>
       <c r="J6" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K6" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01488948849711969</v>
+        <v>0.007808807238163573</v>
       </c>
       <c r="M6" t="n">
-        <v>15.52515823841676</v>
+        <v>15.79738095267464</v>
       </c>
       <c r="N6" t="n">
-        <v>425.672247022227</v>
+        <v>433.5604569861539</v>
       </c>
       <c r="O6" t="n">
-        <v>20.63182607095715</v>
+        <v>20.82211461370228</v>
       </c>
       <c r="P6" t="n">
-        <v>300.7140394807172</v>
+        <v>299.7598591189392</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -9530,7 +9680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17253,6 +17403,138 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-35.33360681523491,173.18609975001291</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-35.332956591718,173.18566315901094</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-35.332369154825216,173.18512595711047</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-35.33178965356267,173.184576033079</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-35.331230762298574,173.18399307853443</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:40+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>-35.33357827894175,173.18614547427325</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>-35.332954461064034,173.18566657299155</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-35.33235205503572,173.18515335636442</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>-35.33177838123094,173.184594094917</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>-35.331168263969566,173.18409322062107</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-35.33309295337087,173.18544466387624</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:41+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-35.33364132464095,173.18604445483697</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-35.33301510271607,173.1855694057799</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>-35.33236920945711,173.18512586957291</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-35.33180438589526,173.18455242721205</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>-35.331265453205795,173.1839374926068</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6364,6 +6364,29 @@
       <c r="G235" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>325.63</v>
+      </c>
+      <c r="D236" t="n">
+        <v>289.82</v>
+      </c>
+      <c r="E236" t="n">
+        <v>307.5033333333333</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9136,6 +9159,16 @@
       </c>
       <c r="B275" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9312,7 +9345,7 @@
         <v>0.2227214276940173</v>
       </c>
       <c r="J2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K2" t="n">
         <v>190</v>
@@ -9387,28 +9420,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6114540395749483</v>
+        <v>0.6293113366173504</v>
       </c>
       <c r="J3" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04399767427789869</v>
+        <v>0.04686044799809574</v>
       </c>
       <c r="M3" t="n">
-        <v>17.68443530145609</v>
+        <v>17.68930149919024</v>
       </c>
       <c r="N3" t="n">
-        <v>489.0655594081961</v>
+        <v>488.1980377361594</v>
       </c>
       <c r="O3" t="n">
-        <v>22.11482668727468</v>
+        <v>22.09520395326007</v>
       </c>
       <c r="P3" t="n">
-        <v>291.8805606344505</v>
+        <v>291.7231796115797</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9465,28 +9498,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05689354711278248</v>
+        <v>-0.06553945764723919</v>
       </c>
       <c r="J4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004852458997298692</v>
+        <v>0.0006512003450065418</v>
       </c>
       <c r="M4" t="n">
-        <v>14.95651455825837</v>
+        <v>14.92034194126407</v>
       </c>
       <c r="N4" t="n">
-        <v>367.4172409752808</v>
+        <v>365.8185751214947</v>
       </c>
       <c r="O4" t="n">
-        <v>19.16813086806538</v>
+        <v>19.12638426680523</v>
       </c>
       <c r="P4" t="n">
-        <v>299.3340439324184</v>
+        <v>299.4162716352009</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9543,28 +9576,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3173799559825066</v>
+        <v>-0.3088824936530735</v>
       </c>
       <c r="J5" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K5" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01561944455764774</v>
+        <v>0.01496541977656896</v>
       </c>
       <c r="M5" t="n">
-        <v>14.84638641380477</v>
+        <v>14.80876981695981</v>
       </c>
       <c r="N5" t="n">
-        <v>348.7304402068024</v>
+        <v>347.2597190927273</v>
       </c>
       <c r="O5" t="n">
-        <v>18.67432569617448</v>
+        <v>18.63490593195274</v>
       </c>
       <c r="P5" t="n">
-        <v>307.5477013221087</v>
+        <v>307.465965219686</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9624,7 +9657,7 @@
         <v>-0.2524766632028122</v>
       </c>
       <c r="J6" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K6" t="n">
         <v>192</v>
@@ -9680,7 +9713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17535,6 +17568,35 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-35.33299035437564,173.18560906052437</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>-35.332211486881896,173.1853785900493</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>-35.331724860381456,173.18467985210518</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6373,7 +6373,9 @@
           <t>2025-05-12 22:16:59+00:00</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="n">
+        <v>289.6133333333333</v>
+      </c>
       <c r="C236" t="n">
         <v>325.63</v>
       </c>
@@ -6383,10 +6385,35 @@
       <c r="E236" t="n">
         <v>307.5033333333333</v>
       </c>
-      <c r="F236" t="inlineStr"/>
+      <c r="F236" t="n">
+        <v>283.48</v>
+      </c>
       <c r="G236" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>275.8366666666667</v>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>288.2966666666667</v>
+      </c>
+      <c r="F237" t="n">
+        <v>282.31</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9169,6 +9196,16 @@
       </c>
       <c r="B276" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -9342,28 +9379,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2227214276940173</v>
+        <v>0.1901746728624059</v>
       </c>
       <c r="J2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K2" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006072945038586242</v>
+        <v>0.004517136082618278</v>
       </c>
       <c r="M2" t="n">
-        <v>16.78938685659229</v>
+        <v>16.78646825565497</v>
       </c>
       <c r="N2" t="n">
-        <v>457.0127180113166</v>
+        <v>455.1490071825758</v>
       </c>
       <c r="O2" t="n">
-        <v>21.37785578610064</v>
+        <v>21.33422150401968</v>
       </c>
       <c r="P2" t="n">
-        <v>292.4402694234909</v>
+        <v>292.742689238159</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9423,7 +9460,7 @@
         <v>0.6293113366173504</v>
       </c>
       <c r="J3" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K3" t="n">
         <v>196</v>
@@ -9501,7 +9538,7 @@
         <v>-0.06553945764723919</v>
       </c>
       <c r="J4" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K4" t="n">
         <v>190</v>
@@ -9576,28 +9613,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3088824936530735</v>
+        <v>-0.3204695200043603</v>
       </c>
       <c r="J5" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K5" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01496541977656896</v>
+        <v>0.01624750406412723</v>
       </c>
       <c r="M5" t="n">
-        <v>14.80876981695981</v>
+        <v>14.79296565596594</v>
       </c>
       <c r="N5" t="n">
-        <v>347.2597190927273</v>
+        <v>346.1054742915078</v>
       </c>
       <c r="O5" t="n">
-        <v>18.63490593195274</v>
+        <v>18.60391018822408</v>
       </c>
       <c r="P5" t="n">
-        <v>307.465965219686</v>
+        <v>307.5777553322675</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9654,28 +9691,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2524766632028122</v>
+        <v>-0.2742352314570374</v>
       </c>
       <c r="J6" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007808807238163573</v>
+        <v>0.009395407155848745</v>
       </c>
       <c r="M6" t="n">
-        <v>15.79738095267464</v>
+        <v>15.72524838509883</v>
       </c>
       <c r="N6" t="n">
-        <v>433.5604569861539</v>
+        <v>430.1633522763256</v>
       </c>
       <c r="O6" t="n">
-        <v>20.82211461370228</v>
+        <v>20.74037975246176</v>
       </c>
       <c r="P6" t="n">
-        <v>299.7598591189392</v>
+        <v>299.9732915642046</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -9713,7 +9750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17574,7 +17611,11 @@
           <t>2025-05-12 22:16:59+00:00</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-35.33337681258318,173.18646828605225</t>
+        </is>
+      </c>
       <c r="C236" t="inlineStr">
         <is>
           <t>-35.33299035437564,173.18560906052437</t>
@@ -17590,10 +17631,43 @@
           <t>-35.331724860381456,173.18467985210518</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>-35.33101037883465,173.18434620125396</t>
+        </is>
+      </c>
       <c r="G236" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-35.33330154702126,173.1865888841296</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-35.33161993093106,173.18484798138485</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>-35.33100398693394,173.1843564430097</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6404,7 +6404,9 @@
         <v>275.8366666666667</v>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="n">
+        <v>248.76</v>
+      </c>
       <c r="E237" t="n">
         <v>288.2966666666667</v>
       </c>
@@ -6414,6 +6416,33 @@
       <c r="G237" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>305.9466666666667</v>
+      </c>
+      <c r="C238" t="n">
+        <v>333.28</v>
+      </c>
+      <c r="D238" t="n">
+        <v>282.88</v>
+      </c>
+      <c r="E238" t="n">
+        <v>310.8966666666667</v>
+      </c>
+      <c r="F238" t="n">
+        <v>284.53</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9206,6 +9235,16 @@
       </c>
       <c r="B277" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -9379,28 +9418,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1901746728624059</v>
+        <v>0.1987871507188818</v>
       </c>
       <c r="J2" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K2" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004517136082618278</v>
+        <v>0.004989413446541247</v>
       </c>
       <c r="M2" t="n">
-        <v>16.78646825565497</v>
+        <v>16.73867934166774</v>
       </c>
       <c r="N2" t="n">
-        <v>455.1490071825758</v>
+        <v>453.1409535127576</v>
       </c>
       <c r="O2" t="n">
-        <v>21.33422150401968</v>
+        <v>21.28710768312026</v>
       </c>
       <c r="P2" t="n">
-        <v>292.742689238159</v>
+        <v>292.6625158787987</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9457,28 +9496,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6293113366173504</v>
+        <v>0.6541635834243957</v>
       </c>
       <c r="J3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K3" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04686044799809574</v>
+        <v>0.05069202140190421</v>
       </c>
       <c r="M3" t="n">
-        <v>17.68930149919024</v>
+        <v>17.7310491579494</v>
       </c>
       <c r="N3" t="n">
-        <v>488.1980377361594</v>
+        <v>488.9163851241496</v>
       </c>
       <c r="O3" t="n">
-        <v>22.09520395326007</v>
+        <v>22.11145370897512</v>
       </c>
       <c r="P3" t="n">
-        <v>291.7231796115797</v>
+        <v>291.5032057112779</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9535,28 +9574,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06553945764723919</v>
+        <v>-0.1321576333725509</v>
       </c>
       <c r="J4" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K4" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006512003450065418</v>
+        <v>0.002611378941307141</v>
       </c>
       <c r="M4" t="n">
-        <v>14.92034194126407</v>
+        <v>15.11344718166716</v>
       </c>
       <c r="N4" t="n">
-        <v>365.8185751214947</v>
+        <v>375.2829254264357</v>
       </c>
       <c r="O4" t="n">
-        <v>19.12638426680523</v>
+        <v>19.37222045678904</v>
       </c>
       <c r="P4" t="n">
-        <v>299.4162716352009</v>
+        <v>300.051872152608</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9613,28 +9652,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3204695200043603</v>
+        <v>-0.3086485485783156</v>
       </c>
       <c r="J5" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K5" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01624750406412723</v>
+        <v>0.01523072432183681</v>
       </c>
       <c r="M5" t="n">
-        <v>14.79296565596594</v>
+        <v>14.77274562731967</v>
       </c>
       <c r="N5" t="n">
-        <v>346.1054742915078</v>
+        <v>345.0086123174324</v>
       </c>
       <c r="O5" t="n">
-        <v>18.60391018822408</v>
+        <v>18.5744074553519</v>
       </c>
       <c r="P5" t="n">
-        <v>307.5777553322675</v>
+        <v>307.463592901392</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9691,28 +9730,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2742352314570374</v>
+        <v>-0.2829125279510143</v>
       </c>
       <c r="J6" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K6" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009395407155848745</v>
+        <v>0.01010045941901139</v>
       </c>
       <c r="M6" t="n">
-        <v>15.72524838509883</v>
+        <v>15.68158805119115</v>
       </c>
       <c r="N6" t="n">
-        <v>430.1633522763256</v>
+        <v>428.3099821083533</v>
       </c>
       <c r="O6" t="n">
-        <v>20.74037975246176</v>
+        <v>20.69565128495243</v>
       </c>
       <c r="P6" t="n">
-        <v>299.9732915642046</v>
+        <v>300.0586111835871</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -9750,7 +9789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G237"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17654,7 +17693,11 @@
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-35.33198716699051,173.18573801692435</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr">
         <is>
           <t>-35.33161993093106,173.18484798138485</t>
@@ -17668,6 +17711,43 @@
       <c r="G237" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-35.33346604573294,173.1863253071561</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-35.3330321479231,173.1855420938888</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-35.33217357219708,173.18543934085903</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-35.33174339874316,173.18465014785886</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>-35.33101611515507,173.18433700993333</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6443,6 +6443,60 @@
       <c r="G238" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>313.7666666666667</v>
+      </c>
+      <c r="C239" t="n">
+        <v>313.01</v>
+      </c>
+      <c r="D239" t="n">
+        <v>302.91</v>
+      </c>
+      <c r="E239" t="n">
+        <v>309.8166666666667</v>
+      </c>
+      <c r="F239" t="n">
+        <v>298.07</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:51+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>300.5466666666667</v>
+      </c>
+      <c r="C240" t="n">
+        <v>336.86</v>
+      </c>
+      <c r="D240" t="n">
+        <v>317.65</v>
+      </c>
+      <c r="E240" t="n">
+        <v>317.7266666666667</v>
+      </c>
+      <c r="F240" t="n">
+        <v>303.14</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9245,6 +9299,26 @@
       </c>
       <c r="B278" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -9418,28 +9492,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1987871507188818</v>
+        <v>0.2176352505930651</v>
       </c>
       <c r="J2" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K2" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004989413446541247</v>
+        <v>0.006099288546365766</v>
       </c>
       <c r="M2" t="n">
-        <v>16.73867934166774</v>
+        <v>16.65189100790678</v>
       </c>
       <c r="N2" t="n">
-        <v>453.1409535127576</v>
+        <v>449.8082609029706</v>
       </c>
       <c r="O2" t="n">
-        <v>21.28710768312026</v>
+        <v>21.20868362022902</v>
       </c>
       <c r="P2" t="n">
-        <v>292.6625158787987</v>
+        <v>292.4866321839347</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9496,28 +9570,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6541635834243957</v>
+        <v>0.6857634019908364</v>
       </c>
       <c r="J3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05069202140190421</v>
+        <v>0.05619991199026231</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7310491579494</v>
+        <v>17.72326158238634</v>
       </c>
       <c r="N3" t="n">
-        <v>488.9163851241496</v>
+        <v>488.0700400948643</v>
       </c>
       <c r="O3" t="n">
-        <v>22.11145370897512</v>
+        <v>22.09230726055711</v>
       </c>
       <c r="P3" t="n">
-        <v>291.5032057112779</v>
+        <v>291.2221191063568</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9574,28 +9648,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1321576333725509</v>
+        <v>-0.1043281802376084</v>
       </c>
       <c r="J4" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K4" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002611378941307141</v>
+        <v>0.001656744401686616</v>
       </c>
       <c r="M4" t="n">
-        <v>15.11344718166716</v>
+        <v>15.08326462058687</v>
       </c>
       <c r="N4" t="n">
-        <v>375.2829254264357</v>
+        <v>373.8318466534242</v>
       </c>
       <c r="O4" t="n">
-        <v>19.37222045678904</v>
+        <v>19.33473161575883</v>
       </c>
       <c r="P4" t="n">
-        <v>300.051872152608</v>
+        <v>299.7849896318534</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9652,28 +9726,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3086485485783156</v>
+        <v>-0.280207295375338</v>
       </c>
       <c r="J5" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K5" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01523072432183681</v>
+        <v>0.01278972635411646</v>
       </c>
       <c r="M5" t="n">
-        <v>14.77274562731967</v>
+        <v>14.75423532613952</v>
       </c>
       <c r="N5" t="n">
-        <v>345.0086123174324</v>
+        <v>343.675298872611</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5744074553519</v>
+        <v>18.53848156868871</v>
       </c>
       <c r="P5" t="n">
-        <v>307.463592901392</v>
+        <v>307.1878209036592</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9730,28 +9804,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2829125279510143</v>
+        <v>-0.2669750859251886</v>
       </c>
       <c r="J6" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K6" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01010045941901139</v>
+        <v>0.0091953259769878</v>
       </c>
       <c r="M6" t="n">
-        <v>15.68158805119115</v>
+        <v>15.61067732032248</v>
       </c>
       <c r="N6" t="n">
-        <v>428.3099821083533</v>
+        <v>424.6363587516536</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69565128495243</v>
+        <v>20.60670664496522</v>
       </c>
       <c r="P6" t="n">
-        <v>300.0586111835871</v>
+        <v>299.9012864047948</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -9789,7 +9863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17751,6 +17825,80 @@
         </is>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-35.33350876831977,173.18625685225078</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-35.332921408599105,173.18571953343766</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-35.33228300023152,173.1852640037133</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>-35.33173749851883,173.18465960186407</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>-35.33109008630991,173.1842184855489</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:51+00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>-35.333436544179726,173.18637257776476</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>-35.33305170619791,173.18551075523044</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>-35.33236352773863,173.18513497347965</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>-35.33178071218184,173.18459035999774</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>-35.33111778448933,173.18417410450147</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6495,6 +6495,52 @@
         <v>303.14</v>
       </c>
       <c r="G240" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="n">
+        <v>339.8933333333333</v>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>291.5266666666667</v>
+      </c>
+      <c r="C242" t="n">
+        <v>339.82</v>
+      </c>
+      <c r="D242" t="n">
+        <v>301.26</v>
+      </c>
+      <c r="E242" t="n">
+        <v>328.7966666666667</v>
+      </c>
+      <c r="F242" t="n">
+        <v>308.16</v>
+      </c>
+      <c r="G242" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6511,7 +6557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9319,6 +9365,26 @@
       </c>
       <c r="B280" t="n">
         <v>0.71</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -9492,28 +9558,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2176352505930651</v>
+        <v>0.2109857869965402</v>
       </c>
       <c r="J2" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K2" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006099288546365766</v>
+        <v>0.005798745788097914</v>
       </c>
       <c r="M2" t="n">
-        <v>16.65189100790678</v>
+        <v>16.60395067072597</v>
       </c>
       <c r="N2" t="n">
-        <v>449.8082609029706</v>
+        <v>447.7333783970338</v>
       </c>
       <c r="O2" t="n">
-        <v>21.20868362022902</v>
+        <v>21.15971120778906</v>
       </c>
       <c r="P2" t="n">
-        <v>292.4866321839347</v>
+        <v>292.5491014483968</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9570,28 +9636,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6857634019908364</v>
+        <v>0.7149918449386021</v>
       </c>
       <c r="J3" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05619991199026231</v>
+        <v>0.06089932925096242</v>
       </c>
       <c r="M3" t="n">
-        <v>17.72326158238634</v>
+        <v>17.79864871564937</v>
       </c>
       <c r="N3" t="n">
-        <v>488.0700400948643</v>
+        <v>490.2819403738201</v>
       </c>
       <c r="O3" t="n">
-        <v>22.09230726055711</v>
+        <v>22.14231108926573</v>
       </c>
       <c r="P3" t="n">
-        <v>291.2221191063568</v>
+        <v>290.9608781813808</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9648,28 +9714,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1043281802376084</v>
+        <v>-0.1000900671412624</v>
       </c>
       <c r="J4" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K4" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001656744401686616</v>
+        <v>0.001542432427033558</v>
       </c>
       <c r="M4" t="n">
-        <v>15.08326462058687</v>
+        <v>15.02502137111879</v>
       </c>
       <c r="N4" t="n">
-        <v>373.8318466534242</v>
+        <v>372.0032860361113</v>
       </c>
       <c r="O4" t="n">
-        <v>19.33473161575883</v>
+        <v>19.28738670831565</v>
       </c>
       <c r="P4" t="n">
-        <v>299.7849896318534</v>
+        <v>299.7441528664395</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9726,28 +9792,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.280207295375338</v>
+        <v>-0.2132854953313968</v>
       </c>
       <c r="J5" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01278972635411646</v>
+        <v>0.007360255634770274</v>
       </c>
       <c r="M5" t="n">
-        <v>14.75423532613952</v>
+        <v>14.91003073551203</v>
       </c>
       <c r="N5" t="n">
-        <v>343.675298872611</v>
+        <v>352.0778431501827</v>
       </c>
       <c r="O5" t="n">
-        <v>18.53848156868871</v>
+        <v>18.76373745153622</v>
       </c>
       <c r="P5" t="n">
-        <v>307.1878209036592</v>
+        <v>306.5359283629182</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9804,28 +9870,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2669750859251886</v>
+        <v>-0.2516845867703548</v>
       </c>
       <c r="J6" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0091953259769878</v>
+        <v>0.008250177717968099</v>
       </c>
       <c r="M6" t="n">
-        <v>15.61067732032248</v>
+        <v>15.61785518052477</v>
       </c>
       <c r="N6" t="n">
-        <v>424.6363587516536</v>
+        <v>423.6405463851876</v>
       </c>
       <c r="O6" t="n">
-        <v>20.60670664496522</v>
+        <v>20.58253012593903</v>
       </c>
       <c r="P6" t="n">
-        <v>299.9012864047948</v>
+        <v>299.749591158888</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -9863,7 +9929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17899,6 +17965,64 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>-35.331901812205686,173.1843963189763</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>-35.333387265618065,173.1864515371121</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>-35.333067877279305,173.18548484392608</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>-35.33227398594973,173.18527844738026</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>-35.33184118939066,173.18449345627585</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>-35.33114520949507,173.18413016110708</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6541,6 +6541,33 @@
         <v>308.16</v>
       </c>
       <c r="G242" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:18:16+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>274.1466666666666</v>
+      </c>
+      <c r="C243" t="n">
+        <v>305.89</v>
+      </c>
+      <c r="D243" t="n">
+        <v>272.74</v>
+      </c>
+      <c r="E243" t="n">
+        <v>302.3066666666667</v>
+      </c>
+      <c r="F243" t="n">
+        <v>287.38</v>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6557,7 +6584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9385,6 +9412,16 @@
       </c>
       <c r="B282" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -9558,28 +9595,28 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2109857869965402</v>
+        <v>0.1871982678460341</v>
       </c>
       <c r="J2" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005798745788097914</v>
+        <v>0.004594500486811537</v>
       </c>
       <c r="M2" t="n">
-        <v>16.60395067072597</v>
+        <v>16.65083578405234</v>
       </c>
       <c r="N2" t="n">
-        <v>447.7333783970338</v>
+        <v>448.3146594327641</v>
       </c>
       <c r="O2" t="n">
-        <v>21.15971120778906</v>
+        <v>21.17344231420022</v>
       </c>
       <c r="P2" t="n">
-        <v>292.5491014483968</v>
+        <v>292.7734869202118</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9636,28 +9673,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7149918449386021</v>
+        <v>0.7114707007375479</v>
       </c>
       <c r="J3" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06089932925096242</v>
+        <v>0.06097187738539189</v>
       </c>
       <c r="M3" t="n">
-        <v>17.79864871564937</v>
+        <v>17.72704301394638</v>
       </c>
       <c r="N3" t="n">
-        <v>490.2819403738201</v>
+        <v>487.9111201559405</v>
       </c>
       <c r="O3" t="n">
-        <v>22.14231108926573</v>
+        <v>22.08871024202048</v>
       </c>
       <c r="P3" t="n">
-        <v>290.9608781813808</v>
+        <v>290.9924860963337</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9714,28 +9751,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1000900671412624</v>
+        <v>-0.1245443553752628</v>
       </c>
       <c r="J4" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K4" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001542432427033558</v>
+        <v>0.002394452427220028</v>
       </c>
       <c r="M4" t="n">
-        <v>15.02502137111879</v>
+        <v>15.08532123408111</v>
       </c>
       <c r="N4" t="n">
-        <v>372.0032860361113</v>
+        <v>373.0906069740445</v>
       </c>
       <c r="O4" t="n">
-        <v>19.28738670831565</v>
+        <v>19.315553499034</v>
       </c>
       <c r="P4" t="n">
-        <v>299.7441528664395</v>
+        <v>299.9807371386483</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9792,28 +9829,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2132854953313968</v>
+        <v>-0.211993444583041</v>
       </c>
       <c r="J5" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K5" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007360255634770274</v>
+        <v>0.007350623419770441</v>
       </c>
       <c r="M5" t="n">
-        <v>14.91003073551203</v>
+        <v>14.84144948839686</v>
       </c>
       <c r="N5" t="n">
-        <v>352.0778431501827</v>
+        <v>350.3262803764212</v>
       </c>
       <c r="O5" t="n">
-        <v>18.76373745153622</v>
+        <v>18.71700511236831</v>
       </c>
       <c r="P5" t="n">
-        <v>306.5359283629182</v>
+        <v>306.5232824538217</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9870,28 +9907,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2516845867703548</v>
+        <v>-0.2574670355977064</v>
       </c>
       <c r="J6" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K6" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008250177717968099</v>
+        <v>0.008723230169103147</v>
       </c>
       <c r="M6" t="n">
-        <v>15.61785518052477</v>
+        <v>15.56401054643402</v>
       </c>
       <c r="N6" t="n">
-        <v>423.6405463851876</v>
+        <v>421.6779407114349</v>
       </c>
       <c r="O6" t="n">
-        <v>20.58253012593903</v>
+        <v>20.53479828757602</v>
       </c>
       <c r="P6" t="n">
-        <v>299.749591158888</v>
+        <v>299.8071860496141</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -9929,7 +9966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18023,6 +18060,43 @@
         </is>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:18:16+00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>-35.33329231409742,173.18660367802303</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>-35.33288251046184,173.18578186038667</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>-35.33211817518183,173.1855281034673</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-35.33169647008642,173.18472534217707</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>-35.331031685164106,173.18431206205648</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6568,6 +6568,31 @@
         <v>287.38</v>
       </c>
       <c r="G243" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:18:21+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="n">
+        <v>306.67</v>
+      </c>
+      <c r="D244" t="n">
+        <v>300</v>
+      </c>
+      <c r="E244" t="n">
+        <v>320.8733333333333</v>
+      </c>
+      <c r="F244" t="n">
+        <v>318.33</v>
+      </c>
+      <c r="G244" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6584,7 +6609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9422,6 +9447,16 @@
       </c>
       <c r="B283" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -9966,7 +10001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18097,6 +18132,39 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:18:21+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>-35.332886771776195,173.1857750324373</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>-35.332267102315214,173.1852894770874</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>-35.33179790294108,173.18456281496174</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>-35.33120076966679,173.18404113625087</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -9633,7 +9633,7 @@
         <v>0.1871982678460341</v>
       </c>
       <c r="J2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K2" t="n">
         <v>197</v>
@@ -9708,28 +9708,28 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7114707007375479</v>
+        <v>0.7087457733073118</v>
       </c>
       <c r="J3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06097187738539189</v>
+        <v>0.06116492112140248</v>
       </c>
       <c r="M3" t="n">
-        <v>17.72704301394638</v>
+        <v>17.65228218591779</v>
       </c>
       <c r="N3" t="n">
-        <v>487.9111201559405</v>
+        <v>485.537506406779</v>
       </c>
       <c r="O3" t="n">
-        <v>22.08871024202048</v>
+        <v>22.03491562059585</v>
       </c>
       <c r="P3" t="n">
-        <v>290.9924860963337</v>
+        <v>291.0169996946196</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9786,28 +9786,28 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1245443553752628</v>
+        <v>-0.1213005589249807</v>
       </c>
       <c r="J4" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002394452427220028</v>
+        <v>0.002297143092734322</v>
       </c>
       <c r="M4" t="n">
-        <v>15.08532123408111</v>
+        <v>15.02330674933987</v>
       </c>
       <c r="N4" t="n">
-        <v>373.0906069740445</v>
+        <v>371.2503475388152</v>
       </c>
       <c r="O4" t="n">
-        <v>19.315553499034</v>
+        <v>19.26785788661561</v>
       </c>
       <c r="P4" t="n">
-        <v>299.9807371386483</v>
+        <v>299.9492913686742</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9864,28 +9864,28 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.211993444583041</v>
+        <v>-0.1930249435296721</v>
       </c>
       <c r="J5" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007350623419770441</v>
+        <v>0.006133175594147611</v>
       </c>
       <c r="M5" t="n">
-        <v>14.84144948839686</v>
+        <v>14.85709585096506</v>
       </c>
       <c r="N5" t="n">
-        <v>350.3262803764212</v>
+        <v>350.5217082308618</v>
       </c>
       <c r="O5" t="n">
-        <v>18.71700511236831</v>
+        <v>18.72222498077784</v>
       </c>
       <c r="P5" t="n">
-        <v>306.5232824538217</v>
+        <v>306.3372436861803</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9942,28 +9942,28 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2574670355977064</v>
+        <v>-0.2325847281969794</v>
       </c>
       <c r="J6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008723230169103147</v>
+        <v>0.007155571828488139</v>
       </c>
       <c r="M6" t="n">
-        <v>15.56401054643402</v>
+        <v>15.62971421822733</v>
       </c>
       <c r="N6" t="n">
-        <v>421.6779407114349</v>
+        <v>422.7080843020269</v>
       </c>
       <c r="O6" t="n">
-        <v>20.53479828757602</v>
+        <v>20.55986586293857</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8071860496141</v>
+        <v>299.5588584537431</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>274.6266666666667</v>
+        <v>274.63</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.8666666666667</v>
+        <v>302.87</v>
       </c>
       <c r="C4" t="n">
         <v>334.65</v>
@@ -531,7 +531,7 @@
         <v>297.96</v>
       </c>
       <c r="E4" t="n">
-        <v>312.9466666666667</v>
+        <v>312.95</v>
       </c>
       <c r="F4" t="n">
         <v>284.85</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>312.4066666666667</v>
+        <v>312.41</v>
       </c>
       <c r="C5" t="n">
         <v>314.26</v>
@@ -558,7 +558,7 @@
         <v>307.75</v>
       </c>
       <c r="E5" t="n">
-        <v>312.3266666666667</v>
+        <v>312.33</v>
       </c>
       <c r="F5" t="n">
         <v>307.37</v>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8566666666667</v>
+        <v>290.86</v>
       </c>
       <c r="C7" t="n">
         <v>292.61</v>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.6366666666667</v>
+        <v>269.64</v>
       </c>
       <c r="C8" t="n">
         <v>281.85</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>260.6266666666667</v>
+        <v>260.63</v>
       </c>
       <c r="C9" t="n">
         <v>269.91</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>292.7266666666667</v>
+        <v>292.73</v>
       </c>
       <c r="C12" t="n">
         <v>316.52</v>
@@ -723,7 +723,7 @@
         <v>291.6</v>
       </c>
       <c r="E12" t="n">
-        <v>301.4266666666667</v>
+        <v>301.43</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>311.3166666666667</v>
+        <v>311.32</v>
       </c>
       <c r="C14" t="n">
         <v>333.86</v>
@@ -775,7 +775,7 @@
         <v>318.76</v>
       </c>
       <c r="E14" t="n">
-        <v>320.9966666666667</v>
+        <v>321</v>
       </c>
       <c r="F14" t="n">
         <v>299.76</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>317.8566666666667</v>
+        <v>317.86</v>
       </c>
       <c r="C15" t="n">
         <v>326</v>
@@ -802,7 +802,7 @@
         <v>314.75</v>
       </c>
       <c r="E15" t="n">
-        <v>315.3466666666667</v>
+        <v>315.35</v>
       </c>
       <c r="F15" t="n">
         <v>303.61</v>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.7666666666667</v>
+        <v>288.77</v>
       </c>
       <c r="C16" t="n">
         <v>306.81</v>
@@ -829,7 +829,7 @@
         <v>287.26</v>
       </c>
       <c r="E16" t="n">
-        <v>286.6466666666667</v>
+        <v>286.65</v>
       </c>
       <c r="F16" t="n">
         <v>280.4</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.9433333333333</v>
+        <v>285.94</v>
       </c>
       <c r="C17" t="n">
         <v>268.11</v>
@@ -856,7 +856,7 @@
         <v>290.91</v>
       </c>
       <c r="E17" t="n">
-        <v>308.3033333333333</v>
+        <v>308.3</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.3566666666666</v>
+        <v>228.36</v>
       </c>
       <c r="C18" t="n">
         <v>260.98</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>232.1233333333333</v>
+        <v>232.12</v>
       </c>
       <c r="C19" t="n">
         <v>294.67</v>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>238.7366666666667</v>
+        <v>238.74</v>
       </c>
       <c r="C20" t="n">
         <v>274.65</v>
@@ -977,7 +977,7 @@
         <v>291.51</v>
       </c>
       <c r="E22" t="n">
-        <v>303.0966666666667</v>
+        <v>303.1</v>
       </c>
       <c r="F22" t="n">
         <v>289.86</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>303.8766666666667</v>
+        <v>303.88</v>
       </c>
       <c r="C23" t="n">
         <v>321.59</v>
@@ -1004,7 +1004,7 @@
         <v>313.1</v>
       </c>
       <c r="E23" t="n">
-        <v>325.7166666666667</v>
+        <v>325.72</v>
       </c>
       <c r="F23" t="n">
         <v>304.69</v>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>308.8633333333333</v>
+        <v>308.86</v>
       </c>
       <c r="C24" t="n">
         <v>317.74</v>
@@ -1031,7 +1031,7 @@
         <v>309.81</v>
       </c>
       <c r="E24" t="n">
-        <v>315.5533333333333</v>
+        <v>315.55</v>
       </c>
       <c r="F24" t="n">
         <v>308.58</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>317.7966666666667</v>
+        <v>317.8</v>
       </c>
       <c r="C25" t="n">
         <v>290.04</v>
@@ -1058,7 +1058,7 @@
         <v>304.9</v>
       </c>
       <c r="E25" t="n">
-        <v>315.3366666666667</v>
+        <v>315.34</v>
       </c>
       <c r="F25" t="n">
         <v>338.16</v>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.2166666666667</v>
+        <v>267.22</v>
       </c>
       <c r="C29" t="n">
         <v>257.65</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.9766666666667</v>
+        <v>277.98</v>
       </c>
       <c r="C30" t="n">
         <v>275.33</v>
@@ -1179,7 +1179,7 @@
         <v>274.16</v>
       </c>
       <c r="E30" t="n">
-        <v>292.0866666666667</v>
+        <v>292.09</v>
       </c>
       <c r="F30" t="n">
         <v>289.65</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>298.8333333333333</v>
+        <v>298.83</v>
       </c>
       <c r="C31" t="n">
         <v>302.58</v>
@@ -1206,7 +1206,7 @@
         <v>313.26</v>
       </c>
       <c r="E31" t="n">
-        <v>320.0233333333333</v>
+        <v>320.02</v>
       </c>
       <c r="F31" t="n">
         <v>300.58</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309.2833333333333</v>
+        <v>309.28</v>
       </c>
       <c r="C32" t="n">
         <v>323.1</v>
@@ -1233,7 +1233,7 @@
         <v>335.16</v>
       </c>
       <c r="E32" t="n">
-        <v>354.2233333333333</v>
+        <v>354.22</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
@@ -1256,7 +1256,7 @@
         <v>314.61</v>
       </c>
       <c r="E33" t="n">
-        <v>327.1133333333333</v>
+        <v>327.11</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
@@ -1275,7 +1275,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>293.3033333333333</v>
+        <v>293.3</v>
       </c>
       <c r="F34" t="n">
         <v>290.9</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>281.1433333333333</v>
+        <v>281.14</v>
       </c>
       <c r="C35" t="n">
         <v>329.24</v>
@@ -1302,7 +1302,7 @@
         <v>320.55</v>
       </c>
       <c r="E35" t="n">
-        <v>306.6333333333333</v>
+        <v>306.63</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>289.0633333333333</v>
+        <v>289.06</v>
       </c>
       <c r="C36" t="n">
         <v>300.42</v>
@@ -1327,7 +1327,7 @@
         <v>301.58</v>
       </c>
       <c r="E36" t="n">
-        <v>325.2233333333333</v>
+        <v>325.22</v>
       </c>
       <c r="F36" t="n">
         <v>304.36</v>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>280.4366666666667</v>
+        <v>280.44</v>
       </c>
       <c r="C37" t="n">
         <v>283.39</v>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>281.4633333333333</v>
+        <v>281.46</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>317.9933333333333</v>
+        <v>317.99</v>
       </c>
       <c r="C42" t="n">
         <v>323.68</v>
@@ -1465,7 +1465,7 @@
         <v>332.24</v>
       </c>
       <c r="E42" t="n">
-        <v>338.7933333333333</v>
+        <v>338.79</v>
       </c>
       <c r="F42" t="n">
         <v>366.51</v>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>316.3033333333333</v>
+        <v>316.3</v>
       </c>
       <c r="C43" t="n">
         <v>312.48</v>
@@ -1492,7 +1492,7 @@
         <v>330.38</v>
       </c>
       <c r="E43" t="n">
-        <v>340.5033333333333</v>
+        <v>340.5</v>
       </c>
       <c r="F43" t="n">
         <v>360.02</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>295.7833333333333</v>
+        <v>295.78</v>
       </c>
       <c r="C44" t="n">
         <v>304.4</v>
@@ -1519,7 +1519,7 @@
         <v>316.03</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3433333333333</v>
+        <v>324.34</v>
       </c>
       <c r="F44" t="n">
         <v>345</v>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.8733333333333</v>
+        <v>304.87</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>332.0066666666667</v>
+        <v>332.01</v>
       </c>
       <c r="F47" t="n">
         <v>364.87</v>
@@ -1634,7 +1634,7 @@
         <v>290.61</v>
       </c>
       <c r="E49" t="n">
-        <v>302.2233333333333</v>
+        <v>302.22</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>331.1133333333333</v>
+        <v>331.11</v>
       </c>
       <c r="C52" t="n">
         <v>298.01</v>
@@ -1742,16 +1742,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>311.1633333333333</v>
+        <v>311.16</v>
       </c>
       <c r="C54" t="n">
         <v>305.5</v>
       </c>
       <c r="D54" t="n">
-        <v>316.4299999999999</v>
+        <v>316.43</v>
       </c>
       <c r="E54" t="n">
-        <v>313.9633333333333</v>
+        <v>313.96</v>
       </c>
       <c r="F54" t="n">
         <v>309.82</v>
@@ -1774,7 +1774,7 @@
         <v>316.62</v>
       </c>
       <c r="E55" t="n">
-        <v>308.3733333333333</v>
+        <v>308.37</v>
       </c>
       <c r="F55" t="n">
         <v>295.13</v>
@@ -1797,7 +1797,7 @@
         <v>278.24</v>
       </c>
       <c r="E56" t="n">
-        <v>272.5166666666667</v>
+        <v>272.52</v>
       </c>
       <c r="F56" t="n">
         <v>275.52</v>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>291.4833333333333</v>
+        <v>291.48</v>
       </c>
       <c r="C57" t="n">
         <v>291.44</v>
@@ -1824,7 +1824,7 @@
         <v>296.82</v>
       </c>
       <c r="E57" t="n">
-        <v>301.4733333333333</v>
+        <v>301.47</v>
       </c>
       <c r="F57" t="n">
         <v>292.58</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>269.6266666666667</v>
+        <v>269.63</v>
       </c>
       <c r="C59" t="n">
         <v>252.94</v>
@@ -1878,7 +1878,7 @@
         <v>274.41</v>
       </c>
       <c r="E59" t="n">
-        <v>282.1566666666667</v>
+        <v>282.16</v>
       </c>
       <c r="F59" t="n">
         <v>288.02</v>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>277.1233333333333</v>
+        <v>277.12</v>
       </c>
       <c r="C60" t="n">
         <v>269.76</v>
@@ -1905,7 +1905,7 @@
         <v>296.91</v>
       </c>
       <c r="E60" t="n">
-        <v>302.7933333333333</v>
+        <v>302.79</v>
       </c>
       <c r="F60" t="n">
         <v>309.5</v>
@@ -1930,7 +1930,7 @@
         <v>299.35</v>
       </c>
       <c r="E61" t="n">
-        <v>309.7166666666667</v>
+        <v>309.72</v>
       </c>
       <c r="F61" t="n">
         <v>298.36</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>266.4166666666667</v>
+        <v>266.42</v>
       </c>
       <c r="C62" t="n">
         <v>270.74</v>
@@ -1957,7 +1957,7 @@
         <v>288.42</v>
       </c>
       <c r="E62" t="n">
-        <v>287.3466666666667</v>
+        <v>287.35</v>
       </c>
       <c r="F62" t="n">
         <v>281.36</v>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>267.4966666666667</v>
+        <v>267.5</v>
       </c>
       <c r="C65" t="n">
         <v>268.97</v>
@@ -2036,7 +2036,7 @@
         <v>274.67</v>
       </c>
       <c r="E65" t="n">
-        <v>283.1966666666667</v>
+        <v>283.2</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>282.1266666666667</v>
+        <v>282.13</v>
       </c>
       <c r="C66" t="n">
         <v>308.02</v>
@@ -2061,7 +2061,7 @@
         <v>298.59</v>
       </c>
       <c r="E66" t="n">
-        <v>315.6566666666667</v>
+        <v>315.66</v>
       </c>
       <c r="F66" t="n">
         <v>296.34</v>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>293.0233333333333</v>
+        <v>293.02</v>
       </c>
       <c r="C67" t="n">
         <v>310.92</v>
@@ -2088,7 +2088,7 @@
         <v>298.69</v>
       </c>
       <c r="E67" t="n">
-        <v>304.1833333333333</v>
+        <v>304.18</v>
       </c>
       <c r="F67" t="n">
         <v>284.11</v>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>294.6833333333333</v>
+        <v>294.68</v>
       </c>
       <c r="C68" t="n">
         <v>314.82</v>
@@ -2115,7 +2115,7 @@
         <v>316.18</v>
       </c>
       <c r="E68" t="n">
-        <v>316.2733333333333</v>
+        <v>316.27</v>
       </c>
       <c r="F68" t="n">
         <v>303.61</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>285.7033333333333</v>
+        <v>285.7</v>
       </c>
       <c r="C69" t="n">
         <v>278.66</v>
@@ -2142,7 +2142,7 @@
         <v>291.98</v>
       </c>
       <c r="E69" t="n">
-        <v>298.9133333333333</v>
+        <v>298.91</v>
       </c>
       <c r="F69" t="n">
         <v>286.56</v>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>281.6866666666667</v>
+        <v>281.69</v>
       </c>
       <c r="C70" t="n">
         <v>281.42</v>
@@ -2169,7 +2169,7 @@
         <v>288.47</v>
       </c>
       <c r="E70" t="n">
-        <v>299.5866666666667</v>
+        <v>299.59</v>
       </c>
       <c r="F70" t="n">
         <v>282.36</v>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>280.1566666666667</v>
+        <v>280.16</v>
       </c>
       <c r="C71" t="n">
         <v>277.44</v>
@@ -2196,7 +2196,7 @@
         <v>273.52</v>
       </c>
       <c r="E71" t="n">
-        <v>279.3966666666666</v>
+        <v>279.4</v>
       </c>
       <c r="F71" t="n">
         <v>277.77</v>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>313.4266666666667</v>
+        <v>313.43</v>
       </c>
       <c r="C73" t="n">
         <v>308.05</v>
@@ -2250,7 +2250,7 @@
         <v>300.03</v>
       </c>
       <c r="E73" t="n">
-        <v>303.4266666666667</v>
+        <v>303.43</v>
       </c>
       <c r="F73" t="n">
         <v>290.49</v>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>320.4266666666667</v>
+        <v>320.43</v>
       </c>
       <c r="C74" t="n">
         <v>307.12</v>
@@ -2277,7 +2277,7 @@
         <v>322.64</v>
       </c>
       <c r="E74" t="n">
-        <v>325.5066666666667</v>
+        <v>325.51</v>
       </c>
       <c r="F74" t="n">
         <v>321.24</v>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>319.1366666666667</v>
+        <v>319.14</v>
       </c>
       <c r="C75" t="n">
         <v>298.33</v>
@@ -2304,7 +2304,7 @@
         <v>301.71</v>
       </c>
       <c r="E75" t="n">
-        <v>299.7266666666667</v>
+        <v>299.73</v>
       </c>
       <c r="F75" t="n">
         <v>298.22</v>
@@ -2354,7 +2354,7 @@
         <v>297.98</v>
       </c>
       <c r="E77" t="n">
-        <v>298.5266666666667</v>
+        <v>298.53</v>
       </c>
       <c r="F77" t="n">
         <v>290.82</v>
@@ -2379,7 +2379,7 @@
         <v>294.07</v>
       </c>
       <c r="E78" t="n">
-        <v>301.1233333333333</v>
+        <v>301.12</v>
       </c>
       <c r="F78" t="n">
         <v>294.16</v>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>299.8333333333333</v>
+        <v>299.83</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>292.2033333333333</v>
+        <v>292.2</v>
       </c>
       <c r="C80" t="n">
         <v>285.76</v>
@@ -2425,7 +2425,7 @@
         <v>292.52</v>
       </c>
       <c r="E80" t="n">
-        <v>302.4633333333333</v>
+        <v>302.46</v>
       </c>
       <c r="F80" t="n">
         <v>296.93</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>322.4866666666667</v>
+        <v>322.49</v>
       </c>
       <c r="C81" t="n">
         <v>326.55</v>
@@ -2452,7 +2452,7 @@
         <v>321.24</v>
       </c>
       <c r="E81" t="n">
-        <v>315.3566666666667</v>
+        <v>315.36</v>
       </c>
       <c r="F81" t="n">
         <v>311.9</v>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>310.4433333333333</v>
+        <v>310.44</v>
       </c>
       <c r="C82" t="n">
         <v>325.6</v>
@@ -2479,7 +2479,7 @@
         <v>312.46</v>
       </c>
       <c r="E82" t="n">
-        <v>313.5233333333333</v>
+        <v>313.52</v>
       </c>
       <c r="F82" t="n">
         <v>299.27</v>
@@ -2504,7 +2504,7 @@
         <v>320.7</v>
       </c>
       <c r="E83" t="n">
-        <v>321.8666666666667</v>
+        <v>321.87</v>
       </c>
       <c r="F83" t="n">
         <v>320.21</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>281.0866666666667</v>
+        <v>281.09</v>
       </c>
       <c r="C88" t="n">
         <v>277.54</v>
@@ -2615,7 +2615,7 @@
         <v>299.66</v>
       </c>
       <c r="E88" t="n">
-        <v>299.5266666666667</v>
+        <v>299.53</v>
       </c>
       <c r="F88" t="n">
         <v>295.92</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>304.4033333333333</v>
+        <v>304.4</v>
       </c>
       <c r="C89" t="n">
         <v>295.88</v>
@@ -2642,7 +2642,7 @@
         <v>302.77</v>
       </c>
       <c r="E89" t="n">
-        <v>295.5033333333333</v>
+        <v>295.5</v>
       </c>
       <c r="F89" t="n">
         <v>286.62</v>
@@ -2663,7 +2663,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>299.4033333333333</v>
+        <v>299.4</v>
       </c>
       <c r="F90" t="n">
         <v>280.39</v>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>324.4233333333333</v>
+        <v>324.42</v>
       </c>
       <c r="C91" t="n">
         <v>334.02</v>
@@ -2690,7 +2690,7 @@
         <v>330.77</v>
       </c>
       <c r="E91" t="n">
-        <v>318.9733333333333</v>
+        <v>318.97</v>
       </c>
       <c r="F91" t="n">
         <v>307.16</v>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>313.4433333333333</v>
+        <v>313.44</v>
       </c>
       <c r="C93" t="n">
         <v>317.43</v>
@@ -2744,7 +2744,7 @@
         <v>320.88</v>
       </c>
       <c r="E93" t="n">
-        <v>330.0433333333333</v>
+        <v>330.04</v>
       </c>
       <c r="F93" t="n">
         <v>331.45</v>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>321.6133333333333</v>
+        <v>321.61</v>
       </c>
       <c r="C94" t="n">
         <v>316.33</v>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>293.6866666666667</v>
+        <v>293.69</v>
       </c>
       <c r="C96" t="n">
         <v>281.42</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>311.2466666666667</v>
+        <v>311.25</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
@@ -2870,7 +2870,7 @@
         <v>310.3</v>
       </c>
       <c r="E99" t="n">
-        <v>321.4233333333333</v>
+        <v>321.42</v>
       </c>
       <c r="F99" t="n">
         <v>335.54</v>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>347.9766666666667</v>
+        <v>347.98</v>
       </c>
       <c r="C100" t="n">
         <v>348.07</v>
@@ -2897,7 +2897,7 @@
         <v>341.73</v>
       </c>
       <c r="E100" t="n">
-        <v>323.8166666666667</v>
+        <v>323.82</v>
       </c>
       <c r="F100" t="n">
         <v>317.48</v>
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>331.7733333333333</v>
+        <v>331.77</v>
       </c>
       <c r="C101" t="n">
         <v>319.51</v>
@@ -2924,7 +2924,7 @@
         <v>309.26</v>
       </c>
       <c r="E101" t="n">
-        <v>316.3133333333333</v>
+        <v>316.31</v>
       </c>
       <c r="F101" t="n">
         <v>332.88</v>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>323.1333333333333</v>
+        <v>323.13</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>310.8866666666667</v>
+        <v>310.89</v>
       </c>
       <c r="C103" t="n">
         <v>301.14</v>
@@ -2972,7 +2972,7 @@
         <v>300.55</v>
       </c>
       <c r="E103" t="n">
-        <v>307.6466666666667</v>
+        <v>307.65</v>
       </c>
       <c r="F103" t="n">
         <v>327.54</v>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>296.6466666666667</v>
+        <v>296.65</v>
       </c>
       <c r="C104" t="n">
         <v>314.22</v>
@@ -2999,7 +2999,7 @@
         <v>278.42</v>
       </c>
       <c r="E104" t="n">
-        <v>286.7366666666667</v>
+        <v>286.74</v>
       </c>
       <c r="F104" t="n">
         <v>276.6</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>293.4166666666667</v>
+        <v>293.42</v>
       </c>
       <c r="C106" t="n">
         <v>291.35</v>
@@ -3053,7 +3053,7 @@
         <v>301.87</v>
       </c>
       <c r="E106" t="n">
-        <v>297.4666666666667</v>
+        <v>297.47</v>
       </c>
       <c r="F106" t="n">
         <v>284.49</v>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>293.1666666666667</v>
+        <v>293.17</v>
       </c>
       <c r="C109" t="n">
         <v>296.46</v>
@@ -3120,7 +3120,7 @@
         <v>283.89</v>
       </c>
       <c r="E109" t="n">
-        <v>288.4066666666667</v>
+        <v>288.41</v>
       </c>
       <c r="F109" t="n">
         <v>285.08</v>
@@ -3141,7 +3141,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>293.2366666666667</v>
+        <v>293.24</v>
       </c>
       <c r="F110" t="n">
         <v>298.84</v>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>297.9266666666667</v>
+        <v>297.93</v>
       </c>
       <c r="C111" t="n">
         <v>305.66</v>
@@ -3185,7 +3185,7 @@
         <v>258.44</v>
       </c>
       <c r="E112" t="n">
-        <v>263.6866666666667</v>
+        <v>263.69</v>
       </c>
       <c r="F112" t="n">
         <v>279.6</v>
@@ -3203,14 +3203,14 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>304.6566666666667</v>
+        <v>304.66</v>
       </c>
       <c r="C113" t="n">
         <v>285.16</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>304.3466666666667</v>
+        <v>304.35</v>
       </c>
       <c r="F113" t="n">
         <v>288.13</v>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
-        <v>333.1533333333333</v>
+        <v>333.15</v>
       </c>
       <c r="F114" t="n">
         <v>312.49</v>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>305.6566666666667</v>
+        <v>305.66</v>
       </c>
       <c r="C115" t="n">
         <v>314.86</v>
@@ -3260,7 +3260,7 @@
         <v>291.33</v>
       </c>
       <c r="E115" t="n">
-        <v>294.8466666666667</v>
+        <v>294.85</v>
       </c>
       <c r="F115" t="n">
         <v>285.44</v>
@@ -3283,7 +3283,7 @@
         <v>294.85</v>
       </c>
       <c r="E116" t="n">
-        <v>301.2433333333333</v>
+        <v>301.24</v>
       </c>
       <c r="F116" t="n">
         <v>299.65</v>
@@ -3355,14 +3355,14 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>268.1333333333333</v>
+        <v>268.13</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
         <v>256.41</v>
       </c>
       <c r="E119" t="n">
-        <v>256.5533333333333</v>
+        <v>256.55</v>
       </c>
       <c r="F119" t="n">
         <v>259.99</v>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>306.7966666666667</v>
+        <v>306.8</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>299.0933333333333</v>
+        <v>299.09</v>
       </c>
       <c r="C121" t="n">
         <v>278.6</v>
@@ -3410,7 +3410,7 @@
         <v>292.97</v>
       </c>
       <c r="E121" t="n">
-        <v>276.4433333333333</v>
+        <v>276.44</v>
       </c>
       <c r="F121" t="n">
         <v>286.38</v>
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>273.6866666666667</v>
+        <v>273.69</v>
       </c>
       <c r="C122" t="n">
         <v>251.6</v>
@@ -3437,7 +3437,7 @@
         <v>258.4</v>
       </c>
       <c r="E122" t="n">
-        <v>255.3066666666666</v>
+        <v>255.31</v>
       </c>
       <c r="F122" t="n">
         <v>271.43</v>
@@ -3507,14 +3507,14 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>315.4933333333333</v>
+        <v>315.49</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
         <v>298.3</v>
       </c>
       <c r="E125" t="n">
-        <v>299.6433333333333</v>
+        <v>299.64</v>
       </c>
       <c r="F125" t="n">
         <v>287.62</v>
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>315.7566666666667</v>
+        <v>315.76</v>
       </c>
       <c r="C127" t="n">
         <v>327.14</v>
@@ -3562,7 +3562,7 @@
         <v>324.94</v>
       </c>
       <c r="E127" t="n">
-        <v>314.0966666666667</v>
+        <v>314.1</v>
       </c>
       <c r="F127" t="n">
         <v>299.15</v>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>286.8933333333333</v>
+        <v>286.89</v>
       </c>
       <c r="C128" t="n">
         <v>296.41</v>
@@ -3589,7 +3589,7 @@
         <v>301.09</v>
       </c>
       <c r="E128" t="n">
-        <v>280.0233333333333</v>
+        <v>280.02</v>
       </c>
       <c r="F128" t="n">
         <v>281.09</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>302.6566666666667</v>
+        <v>302.66</v>
       </c>
       <c r="C129" t="n">
         <v>296.24</v>
@@ -3616,7 +3616,7 @@
         <v>309.47</v>
       </c>
       <c r="E129" t="n">
-        <v>296.2866666666667</v>
+        <v>296.29</v>
       </c>
       <c r="F129" t="n">
         <v>296.98</v>
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>306.5666666666667</v>
+        <v>306.57</v>
       </c>
       <c r="C131" t="n">
         <v>303.66</v>
@@ -3670,7 +3670,7 @@
         <v>302.97</v>
       </c>
       <c r="E131" t="n">
-        <v>297.4966666666667</v>
+        <v>297.5</v>
       </c>
       <c r="F131" t="n">
         <v>294.73</v>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>288.4266666666667</v>
+        <v>288.43</v>
       </c>
       <c r="C132" t="n">
         <v>299.52</v>
@@ -3697,7 +3697,7 @@
         <v>277.62</v>
       </c>
       <c r="E132" t="n">
-        <v>285.4566666666666</v>
+        <v>285.46</v>
       </c>
       <c r="F132" t="n">
         <v>271.57</v>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>292.2433333333333</v>
+        <v>292.24</v>
       </c>
       <c r="C133" t="n">
         <v>301.77</v>
@@ -3724,7 +3724,7 @@
         <v>283.5</v>
       </c>
       <c r="E133" t="n">
-        <v>302.8333333333333</v>
+        <v>302.83</v>
       </c>
       <c r="F133" t="n">
         <v>287.27</v>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>302.9433333333333</v>
+        <v>302.94</v>
       </c>
       <c r="C134" t="n">
         <v>295.07</v>
@@ -3751,7 +3751,7 @@
         <v>307.91</v>
       </c>
       <c r="E134" t="n">
-        <v>305.2333333333333</v>
+        <v>305.23</v>
       </c>
       <c r="F134" t="n">
         <v>304.49</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>305.6333333333333</v>
+        <v>305.63</v>
       </c>
       <c r="C136" t="n">
         <v>301.27</v>
@@ -3805,7 +3805,7 @@
         <v>313.69</v>
       </c>
       <c r="E136" t="n">
-        <v>310.1933333333333</v>
+        <v>310.19</v>
       </c>
       <c r="F136" t="n">
         <v>317.57</v>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>297.9133333333333</v>
+        <v>297.91</v>
       </c>
       <c r="C138" t="n">
         <v>294.7</v>
@@ -3859,7 +3859,7 @@
         <v>308.16</v>
       </c>
       <c r="E138" t="n">
-        <v>308.4933333333333</v>
+        <v>308.49</v>
       </c>
       <c r="F138" t="n">
         <v>322.11</v>
@@ -3877,14 +3877,14 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>275.7266666666667</v>
+        <v>275.73</v>
       </c>
       <c r="C139" t="n">
         <v>252.7</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>272.2266666666667</v>
+        <v>272.23</v>
       </c>
       <c r="F139" t="n">
         <v>251.98</v>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>273.0166666666667</v>
+        <v>273.02</v>
       </c>
       <c r="C140" t="n">
         <v>259.94</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>282.1933333333333</v>
+        <v>282.19</v>
       </c>
       <c r="C142" t="n">
         <v>293.47</v>
@@ -3961,7 +3961,7 @@
         <v>279.09</v>
       </c>
       <c r="E142" t="n">
-        <v>294.6733333333333</v>
+        <v>294.67</v>
       </c>
       <c r="F142" t="n">
         <v>287.46</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>299.8266666666667</v>
+        <v>299.83</v>
       </c>
       <c r="C144" t="n">
         <v>297.5</v>
@@ -4015,7 +4015,7 @@
         <v>287.69</v>
       </c>
       <c r="E144" t="n">
-        <v>307.4166666666667</v>
+        <v>307.42</v>
       </c>
       <c r="F144" t="n">
         <v>295.98</v>
@@ -4033,7 +4033,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>302.0233333333333</v>
+        <v>302.02</v>
       </c>
       <c r="C145" t="n">
         <v>302.59</v>
@@ -4042,7 +4042,7 @@
         <v>295.61</v>
       </c>
       <c r="E145" t="n">
-        <v>299.7433333333333</v>
+        <v>299.74</v>
       </c>
       <c r="F145" t="n">
         <v>288.65</v>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>290.6966666666667</v>
+        <v>290.7</v>
       </c>
       <c r="C146" t="n">
         <v>303.11</v>
@@ -4069,7 +4069,7 @@
         <v>291.08</v>
       </c>
       <c r="E146" t="n">
-        <v>306.0866666666667</v>
+        <v>306.09</v>
       </c>
       <c r="F146" t="n">
         <v>287.85</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>286.5966666666667</v>
+        <v>286.6</v>
       </c>
       <c r="C147" t="n">
         <v>303.3</v>
@@ -4096,7 +4096,7 @@
         <v>293.3</v>
       </c>
       <c r="E147" t="n">
-        <v>309.9766666666667</v>
+        <v>309.98</v>
       </c>
       <c r="F147" t="n">
         <v>300.55</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>304.0033333333333</v>
+        <v>304</v>
       </c>
       <c r="C154" t="n">
         <v>287.65</v>
@@ -4273,7 +4273,7 @@
         <v>285.92</v>
       </c>
       <c r="E154" t="n">
-        <v>281.8533333333333</v>
+        <v>281.85</v>
       </c>
       <c r="F154" t="n">
         <v>288.11</v>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>297.1166666666667</v>
+        <v>297.12</v>
       </c>
       <c r="C155" t="n">
         <v>315.7</v>
@@ -4300,7 +4300,7 @@
         <v>302.08</v>
       </c>
       <c r="E155" t="n">
-        <v>292.9066666666667</v>
+        <v>292.91</v>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>275.0366666666667</v>
+        <v>275.04</v>
       </c>
       <c r="C156" t="n">
         <v>301.22</v>
@@ -4325,7 +4325,7 @@
         <v>281.51</v>
       </c>
       <c r="E156" t="n">
-        <v>285.2666666666667</v>
+        <v>285.27</v>
       </c>
       <c r="F156" t="n">
         <v>271.7</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>237.2433333333333</v>
+        <v>237.24</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>275.8466666666667</v>
+        <v>275.85</v>
       </c>
       <c r="C160" t="n">
         <v>281.73</v>
@@ -4509,7 +4509,7 @@
         <v>277.12</v>
       </c>
       <c r="E164" t="n">
-        <v>292.3333333333333</v>
+        <v>292.33</v>
       </c>
       <c r="F164" t="n">
         <v>280.69</v>
@@ -4532,7 +4532,7 @@
         <v>312.34</v>
       </c>
       <c r="E165" t="n">
-        <v>319.8966666666667</v>
+        <v>319.9</v>
       </c>
       <c r="F165" t="n">
         <v>308.82</v>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>277.2733333333333</v>
+        <v>277.27</v>
       </c>
       <c r="C166" t="n">
         <v>258.84</v>
@@ -4559,7 +4559,7 @@
         <v>294.53</v>
       </c>
       <c r="E166" t="n">
-        <v>338.8533333333333</v>
+        <v>338.85</v>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>298.6633333333333</v>
+        <v>298.66</v>
       </c>
       <c r="C168" t="n">
         <v>282.46</v>
@@ -4611,7 +4611,7 @@
         <v>298.3</v>
       </c>
       <c r="E168" t="n">
-        <v>297.4033333333333</v>
+        <v>297.4</v>
       </c>
       <c r="F168" t="n">
         <v>292.94</v>
@@ -4659,7 +4659,7 @@
         <v>250.81</v>
       </c>
       <c r="E170" t="n">
-        <v>262.1866666666667</v>
+        <v>262.19</v>
       </c>
       <c r="F170" t="n">
         <v>263.32</v>
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>292.9333333333333</v>
+        <v>292.93</v>
       </c>
       <c r="C172" t="n">
         <v>290.93</v>
@@ -4713,7 +4713,7 @@
         <v>310.42</v>
       </c>
       <c r="E172" t="n">
-        <v>309.5333333333333</v>
+        <v>309.53</v>
       </c>
       <c r="F172" t="n">
         <v>310.38</v>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>265.8666666666667</v>
+        <v>265.87</v>
       </c>
       <c r="C173" t="n">
         <v>277.64</v>
@@ -4740,7 +4740,7 @@
         <v>280.17</v>
       </c>
       <c r="E173" t="n">
-        <v>293.1166666666667</v>
+        <v>293.12</v>
       </c>
       <c r="F173" t="n">
         <v>284.55</v>
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>310.0466666666667</v>
+        <v>310.05</v>
       </c>
       <c r="C174" t="n">
         <v>325.36</v>
@@ -4767,7 +4767,7 @@
         <v>321.64</v>
       </c>
       <c r="E174" t="n">
-        <v>320.9766666666667</v>
+        <v>320.98</v>
       </c>
       <c r="F174" t="n">
         <v>309.84</v>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>270.1666666666667</v>
+        <v>270.17</v>
       </c>
       <c r="C175" t="n">
         <v>304.95</v>
@@ -4794,7 +4794,7 @@
         <v>285.58</v>
       </c>
       <c r="E175" t="n">
-        <v>296.7066666666666</v>
+        <v>296.71</v>
       </c>
       <c r="F175" t="n">
         <v>290.1</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>297.4833333333333</v>
+        <v>297.48</v>
       </c>
       <c r="C176" t="n">
         <v>322.27</v>
@@ -4821,7 +4821,7 @@
         <v>307.82</v>
       </c>
       <c r="E176" t="n">
-        <v>311.4933333333333</v>
+        <v>311.49</v>
       </c>
       <c r="F176" t="n">
         <v>296.82</v>
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>293.6966666666667</v>
+        <v>293.7</v>
       </c>
       <c r="C180" t="n">
         <v>328.61</v>
@@ -4917,7 +4917,7 @@
         <v>298.48</v>
       </c>
       <c r="E180" t="n">
-        <v>323.1166666666667</v>
+        <v>323.12</v>
       </c>
       <c r="F180" t="n">
         <v>296.42</v>
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>307.8966666666667</v>
+        <v>307.9</v>
       </c>
       <c r="C183" t="n">
         <v>339.19</v>
@@ -4998,7 +4998,7 @@
         <v>305.98</v>
       </c>
       <c r="E183" t="n">
-        <v>319.6566666666667</v>
+        <v>319.66</v>
       </c>
       <c r="F183" t="n">
         <v>301.74</v>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>306.7666666666667</v>
+        <v>306.77</v>
       </c>
       <c r="C187" t="n">
         <v>299.52</v>
@@ -5106,7 +5106,7 @@
         <v>310.63</v>
       </c>
       <c r="E187" t="n">
-        <v>313.6966666666667</v>
+        <v>313.7</v>
       </c>
       <c r="F187" t="n">
         <v>321.47</v>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>269.7033333333333</v>
+        <v>269.7</v>
       </c>
       <c r="C188" t="n">
         <v>303.24</v>
@@ -5133,7 +5133,7 @@
         <v>320.01</v>
       </c>
       <c r="E188" t="n">
-        <v>338.0733333333333</v>
+        <v>338.07</v>
       </c>
       <c r="F188" t="n">
         <v>341.14</v>
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>323.0066666666667</v>
+        <v>323.01</v>
       </c>
       <c r="C190" t="n">
         <v>342.76</v>
@@ -5187,7 +5187,7 @@
         <v>305.51</v>
       </c>
       <c r="E190" t="n">
-        <v>298.2066666666667</v>
+        <v>298.21</v>
       </c>
       <c r="F190" t="n">
         <v>282.84</v>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>336.6766666666667</v>
+        <v>336.68</v>
       </c>
       <c r="C191" t="n">
         <v>355.54</v>
@@ -5214,7 +5214,7 @@
         <v>323.36</v>
       </c>
       <c r="E191" t="n">
-        <v>312.7966666666667</v>
+        <v>312.8</v>
       </c>
       <c r="F191" t="n">
         <v>291.94</v>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>328.4833333333333</v>
+        <v>328.48</v>
       </c>
       <c r="C192" t="n">
         <v>302.74</v>
@@ -5241,7 +5241,7 @@
         <v>298.42</v>
       </c>
       <c r="E192" t="n">
-        <v>291.3233333333333</v>
+        <v>291.32</v>
       </c>
       <c r="F192" t="n">
         <v>288.46</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>313.0233333333333</v>
+        <v>313.02</v>
       </c>
       <c r="C193" t="n">
         <v>336.08</v>
@@ -5268,7 +5268,7 @@
         <v>297.74</v>
       </c>
       <c r="E193" t="n">
-        <v>288.7833333333333</v>
+        <v>288.78</v>
       </c>
       <c r="F193" t="n">
         <v>275.36</v>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>312.1066666666667</v>
+        <v>312.11</v>
       </c>
       <c r="C194" t="n">
         <v>313.11</v>
@@ -5295,7 +5295,7 @@
         <v>292.75</v>
       </c>
       <c r="E194" t="n">
-        <v>283.2266666666667</v>
+        <v>283.23</v>
       </c>
       <c r="F194" t="n">
         <v>277.35</v>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>333.8866666666667</v>
+        <v>333.89</v>
       </c>
       <c r="C196" t="n">
         <v>321.78</v>
@@ -5349,7 +5349,7 @@
         <v>316.15</v>
       </c>
       <c r="E196" t="n">
-        <v>314.4666666666667</v>
+        <v>314.47</v>
       </c>
       <c r="F196" t="n">
         <v>309.87</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>339.0733333333333</v>
+        <v>339.07</v>
       </c>
       <c r="C197" t="n">
         <v>338.83</v>
@@ -5376,7 +5376,7 @@
         <v>318.38</v>
       </c>
       <c r="E197" t="n">
-        <v>320.1833333333333</v>
+        <v>320.18</v>
       </c>
       <c r="F197" t="n">
         <v>293.96</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>317.4366666666667</v>
+        <v>317.44</v>
       </c>
       <c r="C198" t="n">
         <v>307.38</v>
@@ -5403,7 +5403,7 @@
         <v>303.05</v>
       </c>
       <c r="E198" t="n">
-        <v>303.7466666666667</v>
+        <v>303.75</v>
       </c>
       <c r="F198" t="n">
         <v>297.97</v>
@@ -5443,7 +5443,7 @@
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
-        <v>316.2866666666667</v>
+        <v>316.29</v>
       </c>
       <c r="F200" t="n">
         <v>308.32</v>
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>292.6233333333333</v>
+        <v>292.62</v>
       </c>
       <c r="C201" t="n">
         <v>323.08</v>
@@ -5470,10 +5470,10 @@
         <v>292.78</v>
       </c>
       <c r="E201" t="n">
-        <v>314.9033333333333</v>
+        <v>314.9</v>
       </c>
       <c r="F201" t="n">
-        <v>283.3200000000001</v>
+        <v>283.32</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>309.9133333333333</v>
+        <v>309.91</v>
       </c>
       <c r="C202" t="n">
         <v>309.59</v>
@@ -5497,7 +5497,7 @@
         <v>323.32</v>
       </c>
       <c r="E202" t="n">
-        <v>327.7133333333333</v>
+        <v>327.71</v>
       </c>
       <c r="F202" t="n">
         <v>338.65</v>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>297.8766666666667</v>
+        <v>297.88</v>
       </c>
       <c r="C204" t="n">
         <v>328.29</v>
@@ -5551,7 +5551,7 @@
         <v>295.53</v>
       </c>
       <c r="E204" t="n">
-        <v>315.3466666666667</v>
+        <v>315.35</v>
       </c>
       <c r="F204" t="n">
         <v>295.29</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>281.7733333333333</v>
+        <v>281.77</v>
       </c>
       <c r="C205" t="n">
         <v>325.89</v>
@@ -5578,7 +5578,7 @@
         <v>292.59</v>
       </c>
       <c r="E205" t="n">
-        <v>305.0733333333333</v>
+        <v>305.07</v>
       </c>
       <c r="F205" t="n">
         <v>288.72</v>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>303.1833333333333</v>
+        <v>303.18</v>
       </c>
       <c r="C206" t="n">
         <v>328.77</v>
@@ -5605,7 +5605,7 @@
         <v>326.79</v>
       </c>
       <c r="E206" t="n">
-        <v>329.5533333333333</v>
+        <v>329.55</v>
       </c>
       <c r="F206" t="n">
         <v>324.7</v>
@@ -5629,7 +5629,7 @@
         <v>327.44</v>
       </c>
       <c r="D207" t="n">
-        <v>303.1799999999999</v>
+        <v>303.18</v>
       </c>
       <c r="E207" t="n">
         <v>311.54</v>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
-        <v>272.8366666666666</v>
+        <v>272.84</v>
       </c>
       <c r="F208" t="n">
         <v>275.43</v>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>317.6766666666667</v>
+        <v>317.68</v>
       </c>
       <c r="C209" t="n">
         <v>306.3</v>
@@ -5680,7 +5680,7 @@
         <v>302.04</v>
       </c>
       <c r="E209" t="n">
-        <v>306.5066666666667</v>
+        <v>306.51</v>
       </c>
       <c r="F209" t="n">
         <v>304.62</v>
@@ -5705,7 +5705,7 @@
         <v>341.23</v>
       </c>
       <c r="E210" t="n">
-        <v>343.1266666666667</v>
+        <v>343.13</v>
       </c>
       <c r="F210" t="n">
         <v>332.06</v>
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>283.6566666666667</v>
+        <v>283.66</v>
       </c>
       <c r="C212" t="n">
         <v>284.51</v>
@@ -5751,7 +5751,7 @@
         <v>282.88</v>
       </c>
       <c r="E212" t="n">
-        <v>284.8466666666667</v>
+        <v>284.85</v>
       </c>
       <c r="F212" t="n">
         <v>283.66</v>
@@ -5769,7 +5769,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>279.7533333333333</v>
+        <v>279.75</v>
       </c>
       <c r="C213" t="n">
         <v>294.94</v>
@@ -5778,7 +5778,7 @@
         <v>271.53</v>
       </c>
       <c r="E213" t="n">
-        <v>277.5633333333333</v>
+        <v>277.56</v>
       </c>
       <c r="F213" t="n">
         <v>269.41</v>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>277.4233333333333</v>
+        <v>277.42</v>
       </c>
       <c r="C214" t="n">
         <v>296.06</v>
@@ -5805,7 +5805,7 @@
         <v>274.62</v>
       </c>
       <c r="E214" t="n">
-        <v>281.4633333333333</v>
+        <v>281.46</v>
       </c>
       <c r="F214" t="n">
         <v>271.93</v>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
-        <v>254.2966666666667</v>
+        <v>254.3</v>
       </c>
       <c r="F215" t="n">
         <v>255.59</v>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>274.5333333333333</v>
+        <v>274.53</v>
       </c>
       <c r="C216" t="n">
         <v>277.4</v>
@@ -5855,7 +5855,7 @@
         <v>286.75</v>
       </c>
       <c r="E216" t="n">
-        <v>286.0333333333333</v>
+        <v>286.03</v>
       </c>
       <c r="F216" t="n">
         <v>284.03</v>
@@ -5873,7 +5873,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>289.7133333333333</v>
+        <v>289.71</v>
       </c>
       <c r="C217" t="n">
         <v>307.83</v>
@@ -5882,7 +5882,7 @@
         <v>294.76</v>
       </c>
       <c r="E217" t="n">
-        <v>301.2633333333333</v>
+        <v>301.26</v>
       </c>
       <c r="F217" t="n">
         <v>297.63</v>
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>294.9466666666667</v>
+        <v>294.95</v>
       </c>
       <c r="C218" t="n">
         <v>287.64</v>
@@ -5909,7 +5909,7 @@
         <v>297.65</v>
       </c>
       <c r="E218" t="n">
-        <v>301.3266666666667</v>
+        <v>301.33</v>
       </c>
       <c r="F218" t="n">
         <v>303.98</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>274.3333333333333</v>
+        <v>274.33</v>
       </c>
       <c r="C219" t="n">
         <v>276.51</v>
@@ -5936,7 +5936,7 @@
         <v>294.22</v>
       </c>
       <c r="E219" t="n">
-        <v>292.7633333333333</v>
+        <v>292.76</v>
       </c>
       <c r="F219" t="n">
         <v>288.34</v>
@@ -5981,14 +5981,14 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>239.0266666666667</v>
+        <v>239.03</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
         <v>261.91</v>
       </c>
       <c r="E221" t="n">
-        <v>268.4266666666667</v>
+        <v>268.43</v>
       </c>
       <c r="F221" t="n">
         <v>272.55</v>
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>313.8066666666667</v>
+        <v>313.81</v>
       </c>
       <c r="C223" t="n">
         <v>295.52</v>
@@ -6042,7 +6042,7 @@
         <v>315.27</v>
       </c>
       <c r="E223" t="n">
-        <v>313.8866666666667</v>
+        <v>313.89</v>
       </c>
       <c r="F223" t="n">
         <v>318.03</v>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>294.0633333333333</v>
+        <v>294.06</v>
       </c>
       <c r="C224" t="n">
         <v>320.41</v>
@@ -6069,7 +6069,7 @@
         <v>307.7</v>
       </c>
       <c r="E224" t="n">
-        <v>305.3933333333333</v>
+        <v>305.39</v>
       </c>
       <c r="F224" t="n">
         <v>289.54</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>282.1566666666667</v>
+        <v>282.16</v>
       </c>
       <c r="C225" t="n">
         <v>316.68</v>
@@ -6096,7 +6096,7 @@
         <v>297.55</v>
       </c>
       <c r="E225" t="n">
-        <v>305.4366666666667</v>
+        <v>305.44</v>
       </c>
       <c r="F225" t="n">
         <v>282.76</v>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>277.1466666666666</v>
+        <v>277.15</v>
       </c>
       <c r="C227" t="n">
         <v>310.02</v>
@@ -6148,7 +6148,7 @@
         <v>275.49</v>
       </c>
       <c r="E227" t="n">
-        <v>281.5366666666667</v>
+        <v>281.54</v>
       </c>
       <c r="F227" t="n">
         <v>270.45</v>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>313.5666666666667</v>
+        <v>313.57</v>
       </c>
       <c r="C228" t="n">
         <v>341.98</v>
@@ -6175,7 +6175,7 @@
         <v>317.6</v>
       </c>
       <c r="E228" t="n">
-        <v>320.2666666666667</v>
+        <v>320.27</v>
       </c>
       <c r="F228" t="n">
         <v>303</v>
@@ -6274,16 +6274,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>331.7133333333333</v>
+        <v>331.71</v>
       </c>
       <c r="C232" t="n">
         <v>319.45</v>
       </c>
       <c r="D232" t="n">
-        <v>318.6799999999999</v>
+        <v>318.68</v>
       </c>
       <c r="E232" t="n">
-        <v>319.3633333333333</v>
+        <v>319.36</v>
       </c>
       <c r="F232" t="n">
         <v>323.82</v>
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>289.6133333333333</v>
+        <v>289.61</v>
       </c>
       <c r="C236" t="n">
         <v>325.63</v>
@@ -6383,7 +6383,7 @@
         <v>289.82</v>
       </c>
       <c r="E236" t="n">
-        <v>307.5033333333333</v>
+        <v>307.5</v>
       </c>
       <c r="F236" t="n">
         <v>283.48</v>
@@ -6401,14 +6401,14 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>275.8366666666667</v>
+        <v>275.84</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="n">
         <v>248.76</v>
       </c>
       <c r="E237" t="n">
-        <v>288.2966666666667</v>
+        <v>288.3</v>
       </c>
       <c r="F237" t="n">
         <v>282.31</v>
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>305.9466666666667</v>
+        <v>305.95</v>
       </c>
       <c r="C238" t="n">
         <v>333.28</v>
@@ -6435,7 +6435,7 @@
         <v>282.88</v>
       </c>
       <c r="E238" t="n">
-        <v>310.8966666666667</v>
+        <v>310.9</v>
       </c>
       <c r="F238" t="n">
         <v>284.53</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>313.7666666666667</v>
+        <v>313.77</v>
       </c>
       <c r="C239" t="n">
         <v>313.01</v>
@@ -6462,7 +6462,7 @@
         <v>302.91</v>
       </c>
       <c r="E239" t="n">
-        <v>309.8166666666667</v>
+        <v>309.82</v>
       </c>
       <c r="F239" t="n">
         <v>298.07</v>
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>300.5466666666667</v>
+        <v>300.55</v>
       </c>
       <c r="C240" t="n">
         <v>336.86</v>
@@ -6489,7 +6489,7 @@
         <v>317.65</v>
       </c>
       <c r="E240" t="n">
-        <v>317.7266666666667</v>
+        <v>317.73</v>
       </c>
       <c r="F240" t="n">
         <v>303.14</v>
@@ -6510,7 +6510,7 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
-        <v>339.8933333333333</v>
+        <v>339.89</v>
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>291.5266666666667</v>
+        <v>291.53</v>
       </c>
       <c r="C242" t="n">
         <v>339.82</v>
@@ -6535,7 +6535,7 @@
         <v>301.26</v>
       </c>
       <c r="E242" t="n">
-        <v>328.7966666666667</v>
+        <v>328.8</v>
       </c>
       <c r="F242" t="n">
         <v>308.16</v>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>274.1466666666666</v>
+        <v>274.15</v>
       </c>
       <c r="C243" t="n">
         <v>305.89</v>
@@ -6562,7 +6562,7 @@
         <v>272.74</v>
       </c>
       <c r="E243" t="n">
-        <v>302.3066666666667</v>
+        <v>302.31</v>
       </c>
       <c r="F243" t="n">
         <v>287.38</v>
@@ -6587,7 +6587,7 @@
         <v>300</v>
       </c>
       <c r="E244" t="n">
-        <v>320.8733333333333</v>
+        <v>320.87</v>
       </c>
       <c r="F244" t="n">
         <v>318.33</v>
@@ -9630,7 +9630,7 @@
         <v>0.0358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1871982678460341</v>
+        <v>0.187198224088064</v>
       </c>
       <c r="J2" t="n">
         <v>243</v>
@@ -9639,19 +9639,19 @@
         <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004594500486811537</v>
+        <v>0.004594571446529527</v>
       </c>
       <c r="M2" t="n">
-        <v>16.65083578405234</v>
+        <v>16.65070128514895</v>
       </c>
       <c r="N2" t="n">
-        <v>448.3146594327641</v>
+        <v>448.3074940040543</v>
       </c>
       <c r="O2" t="n">
-        <v>21.17344231420022</v>
+        <v>21.17327310559363</v>
       </c>
       <c r="P2" t="n">
-        <v>292.7734869202118</v>
+        <v>292.7737752043045</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9708,7 +9708,7 @@
         <v>0.025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7087457733073118</v>
+        <v>0.7087457733073119</v>
       </c>
       <c r="J3" t="n">
         <v>243</v>
@@ -9717,13 +9717,13 @@
         <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06116492112140248</v>
+        <v>0.06116492112140259</v>
       </c>
       <c r="M3" t="n">
         <v>17.65228218591779</v>
       </c>
       <c r="N3" t="n">
-        <v>485.537506406779</v>
+        <v>485.5375064067789</v>
       </c>
       <c r="O3" t="n">
         <v>22.03491562059585</v>
@@ -9786,7 +9786,7 @@
         <v>0.0257</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1213005589249807</v>
+        <v>-0.1213005589249804</v>
       </c>
       <c r="J4" t="n">
         <v>243</v>
@@ -9795,16 +9795,16 @@
         <v>197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002297143092734322</v>
+        <v>0.002297143092734766</v>
       </c>
       <c r="M4" t="n">
         <v>15.02330674933987</v>
       </c>
       <c r="N4" t="n">
-        <v>371.2503475388152</v>
+        <v>371.250347538815</v>
       </c>
       <c r="O4" t="n">
-        <v>19.26785788661561</v>
+        <v>19.2678578866156</v>
       </c>
       <c r="P4" t="n">
         <v>299.9492913686742</v>
@@ -9864,7 +9864,7 @@
         <v>0.0328</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1930249435296721</v>
+        <v>-0.1930139130692022</v>
       </c>
       <c r="J5" t="n">
         <v>243</v>
@@ -9873,19 +9873,19 @@
         <v>201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006133175594147611</v>
+        <v>0.006132778694873386</v>
       </c>
       <c r="M5" t="n">
-        <v>14.85709585096506</v>
+        <v>14.85693251676623</v>
       </c>
       <c r="N5" t="n">
-        <v>350.5217082308618</v>
+        <v>350.5044704039238</v>
       </c>
       <c r="O5" t="n">
-        <v>18.72222498077784</v>
+        <v>18.72176461778974</v>
       </c>
       <c r="P5" t="n">
-        <v>306.3372436861803</v>
+        <v>306.3373267023883</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9942,7 +9942,7 @@
         <v>0.055</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2325847281969794</v>
+        <v>-0.2325847281969792</v>
       </c>
       <c r="J6" t="n">
         <v>243</v>
@@ -10061,7 +10061,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-35.33154524913681,173.18496764411464</t>
+          <t>-35.33154526734745,173.18496761493574</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.333449218923384,173.18635226891487</t>
+          <t>-35.333449237134225,173.1863522397355</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-35.33175459824104,173.1846322027526</t>
+          <t>-35.33175461645161,173.18463217357353</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.33350133830746,173.1862687574569</t>
+          <t>-35.333501356518276,173.18626872827747</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-35.33175121107611,173.18463763005354</t>
+          <t>-35.33175122928668,173.1846376008745</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.33338360523503,173.1864574021596</t>
+          <t>-35.3333836234459,173.18645737298024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.33326767474741,173.18664315756828</t>
+          <t>-35.33326769295833,173.18664312838905</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.33321845064144,173.18672202904915</t>
+          <t>-35.333218468852365,173.18672199986995</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.33339382152725,173.18644103254815</t>
+          <t>-35.3333938397381,173.1864410033688</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.331691662491465,173.18473304543178</t>
+          <t>-35.331691680702065,173.18473301625278</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.33349538337026,173.18627829912788</t>
+          <t>-35.33349540158108,173.18627826994845</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-35.331798576731295,173.18456173533613</t>
+          <t>-35.33179859494185,173.18456170615707</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.33353111298206,173.18622104908104</t>
+          <t>-35.33353113119286,173.18622101990158</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-35.33176770984492,173.1846111938414</t>
+          <t>-35.33176772805549,173.18461116466233</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.33337218702346,173.1864756976028</t>
+          <t>-35.33337220523432,173.18647566842344</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-35.33161091667544,173.1848624249594</t>
+          <t>-35.33161093488606,173.18486239578044</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.333356762417445,173.1865004124915</t>
+          <t>-35.333356744206576,173.18650044167086</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-35.33172923091926,173.18467284914067</t>
+          <t>-35.33172921270868,173.18467287831967</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.33304215034049,173.18700451246872</t>
+          <t>-35.33304216855147,173.18700448328963</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.33306272875906,173.18697154008456</t>
+          <t>-35.33306271054808,173.18697156926368</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.333098859341185,173.18691364870762</t>
+          <t>-35.33309887755215,173.18691361952847</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-35.33170078599512,173.18471842675447</t>
+          <t>-35.33170080420571,173.1847183975755</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.33345473680641,173.18634342756013</t>
+          <t>-35.333454755017236,173.18634339838076</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-35.331824362857986,173.18452041775953</t>
+          <t>-35.331824381068515,173.18452038858044</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.333481980206145,173.18629977517728</t>
+          <t>-35.333481961995325,173.18629980435668</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-35.331768838899535,173.1846093847404</t>
+          <t>-35.33176882068898,173.18460941391945</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.33353078518758,173.18622157431108</t>
+          <t>-35.33353080339839,173.18622154513162</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-35.33176765521325,173.18461128137855</t>
+          <t>-35.33176767342381,173.1846112521995</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.33325445362746,173.18666434170464</t>
+          <t>-35.33325447183837,173.18666431252538</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.33331323841333,173.18657015102897</t>
+          <t>-35.333313256624216,173.18657012184968</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-35.33164063639652,173.18481480491963</t>
+          <t>-35.331640654607135,173.18481477574068</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.33342718380651,173.186387575963</t>
+          <t>-35.333427165595666,173.1863876051424</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-35.33179325925142,173.1845702556241</t>
+          <t>-35.331793241040884,173.18457028480316</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.33348427476984,173.18629609857146</t>
+          <t>-35.33348425655901,173.1862961277509</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-35.33198009910765,173.18427087771286</t>
+          <t>-35.331980080897175,173.18427090689207</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-35.33183199307214,173.18450819172014</t>
+          <t>-35.3318319748616,173.18450822089926</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -11097,7 +11097,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-35.33164728326785,173.18480415459962</t>
+          <t>-35.33164726505724,173.18480418377857</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-35.333330538754524,173.18654243069878</t>
+          <t>-35.33333052054364,173.1865424598781</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-35.331720107421134,173.1846874678282</t>
+          <t>-35.33172008921055,173.18468749700725</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.333373807790494,173.18647310064225</t>
+          <t>-35.33337378957963,173.1864731298216</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-35.33182166769851,173.1845247362645</t>
+          <t>-35.33182164948798,173.1845247654436</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.33332667804735,173.18654861671035</t>
+          <t>-35.33332669625824,173.18654858753104</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.33333228699917,173.18653962948582</t>
+          <t>-35.33333226878828,173.1865396586651</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.33353185962503,173.18621985272375</t>
+          <t>-35.33353184141423,173.1862198819032</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-35.331895802738195,173.18440594809329</t>
+          <t>-35.33189578452768,173.18440597727243</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -11363,7 +11363,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.33352262674645,173.1862346467012</t>
+          <t>-35.33352260853564,173.18623467588066</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-35.33190514472826,173.18439097919264</t>
+          <t>-35.33190512651775,173.1843910083718</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.33341052088069,173.18641427508175</t>
+          <t>-35.33341050266984,173.1864143042611</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-35.33181686011637,173.18453243954298</t>
+          <t>-35.33181684190583,173.18453246872207</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.333460181845446,173.18633470292178</t>
+          <t>-35.33346016363462,173.1863347321012</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -11498,7 +11498,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-35.331858726127706,173.1844653567956</t>
+          <t>-35.33185874433823,173.1844653276165</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-35.33169601482178,173.184726071652</t>
+          <t>-35.331695996611195,173.184726100831</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.33360353729528,173.1861050023227</t>
+          <t>-35.3336035190845,173.1861050315022</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.333494545672636,173.18627964138116</t>
+          <t>-35.333494527461816,173.18627967056057</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-35.331760152462586,173.1846233031452</t>
+          <t>-35.33176013425203,173.18462333232426</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-35.331729613341295,173.18467223638123</t>
+          <t>-35.33172959513072,173.18467226556024</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-35.331533721797356,173.18498611434808</t>
+          <t>-35.331533740008005,173.18498608516921</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-35.333387028876885,173.18645191644356</t>
+          <t>-35.33338701066602,173.1864519456229</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-35.33169191743971,173.18473263692587</t>
+          <t>-35.331691899229114,173.18473266610488</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.33326762011469,173.18664324510607</t>
+          <t>-35.3332676383256,173.1866432159268</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-35.331586386965014,173.18490172897324</t>
+          <t>-35.331586405175635,173.18490169979432</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.33330857642556,173.18657762092644</t>
+          <t>-35.33330855821466,173.18657765010573</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-35.3316991288319,173.1847210820434</t>
+          <t>-35.33169911062132,173.1847211112224</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-35.3317369522017,173.18466047723484</t>
+          <t>-35.33173697041227,173.18466044805584</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.33325008300848,173.18667134472338</t>
+          <t>-35.333250101219384,173.18667131554417</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-35.3316147409053,173.1848562973827</t>
+          <t>-35.33161475911592,173.18485626820376</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.333255983344,173.18666189064788</t>
+          <t>-35.333256001554915,173.18666186146865</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-35.331592068680806,173.18489262515033</t>
+          <t>-35.33159208689144,173.1848925959714</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.33333591096443,173.18653382280436</t>
+          <t>-35.33333592917531,173.18653379362507</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-35.33176940342683,173.18460848018987</t>
+          <t>-35.3317694216374,173.1846084510108</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.33339544229355,173.18643843558624</t>
+          <t>-35.333395424082696,173.18643846476562</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-35.33170672264524,173.1847089143998</t>
+          <t>-35.33170670443465,173.18470894357884</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.33340451129944,173.18642390426936</t>
+          <t>-35.333404493088594,173.18642393344874</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-35.33177277237991,173.18460308206554</t>
+          <t>-35.33177275416934,173.18460311124457</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.33335545123465,173.18650251340253</t>
+          <t>-35.333355433023776,173.18650254258188</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-35.33167793170621,173.18475504638903</t>
+          <t>-35.33167791349561,173.184755075568</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.3333335071282,173.18653767447253</t>
+          <t>-35.33333352533909,173.1865376452932</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-35.33168161024589,173.18474915223408</t>
+          <t>-35.33168162845648,173.18474912305513</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.3333251483331,173.18655106777135</t>
+          <t>-35.333325166544,173.18655103859206</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-35.331571308562054,173.18492588911252</t>
+          <t>-35.33157132677268,173.18492585993363</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.3335069108168,173.18625982855252</t>
+          <t>-35.333506929027614,173.1862597993731</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-35.33170258884292,173.18471553803343</t>
+          <t>-35.33170260705352,173.18471550885442</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.33354515351014,173.18619855172466</t>
+          <t>-35.333545171720935,173.1861985225452</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-35.33182321559417,173.1845222560421</t>
+          <t>-35.33182323380472,173.18452222686298</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-35.33353810593042,173.18620984417302</t>
+          <t>-35.33353812414122,173.18620981499356</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-35.331682375090736,173.18474792671668</t>
+          <t>-35.33168239330133,173.18474789753768</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -12524,7 +12524,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-35.33167581927734,173.184758431151</t>
+          <t>-35.331675837487936,173.18475840197203</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-35.33169000532795,173.18473570072013</t>
+          <t>-35.33168998711736,173.18473572989913</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.33343264705959,173.18637882215123</t>
+          <t>-35.333432628848755,173.1863788513306</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.333390962422534,173.18644561370542</t>
+          <t>-35.33339094421166,173.18644564288476</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -12615,7 +12615,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-35.33169732598396,173.18472397076422</t>
+          <t>-35.33169730777339,173.18472399994323</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.33355640778254,173.18618051881862</t>
+          <t>-35.33355642599334,173.18618048963913</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-35.33176776447661,173.18461110630423</t>
+          <t>-35.33176778268715,173.1846110771252</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.33349061213566,173.18628594413536</t>
+          <t>-35.333490593924836,173.1862859733148</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -12689,7 +12689,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-35.331757748668416,173.1846271547787</t>
+          <t>-35.33175773045786,173.18462718395776</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-35.33180332968368,173.18455411959835</t>
+          <t>-35.331803347894216,173.18455409041928</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.333330229169526,173.1865429267469</t>
+          <t>-35.333330247380395,173.1865428975676</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-35.331681282455236,173.18474967745584</t>
+          <t>-35.331681300665835,173.18474964827686</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.33345761411809,173.1863388172163</t>
+          <t>-35.33345759590725,173.1863388463957</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-35.33165930226566,173.18478489648223</t>
+          <t>-35.33165928405507,173.1847849256612</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -12921,7 +12921,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-35.331680608663326,173.18475075707832</t>
+          <t>-35.331680590452734,173.1847507862573</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-35.333566988253,173.186163565548</t>
+          <t>-35.33356697004221,173.18616359472747</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-35.33178752292831,173.18457944702936</t>
+          <t>-35.331787504717745,173.18457947620843</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.333507001870856,173.1862596826554</t>
+          <t>-35.33350698366006,173.18625971183482</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -13032,7 +13032,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-35.33184800012836,173.1844825432912</t>
+          <t>-35.33184798191783,173.1844825724703</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.33355163655413,173.18618816383764</t>
+          <t>-35.333551618343314,173.1861881930171</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.333399066253946,173.18643262889577</t>
+          <t>-35.33339908446481,173.18643259971643</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.3334950009431,173.18627891189567</t>
+          <t>-35.33349501915391,173.18627888271624</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-35.33180090768118,173.18455800041502</t>
+          <t>-35.331800889470635,173.18455802959411</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.33369566552236,173.1859573830766</t>
+          <t>-35.33369568373308,173.18595735389707</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-35.33181398285106,173.184537049838</t>
+          <t>-35.3318140010616,173.18453702065892</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-35.333607143028864,173.1860992247819</t>
+          <t>-35.33360712481808,173.18609925396143</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-35.33177299090657,173.1846027319169</t>
+          <t>-35.33177297269602,173.18460276109596</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-35.333559940676544,173.1861748580024</t>
+          <t>-35.33355992246577,173.1861748871819</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.33349303417466,173.1862820632729</t>
+          <t>-35.333493052385485,173.1862820340935</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-35.331725643436165,173.1846785974074</t>
+          <t>-35.33172566164674,173.1846785682284</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-35.3334152374909,173.1864067176274</t>
+          <t>-35.333415255701745,173.18640668844802</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-35.33161140836214,173.18486163712814</t>
+          <t>-35.33161142657277,173.1848616079492</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.33339759117462,173.1864349924231</t>
+          <t>-35.33339760938548,173.18643496324376</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -13429,7 +13429,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-35.33167002830809,173.1847677100666</t>
+          <t>-35.331670046518674,173.18476768088763</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.33339622536038,173.18643718087426</t>
+          <t>-35.33339624357124,173.18643715169492</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-35.33162053188138,173.18484701847976</t>
+          <t>-35.33162055009199,173.1848469893008</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -13537,7 +13537,7 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-35.33164691905575,173.18480473817883</t>
+          <t>-35.331646937266356,173.18480470899988</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.333422230456506,173.18639551275135</t>
+          <t>-35.33342224866735,173.186395483572</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>-35.33148548176316,173.1850634091544</t>
+          <t>-35.33148549997382,173.18506337997556</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.33345899814137,173.1863365995824</t>
+          <t>-35.333459016352194,173.18633657040303</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13624,7 +13624,7 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-35.331707614963754,173.1847074846286</t>
+          <t>-35.33170763317433,173.18470745544957</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -13653,7 +13653,7 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-35.33186499054726,173.1844553191798</t>
+          <t>-35.33186497233674,173.1844553483589</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.33346446139075,173.18632784576374</t>
+          <t>-35.333464479601574,173.18632781658437</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-35.33165571477725,173.18479064473908</t>
+          <t>-35.331655732987855,173.1847906155601</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-35.331690660909125,173.1847346502764</t>
+          <t>-35.33169064269854,173.1847346794554</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.333259461627875,173.18665631741138</t>
+          <t>-35.33325944341698,173.1866563465906</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-35.33144651091794,173.18512585185263</t>
+          <t>-35.33144649270725,173.18512588103147</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.33347068949426,173.18631786640904</t>
+          <t>-35.33347070770509,173.18631783722964</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.33342860425238,173.18638529997205</t>
+          <t>-35.33342858604153,173.18638532915142</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-35.33155517393708,173.18495174161873</t>
+          <t>-35.33155515572644,173.18495177079762</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.333289800993576,173.18660770476268</t>
+          <t>-35.333289819204474,173.18660767558342</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-35.331439700122054,173.18513676472926</t>
+          <t>-35.33143971833274,173.18513673555043</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.33351820151997,173.18624173730458</t>
+          <t>-35.333518183309174,173.18624176648402</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>-35.331681919825954,173.18474865619135</t>
+          <t>-35.33168190161535,173.18474868537032</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-35.3335196401739,173.1862394321291</t>
+          <t>-35.3335196583847,173.18623940294964</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-35.331760880885014,173.1846221359835</t>
+          <t>-35.33176089909558,173.18462210680445</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.333361952515666,173.1864920963848</t>
+          <t>-35.33336193430479,173.18649212556411</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-35.3315747321612,173.18492040347783</t>
+          <t>-35.33157471395057,173.18492043265672</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.333448071640696,173.18635410721623</t>
+          <t>-35.33344808985153,173.18635407803683</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14164,7 +14164,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-35.331663581756565,173.18477803942392</t>
+          <t>-35.33166359996717,173.1847780102449</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.333469432947126,173.18631987978773</t>
+          <t>-35.33346945115796,173.18631985060833</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-35.331670192203454,173.1847674474558</t>
+          <t>-35.33167021041406,173.1847674182768</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14260,7 +14260,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-35.33337032951509,173.18647867389447</t>
+          <t>-35.33337034772596,173.18647864471515</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-35.33160441548394,173.18487284183843</t>
+          <t>-35.33160443369456,173.1848728126595</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.33339118095282,173.18644526355328</t>
+          <t>-35.33339116274196,173.18644529273263</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>-35.33169934735894,173.18472073189542</t>
+          <t>-35.33169932914834,173.18472076107443</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.33344963777261,173.18635159778898</t>
+          <t>-35.333449619561776,173.1863516269684</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>-35.33171245897823,173.18469972301284</t>
+          <t>-35.33171244076766,173.18469975219188</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-35.333464333914925,173.1863280500195</t>
+          <t>-35.3334643157041,173.18632807919892</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>-35.3317395563132,173.18465630463402</t>
+          <t>-35.331739538102624,173.18465633381302</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-35.33342215761311,173.18639562946882</t>
+          <t>-35.33342213940227,173.1863956586482</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-35.33173026892192,173.18467118593648</t>
+          <t>-35.331730250711345,173.18467121511551</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.333300946061776,173.18658984704584</t>
+          <t>-35.33330096427266,173.18658981786658</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14530,7 +14530,7 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>-35.33153213747086,173.18498865291056</t>
+          <t>-35.3315321556815,173.1849886237317</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.33328614060296,173.18661356979604</t>
+          <t>-35.33328615881385,173.18661354061678</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-35.333336275182035,173.18653323921828</t>
+          <t>-35.33333625697115,173.18653326839757</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-35.33165476782594,173.18479216204537</t>
+          <t>-35.33165474961535,173.18479219122435</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.3334326106379,173.18637888050998</t>
+          <t>-35.333432628848755,173.1863788513306</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-35.331724386906494,173.1846806107596</t>
+          <t>-35.33172440511707,173.1846805815806</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.33344461158162,173.18635965129926</t>
+          <t>-35.333444593370785,173.18635968047866</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-35.3316824661437,173.18474778082174</t>
+          <t>-35.3316824479331,173.18474781000072</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.33338273111367,173.18645880276785</t>
+          <t>-35.33338274932454,173.1864587735885</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>-35.33171712088644,173.18469225318628</t>
+          <t>-35.331717139097,173.1846922240073</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -14803,7 +14803,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-35.33336033174822,173.18649469334454</t>
+          <t>-35.33336034995908,173.18649466416522</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-35.33173837262617,173.1846582012708</t>
+          <t>-35.33173839083675,173.18465817209176</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.3334554288181,173.1863423187433</t>
+          <t>-35.33345541060726,173.18634234792268</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -15053,7 +15053,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-35.33158472979777,173.18490438425468</t>
+          <t>-35.33158471158713,173.1849044134336</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.33341780522058,173.1864026033372</t>
+          <t>-35.33341782343142,173.18640257415785</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-35.3316451162058,173.18480762689592</t>
+          <t>-35.3316451344164,173.18480759771694</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.33329717640666,173.1865958871565</t>
+          <t>-35.33329719461754,173.18659585797724</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-35.331603377478494,173.18487450503744</t>
+          <t>-35.331603395689115,173.18487447585852</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.33309070082507,173.18692672095852</t>
+          <t>-35.33309068261409,173.18692675013764</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.33330160165393,173.18658879659176</t>
+          <t>-35.33330161986483,173.18658876741247</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -15355,7 +15355,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>-35.331641983981484,173.1848126456768</t>
+          <t>-35.33164196577088,173.18481267485578</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>-35.33179256725058,173.18457136442862</t>
+          <t>-35.33179258546114,173.18457133524956</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -15406,7 +15406,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.33330939591563,173.1865763078586</t>
+          <t>-35.333309377704744,173.18657633703788</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>-35.33189613052734,173.18440542286876</t>
+          <t>-35.33189611231684,173.1844054520479</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.333426255053425,173.1863890641109</t>
+          <t>-35.33342623684258,173.18638909329027</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-35.33166968230676,173.18476826446718</t>
+          <t>-35.33166966409617,173.18476829364616</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-35.33147728696195,173.1850765396333</t>
+          <t>-35.33147730517262,173.18507651045445</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -15612,7 +15612,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.33339495060041,173.18643922342864</t>
+          <t>-35.33339493238955,173.18643925260798</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -15627,7 +15627,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-35.331735950620335,173.18466208208127</t>
+          <t>-35.331735932409764,173.18466211126028</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -15649,7 +15649,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.33324707820769,173.18667615929837</t>
+          <t>-35.333247096418596,173.1866761301191</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-35.33164626347396,173.18480578862142</t>
+          <t>-35.331646281684556,173.18480575944247</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.33348844504802,173.18628941648583</t>
+          <t>-35.33348846325883,173.18628938730643</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-35.33179846746802,173.18456191041057</t>
+          <t>-35.33179848567856,173.18456188123147</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.33327057028145,173.18663851806645</t>
+          <t>-35.33327058849236,173.18663848888718</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-35.331665876291964,173.18477436287318</t>
+          <t>-35.331665894502564,173.1847743336942</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.33341980841384,173.18639939360708</t>
+          <t>-35.333419790202996,173.18639942278645</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -15775,7 +15775,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-35.3317466584347,173.18464492481218</t>
+          <t>-35.331746640224125,173.1846449539912</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -15884,7 +15884,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.33339912088651,173.1864325413577</t>
+          <t>-35.33339913909736,173.18643251217836</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-35.33181015863742,173.1845431774448</t>
+          <t>-35.33181017684795,173.18454314826573</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-35.333476699067056,173.18630823720565</t>
+          <t>-35.333476717277875,173.18630820802625</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -16010,7 +16010,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>-35.33179125609105,173.1845734653213</t>
+          <t>-35.331791274301594,173.18457343614224</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.3334705255968,173.18631812902365</t>
+          <t>-35.33347054380764,173.18631809984424</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>-35.33175869561765,173.18462563746857</t>
+          <t>-35.33175871382821,173.18462560828954</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.33326803896556,173.18664257398316</t>
+          <t>-35.33326802075464,173.18664260316243</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -16195,7 +16195,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-35.33189186926813,173.1844122507873</t>
+          <t>-35.33189185105761,173.1844122799664</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.3335592486664,173.1861759668221</t>
+          <t>-35.3335592668772,173.18617593764267</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>-35.331674071060284,173.18476123233322</t>
+          <t>-35.331674089270884,173.18476120315424</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.33363393107113,173.18605630172297</t>
+          <t>-35.33363394928189,173.18605627254342</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -16306,7 +16306,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>-35.33175377876569,173.1846335158093</t>
+          <t>-35.331753796976244,173.18463348663028</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-35.333589168990564,173.18612802494224</t>
+          <t>-35.33358915077979,173.18612805412172</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -16343,7 +16343,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>-35.33163646616719,173.18482148690038</t>
+          <t>-35.33163644795658,173.18482151607932</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.33350470730829,173.18626335926322</t>
+          <t>-35.33350468909746,173.18626338844265</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>-35.331622589680876,173.1848437212592</t>
+          <t>-35.331622571470255,173.18484375043815</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.333499699334,173.186271383605</t>
+          <t>-35.33349971754481,173.18627135442557</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>-35.331592232576455,173.18489236254</t>
+          <t>-35.33159225078707,173.18489233336112</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.33361868865873,173.18608072497616</t>
+          <t>-35.333618706869494,173.18608069579665</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -16491,7 +16491,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>-35.33176290225727,173.18461889710963</t>
+          <t>-35.33176292046783,173.1846188679306</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.33364702460901,173.18603532164505</t>
+          <t>-35.333647006398245,173.1860353508246</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -16528,7 +16528,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>-35.33179413335775,173.18456885502889</t>
+          <t>-35.331794115147204,173.18456888420795</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.33352881842065,173.18622472569106</t>
+          <t>-35.33352883663145,173.18622469651163</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-35.33170433705892,173.18471273684926</t>
+          <t>-35.33170435526952,173.18471270767026</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -16611,7 +16611,7 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>-35.33177284522212,173.18460296534934</t>
+          <t>-35.331772863432676,173.18460293617025</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.33339325699066,173.18644193710787</t>
+          <t>-35.333393238779806,173.18644196628722</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>-35.3317652878406,173.18461507465466</t>
+          <t>-35.33176526963004,173.1846151038337</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -16670,7 +16670,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.333487716615174,173.1862905836624</t>
+          <t>-35.33348769840435,173.18629061284184</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -16685,7 +16685,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>-35.33183527096805,173.18450293948297</t>
+          <t>-35.33183525275752,173.18450296866206</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.33342195729381,173.18639595044186</t>
+          <t>-35.33342197550465,173.18639592126252</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>-35.33176770984492,173.1846111938414</t>
+          <t>-35.33176772805549,173.18461116466233</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-35.33333398061111,173.18653691581062</t>
+          <t>-35.33333396240023,173.18653694498994</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-35.3317115848704,173.18470112360524</t>
+          <t>-35.331711566659806,173.18470115278427</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -16818,7 +16818,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.33345094895278,173.1863494968731</t>
+          <t>-35.33345093074195,173.18634952605248</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-35.33184532318077,173.18448683261963</t>
+          <t>-35.33184530497023,173.18448686179872</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -16895,7 +16895,7 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>-35.331535470019645,173.1849833131756</t>
+          <t>-35.33153548823028,173.1849832839967</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-35.333530129598614,173.18622262477106</t>
+          <t>-35.33353014780942,173.18622259559163</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>-35.331719415419215,173.18468857663072</t>
+          <t>-35.331719433629786,173.1846885474517</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>-35.33191947639362,173.18436801519994</t>
+          <t>-35.33191949460413,173.1843679860208</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.333344269757625,173.186520429502</t>
+          <t>-35.3333442879685,173.18652040032268</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>-35.331601082940054,173.1848781815825</t>
+          <t>-35.33160110115067,173.18487815240357</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -17045,7 +17045,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.333322944816054,173.18655459846622</t>
+          <t>-35.333322926605184,173.18655462764553</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-35.33156129271199,173.18494193750925</t>
+          <t>-35.33156127450135,173.18494196668814</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -17082,7 +17082,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.33331021540568,173.18657499479073</t>
+          <t>-35.3333101971948,173.18657502397</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>-35.33158259915409,173.18490779818782</t>
+          <t>-35.33158258094347,173.18490782736671</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -17126,7 +17126,7 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>-35.33143418228403,173.1851456059087</t>
+          <t>-35.33143420049471,173.1851455767299</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -17148,7 +17148,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-35.33329442656142,173.1866002932272</t>
+          <t>-35.33329440835051,173.18660032240646</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-35.33160756592139,173.18486779388323</t>
+          <t>-35.331607547710774,173.18486782306218</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-35.333377358909104,173.18646741067218</t>
+          <t>-35.33337734069824,173.18646743985155</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -17200,7 +17200,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-35.33169077017266,173.18473447520245</t>
+          <t>-35.33169075196207,173.18473450438142</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -17222,7 +17222,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.33340594995685,173.18642159910033</t>
+          <t>-35.33340596816769,173.18642156992098</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>-35.33169111617383,173.18473392080156</t>
+          <t>-35.33169113438443,173.18473389162259</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-35.33329333390763,173.1866020439837</t>
+          <t>-35.333293315696736,173.186602073163</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -17274,7 +17274,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-35.33164433314974,173.18480888159118</t>
+          <t>-35.33164431493913,173.18480891077016</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.33310044369571,173.18691111012285</t>
+          <t>-35.33310046190669,173.18691108094373</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>-35.33151137732561,173.1850219168236</t>
+          <t>-35.331511395536275,173.18502188764475</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.33350898684952,173.18625650209762</t>
+          <t>-35.33350900506033,173.1862564729182</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-35.33175973361966,173.1846239742632</t>
+          <t>-35.331759751830226,173.18462394508413</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-35.333401124080595,173.18642933162909</t>
+          <t>-35.33340110586971,173.18642936080843</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>-35.33171333308605,173.18469832242045</t>
+          <t>-35.33171331487547,173.18469835159945</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.33333607486235,173.18653356019064</t>
+          <t>-35.333336093073235,173.18653353101132</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>-35.331713569823584,173.18469794309334</t>
+          <t>-35.33171358803417,173.1846979139143</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.333308703901785,173.18657741667147</t>
+          <t>-35.33330872211268,173.18657738749215</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-35.33158299978795,173.1849071562517</t>
+          <t>-35.331583017998575,173.1849071270728</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.333507675670965,173.18625860301654</t>
+          <t>-35.333507693881785,173.1862585738371</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>-35.331794588621456,173.1845681255522</t>
+          <t>-35.33179460683199,173.18456809637314</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -17732,7 +17732,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.33360681523491,173.18609975001291</t>
+          <t>-35.33360679702413,173.18609977919243</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-35.33178965356267,173.184576033079</t>
+          <t>-35.33178963535214,173.18457606225806</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-35.33337681258318,173.18646828605225</t>
+          <t>-35.33337679437233,173.1864683152316</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -17879,7 +17879,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>-35.331724860381456,173.18467985210518</t>
+          <t>-35.331724842170885,173.18467988128418</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -17901,7 +17901,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.33330154702126,173.1865888841296</t>
+          <t>-35.33330156523214,173.18658885495034</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>-35.33161993093106,173.18484798138485</t>
+          <t>-35.331619949141675,173.1848479522059</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.33346604573294,173.1863253071561</t>
+          <t>-35.33346606394379,173.1863252779767</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -17949,7 +17949,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-35.33174339874316,173.18465014785886</t>
+          <t>-35.331743416953735,173.18465011867983</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-35.33350876831977,173.18625685225078</t>
+          <t>-35.33350878653057,173.18625682307135</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>-35.33173749851883,173.18465960186407</t>
+          <t>-35.331737516729376,173.18465957268504</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -18008,7 +18008,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.333436544179726,173.18637257776476</t>
+          <t>-35.333436562390574,173.18637254858538</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -18023,7 +18023,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>-35.33178071218184,173.18459035999774</t>
+          <t>-35.33178073039238,173.1845903308187</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -18048,7 +18048,7 @@
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>-35.331901812205686,173.1843963189763</t>
+          <t>-35.331901793995186,173.18439634815545</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.333387265618065,173.1864515371121</t>
+          <t>-35.33338728382892,173.1864515079328</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-35.33184118939066,173.18449345627585</t>
+          <t>-35.33184120760119,173.18449342709675</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-35.33329231409742,173.18660367802303</t>
+          <t>-35.33329233230832,173.18660364884377</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -18118,7 +18118,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-35.33169647008642,173.18472534217707</t>
+          <t>-35.33169648829701,173.18472531299807</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>-35.33179790294108,173.18456281496174</t>
+          <t>-35.33179788473052,173.1845628441408</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -9624,10 +9624,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0297</v>
+        <v>0.0265</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0358</v>
+        <v>0.0329</v>
       </c>
       <c r="I2" t="n">
         <v>0.187198224088064</v>
@@ -9699,13 +9699,13 @@
         <v>0.7500000000004632</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0198</v>
+        <v>0.0278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.025</v>
+        <v>0.0356</v>
       </c>
       <c r="I3" t="n">
         <v>0.7087457733073119</v>
@@ -9780,10 +9780,10 @@
         <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0239</v>
+        <v>0.0241</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0257</v>
+        <v>0.0286</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1213005589249804</v>
@@ -9858,10 +9858,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0294</v>
+        <v>0.0277</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0328</v>
+        <v>0.0393</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1930139130692022</v>
@@ -9933,13 +9933,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0424</v>
+        <v>0.0275</v>
       </c>
       <c r="H6" t="n">
-        <v>0.055</v>
+        <v>0.0366</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2325847281969792</v>

--- a/data/nzd0068/nzd0068.xlsx
+++ b/data/nzd0068/nzd0068.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>271.52</v>
+        <v>278.19</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -502,13 +502,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>271.37</v>
+        <v>276.54</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>256.84</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>L7</t>
@@ -525,7 +523,7 @@
         <v>302.87</v>
       </c>
       <c r="C4" t="n">
-        <v>334.65</v>
+        <v>317.82</v>
       </c>
       <c r="D4" t="n">
         <v>297.96</v>
@@ -534,7 +532,7 @@
         <v>312.95</v>
       </c>
       <c r="F4" t="n">
-        <v>284.85</v>
+        <v>298.32</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -552,7 +550,7 @@
         <v>312.41</v>
       </c>
       <c r="C5" t="n">
-        <v>314.26</v>
+        <v>305.43</v>
       </c>
       <c r="D5" t="n">
         <v>307.75</v>
@@ -561,7 +559,7 @@
         <v>312.33</v>
       </c>
       <c r="F5" t="n">
-        <v>307.37</v>
+        <v>314.44</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -579,7 +577,7 @@
         <v>285.44</v>
       </c>
       <c r="C6" t="n">
-        <v>302.18</v>
+        <v>295.68</v>
       </c>
       <c r="D6" t="n">
         <v>287.02</v>
@@ -588,7 +586,7 @@
         <v>293.19</v>
       </c>
       <c r="F6" t="n">
-        <v>283.3</v>
+        <v>288.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -606,7 +604,7 @@
         <v>290.86</v>
       </c>
       <c r="C7" t="n">
-        <v>292.61</v>
+        <v>300.78</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -627,12 +625,12 @@
         <v>269.64</v>
       </c>
       <c r="C8" t="n">
-        <v>281.85</v>
+        <v>273.52</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>263.03</v>
+        <v>269.7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -650,7 +648,7 @@
         <v>260.63</v>
       </c>
       <c r="C9" t="n">
-        <v>269.91</v>
+        <v>276.08</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -671,7 +669,7 @@
         <v>308.35</v>
       </c>
       <c r="C10" t="n">
-        <v>298.75</v>
+        <v>302.75</v>
       </c>
       <c r="D10" t="n">
         <v>303.08</v>
@@ -680,7 +678,7 @@
         <v>308.01</v>
       </c>
       <c r="F10" t="n">
-        <v>328.16</v>
+        <v>324.96</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -696,7 +694,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>282.21</v>
+        <v>274.71</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -717,7 +715,7 @@
         <v>292.73</v>
       </c>
       <c r="C12" t="n">
-        <v>316.52</v>
+        <v>301.19</v>
       </c>
       <c r="D12" t="n">
         <v>291.6</v>
@@ -742,7 +740,7 @@
         <v>322.78</v>
       </c>
       <c r="C13" t="n">
-        <v>323.6</v>
+        <v>327.1</v>
       </c>
       <c r="D13" t="n">
         <v>318.85</v>
@@ -751,7 +749,7 @@
         <v>330.48</v>
       </c>
       <c r="F13" t="n">
-        <v>316.68</v>
+        <v>313.88</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -769,7 +767,7 @@
         <v>311.32</v>
       </c>
       <c r="C14" t="n">
-        <v>333.86</v>
+        <v>317.03</v>
       </c>
       <c r="D14" t="n">
         <v>318.76</v>
@@ -778,7 +776,7 @@
         <v>321</v>
       </c>
       <c r="F14" t="n">
-        <v>299.76</v>
+        <v>313.23</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -796,7 +794,7 @@
         <v>317.86</v>
       </c>
       <c r="C15" t="n">
-        <v>326</v>
+        <v>314.17</v>
       </c>
       <c r="D15" t="n">
         <v>314.75</v>
@@ -805,7 +803,7 @@
         <v>315.35</v>
       </c>
       <c r="F15" t="n">
-        <v>303.61</v>
+        <v>313.08</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -823,7 +821,7 @@
         <v>288.77</v>
       </c>
       <c r="C16" t="n">
-        <v>306.81</v>
+        <v>299.48</v>
       </c>
       <c r="D16" t="n">
         <v>287.26</v>
@@ -832,7 +830,7 @@
         <v>286.65</v>
       </c>
       <c r="F16" t="n">
-        <v>280.4</v>
+        <v>286.27</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -850,7 +848,7 @@
         <v>285.94</v>
       </c>
       <c r="C17" t="n">
-        <v>268.11</v>
+        <v>280.44</v>
       </c>
       <c r="D17" t="n">
         <v>290.91</v>
@@ -875,12 +873,12 @@
         <v>228.36</v>
       </c>
       <c r="C18" t="n">
-        <v>260.98</v>
+        <v>251.65</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>275.79</v>
+        <v>283.26</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -898,12 +896,12 @@
         <v>232.12</v>
       </c>
       <c r="C19" t="n">
-        <v>294.67</v>
+        <v>271</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>262.51</v>
+        <v>281.44</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -921,14 +919,14 @@
         <v>238.74</v>
       </c>
       <c r="C20" t="n">
-        <v>274.65</v>
+        <v>259.32</v>
       </c>
       <c r="D20" t="n">
         <v>250.98</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>251.89</v>
+        <v>264.16</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -946,7 +944,7 @@
         <v>291.98</v>
       </c>
       <c r="C21" t="n">
-        <v>276.39</v>
+        <v>285.89</v>
       </c>
       <c r="D21" t="n">
         <v>273.64</v>
@@ -955,7 +953,7 @@
         <v>295</v>
       </c>
       <c r="F21" t="n">
-        <v>302.14</v>
+        <v>294.54</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -971,7 +969,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>297.7</v>
+        <v>289.37</v>
       </c>
       <c r="D22" t="n">
         <v>291.51</v>
@@ -980,7 +978,7 @@
         <v>303.1</v>
       </c>
       <c r="F22" t="n">
-        <v>289.86</v>
+        <v>296.53</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -998,7 +996,7 @@
         <v>303.88</v>
       </c>
       <c r="C23" t="n">
-        <v>321.59</v>
+        <v>309.26</v>
       </c>
       <c r="D23" t="n">
         <v>313.1</v>
@@ -1007,7 +1005,7 @@
         <v>325.72</v>
       </c>
       <c r="F23" t="n">
-        <v>304.69</v>
+        <v>314.56</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1025,7 +1023,7 @@
         <v>308.86</v>
       </c>
       <c r="C24" t="n">
-        <v>317.74</v>
+        <v>304.57</v>
       </c>
       <c r="D24" t="n">
         <v>309.81</v>
@@ -1034,7 +1032,7 @@
         <v>315.55</v>
       </c>
       <c r="F24" t="n">
-        <v>308.58</v>
+        <v>319.11</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1052,7 +1050,7 @@
         <v>317.8</v>
       </c>
       <c r="C25" t="n">
-        <v>290.04</v>
+        <v>300.21</v>
       </c>
       <c r="D25" t="n">
         <v>304.9</v>
@@ -1061,7 +1059,7 @@
         <v>315.34</v>
       </c>
       <c r="F25" t="n">
-        <v>338.16</v>
+        <v>330.03</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1077,7 +1075,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>269.41</v>
+        <v>279.08</v>
       </c>
       <c r="D26" t="n">
         <v>270.48</v>
@@ -1100,7 +1098,7 @@
         <v>303.98</v>
       </c>
       <c r="C27" t="n">
-        <v>299.7</v>
+        <v>304.7</v>
       </c>
       <c r="D27" t="n">
         <v>308.76</v>
@@ -1123,7 +1121,7 @@
         <v>293.05</v>
       </c>
       <c r="C28" t="n">
-        <v>303.16</v>
+        <v>294.16</v>
       </c>
       <c r="D28" t="n">
         <v>313.05</v>
@@ -1132,7 +1130,7 @@
         <v>313.37</v>
       </c>
       <c r="F28" t="n">
-        <v>299.24</v>
+        <v>306.44</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1150,7 +1148,7 @@
         <v>267.22</v>
       </c>
       <c r="C29" t="n">
-        <v>257.65</v>
+        <v>243.82</v>
       </c>
       <c r="D29" t="n">
         <v>246.67</v>
@@ -1173,7 +1171,7 @@
         <v>277.98</v>
       </c>
       <c r="C30" t="n">
-        <v>275.33</v>
+        <v>265.5</v>
       </c>
       <c r="D30" t="n">
         <v>274.16</v>
@@ -1182,7 +1180,7 @@
         <v>292.09</v>
       </c>
       <c r="F30" t="n">
-        <v>289.65</v>
+        <v>297.52</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1200,7 +1198,7 @@
         <v>298.83</v>
       </c>
       <c r="C31" t="n">
-        <v>302.58</v>
+        <v>284.91</v>
       </c>
       <c r="D31" t="n">
         <v>313.26</v>
@@ -1209,7 +1207,7 @@
         <v>320.02</v>
       </c>
       <c r="F31" t="n">
-        <v>300.58</v>
+        <v>314.71</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1226,9 +1224,7 @@
       <c r="B32" t="n">
         <v>309.28</v>
       </c>
-      <c r="C32" t="n">
-        <v>323.1</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
         <v>335.16</v>
       </c>
@@ -1250,7 +1246,7 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>309.27</v>
+        <v>321.1</v>
       </c>
       <c r="D33" t="n">
         <v>314.61</v>
@@ -1258,7 +1254,9 @@
       <c r="E33" t="n">
         <v>327.11</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>337.38</v>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1278,7 +1276,7 @@
         <v>293.3</v>
       </c>
       <c r="F34" t="n">
-        <v>290.9</v>
+        <v>295.03</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1296,7 +1294,7 @@
         <v>281.14</v>
       </c>
       <c r="C35" t="n">
-        <v>329.24</v>
+        <v>338.07</v>
       </c>
       <c r="D35" t="n">
         <v>320.55</v>
@@ -1321,7 +1319,7 @@
         <v>289.06</v>
       </c>
       <c r="C36" t="n">
-        <v>300.42</v>
+        <v>277.25</v>
       </c>
       <c r="D36" t="n">
         <v>301.58</v>
@@ -1330,7 +1328,7 @@
         <v>325.22</v>
       </c>
       <c r="F36" t="n">
-        <v>304.36</v>
+        <v>322.89</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1348,7 +1346,7 @@
         <v>280.44</v>
       </c>
       <c r="C37" t="n">
-        <v>283.39</v>
+        <v>263.56</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1388,7 +1386,7 @@
         <v>264.2</v>
       </c>
       <c r="C39" t="n">
-        <v>265.18</v>
+        <v>277.18</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1409,7 +1407,7 @@
         <v>302.27</v>
       </c>
       <c r="C40" t="n">
-        <v>320.92</v>
+        <v>310.92</v>
       </c>
       <c r="D40" t="n">
         <v>324.37</v>
@@ -1418,7 +1416,7 @@
         <v>331.02</v>
       </c>
       <c r="F40" t="n">
-        <v>310.37</v>
+        <v>318.37</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1441,7 +1439,7 @@
         <v>318.96</v>
       </c>
       <c r="F41" t="n">
-        <v>302.85</v>
+        <v>305.25</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1459,7 +1457,7 @@
         <v>317.99</v>
       </c>
       <c r="C42" t="n">
-        <v>323.68</v>
+        <v>330.01</v>
       </c>
       <c r="D42" t="n">
         <v>332.24</v>
@@ -1468,7 +1466,7 @@
         <v>338.79</v>
       </c>
       <c r="F42" t="n">
-        <v>366.51</v>
+        <v>361.44</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1486,7 +1484,7 @@
         <v>316.3</v>
       </c>
       <c r="C43" t="n">
-        <v>312.48</v>
+        <v>319.31</v>
       </c>
       <c r="D43" t="n">
         <v>330.38</v>
@@ -1495,7 +1493,7 @@
         <v>340.5</v>
       </c>
       <c r="F43" t="n">
-        <v>360.02</v>
+        <v>354.55</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1513,7 +1511,7 @@
         <v>295.78</v>
       </c>
       <c r="C44" t="n">
-        <v>304.4</v>
+        <v>313.73</v>
       </c>
       <c r="D44" t="n">
         <v>316.03</v>
@@ -1522,7 +1520,7 @@
         <v>324.34</v>
       </c>
       <c r="F44" t="n">
-        <v>345</v>
+        <v>337.53</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1559,7 +1557,7 @@
         <v>286.96</v>
       </c>
       <c r="C46" t="n">
-        <v>316.21</v>
+        <v>299.71</v>
       </c>
       <c r="D46" t="n">
         <v>292.73</v>
@@ -1567,7 +1565,9 @@
       <c r="E46" t="n">
         <v>312.82</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>305.88</v>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1581,16 +1581,12 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
-        <v>331.38</v>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>332.01</v>
       </c>
-      <c r="F47" t="n">
-        <v>364.87</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1607,7 +1603,7 @@
         <v>299.84</v>
       </c>
       <c r="C48" t="n">
-        <v>281.06</v>
+        <v>289.06</v>
       </c>
       <c r="D48" t="n">
         <v>282.06</v>
@@ -1615,7 +1611,9 @@
       <c r="E48" t="n">
         <v>275.82</v>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>266.4</v>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1636,7 +1634,9 @@
       <c r="E49" t="n">
         <v>302.22</v>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>296.9</v>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1653,7 +1653,7 @@
         <v>336.68</v>
       </c>
       <c r="C50" t="n">
-        <v>319.74</v>
+        <v>323.74</v>
       </c>
       <c r="D50" t="n">
         <v>325.26</v>
@@ -1662,7 +1662,7 @@
         <v>326.41</v>
       </c>
       <c r="F50" t="n">
-        <v>336.22</v>
+        <v>333.02</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>270.51</v>
+        <v>272.84</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
         <v>331.11</v>
       </c>
       <c r="C52" t="n">
-        <v>298.01</v>
+        <v>307.84</v>
       </c>
       <c r="D52" t="n">
         <v>307.52</v>
@@ -1727,7 +1727,7 @@
         <v>322.7</v>
       </c>
       <c r="F53" t="n">
-        <v>339.33</v>
+        <v>330.13</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         <v>311.16</v>
       </c>
       <c r="C54" t="n">
-        <v>305.5</v>
+        <v>312.83</v>
       </c>
       <c r="D54" t="n">
         <v>316.43</v>
@@ -1754,7 +1754,7 @@
         <v>313.96</v>
       </c>
       <c r="F54" t="n">
-        <v>309.82</v>
+        <v>303.95</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>308.37</v>
       </c>
       <c r="F55" t="n">
-        <v>295.13</v>
+        <v>307.26</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1792,16 +1792,16 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>240.54</v>
+      </c>
       <c r="D56" t="n">
         <v>278.24</v>
       </c>
       <c r="E56" t="n">
         <v>272.52</v>
       </c>
-      <c r="F56" t="n">
-        <v>275.52</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1818,7 +1818,7 @@
         <v>291.48</v>
       </c>
       <c r="C57" t="n">
-        <v>291.44</v>
+        <v>276.27</v>
       </c>
       <c r="D57" t="n">
         <v>296.82</v>
@@ -1827,7 +1827,7 @@
         <v>301.47</v>
       </c>
       <c r="F57" t="n">
-        <v>292.58</v>
+        <v>304.71</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>275.53</v>
       </c>
       <c r="C58" t="n">
-        <v>278.71</v>
+        <v>273.21</v>
       </c>
       <c r="D58" t="n">
         <v>297.82</v>
@@ -1854,7 +1854,7 @@
         <v>306.05</v>
       </c>
       <c r="F58" t="n">
-        <v>299.96</v>
+        <v>304.36</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>269.63</v>
       </c>
       <c r="C59" t="n">
-        <v>252.94</v>
+        <v>261.11</v>
       </c>
       <c r="D59" t="n">
         <v>274.41</v>
@@ -1881,7 +1881,7 @@
         <v>282.16</v>
       </c>
       <c r="F59" t="n">
-        <v>288.02</v>
+        <v>281.49</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>277.12</v>
       </c>
       <c r="C60" t="n">
-        <v>269.76</v>
+        <v>276.59</v>
       </c>
       <c r="D60" t="n">
         <v>296.91</v>
@@ -1908,7 +1908,7 @@
         <v>302.79</v>
       </c>
       <c r="F60" t="n">
-        <v>309.5</v>
+        <v>304.03</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>286.35</v>
+        <v>276.52</v>
       </c>
       <c r="D61" t="n">
         <v>299.35</v>
@@ -1933,7 +1933,7 @@
         <v>309.72</v>
       </c>
       <c r="F61" t="n">
-        <v>298.36</v>
+        <v>306.23</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>266.42</v>
       </c>
       <c r="C62" t="n">
-        <v>270.74</v>
+        <v>274.91</v>
       </c>
       <c r="D62" t="n">
         <v>288.42</v>
@@ -1960,7 +1960,7 @@
         <v>287.35</v>
       </c>
       <c r="F62" t="n">
-        <v>281.36</v>
+        <v>278.03</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -1977,7 +1977,9 @@
       <c r="B63" t="n">
         <v>298.89</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>300.05</v>
+      </c>
       <c r="D63" t="n">
         <v>310.27</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>312.86</v>
       </c>
       <c r="F63" t="n">
-        <v>299.13</v>
+        <v>313.13</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2003,7 +2005,7 @@
         <v>310.53</v>
       </c>
       <c r="C64" t="n">
-        <v>310.02</v>
+        <v>312.02</v>
       </c>
       <c r="D64" t="n">
         <v>322.37</v>
@@ -2012,7 +2014,7 @@
         <v>322.09</v>
       </c>
       <c r="F64" t="n">
-        <v>320.59</v>
+        <v>318.99</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2030,7 +2032,7 @@
         <v>267.5</v>
       </c>
       <c r="C65" t="n">
-        <v>268.97</v>
+        <v>262.14</v>
       </c>
       <c r="D65" t="n">
         <v>274.67</v>
@@ -2055,7 +2057,7 @@
         <v>282.13</v>
       </c>
       <c r="C66" t="n">
-        <v>308.02</v>
+        <v>290.19</v>
       </c>
       <c r="D66" t="n">
         <v>298.59</v>
@@ -2064,7 +2066,7 @@
         <v>315.66</v>
       </c>
       <c r="F66" t="n">
-        <v>296.34</v>
+        <v>310.61</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2082,7 +2084,7 @@
         <v>293.02</v>
       </c>
       <c r="C67" t="n">
-        <v>310.92</v>
+        <v>284.75</v>
       </c>
       <c r="D67" t="n">
         <v>298.69</v>
@@ -2091,7 +2093,7 @@
         <v>304.18</v>
       </c>
       <c r="F67" t="n">
-        <v>284.11</v>
+        <v>305.04</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2109,7 +2111,7 @@
         <v>294.68</v>
       </c>
       <c r="C68" t="n">
-        <v>314.82</v>
+        <v>296.65</v>
       </c>
       <c r="D68" t="n">
         <v>316.18</v>
@@ -2118,7 +2120,7 @@
         <v>316.27</v>
       </c>
       <c r="F68" t="n">
-        <v>303.61</v>
+        <v>318.14</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2136,7 +2138,7 @@
         <v>285.7</v>
       </c>
       <c r="C69" t="n">
-        <v>278.66</v>
+        <v>292.99</v>
       </c>
       <c r="D69" t="n">
         <v>291.98</v>
@@ -2145,7 +2147,7 @@
         <v>298.91</v>
       </c>
       <c r="F69" t="n">
-        <v>286.56</v>
+        <v>275.09</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2163,7 +2165,7 @@
         <v>281.69</v>
       </c>
       <c r="C70" t="n">
-        <v>281.42</v>
+        <v>275.59</v>
       </c>
       <c r="D70" t="n">
         <v>288.47</v>
@@ -2172,7 +2174,7 @@
         <v>299.59</v>
       </c>
       <c r="F70" t="n">
-        <v>282.36</v>
+        <v>287.03</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2190,7 +2192,7 @@
         <v>280.16</v>
       </c>
       <c r="C71" t="n">
-        <v>277.44</v>
+        <v>263.61</v>
       </c>
       <c r="D71" t="n">
         <v>273.52</v>
@@ -2199,7 +2201,7 @@
         <v>279.4</v>
       </c>
       <c r="F71" t="n">
-        <v>277.77</v>
+        <v>288.84</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2217,7 +2219,7 @@
         <v>293.65</v>
       </c>
       <c r="C72" t="n">
-        <v>296.83</v>
+        <v>289.83</v>
       </c>
       <c r="D72" t="n">
         <v>270.15</v>
@@ -2226,7 +2228,7 @@
         <v>281.72</v>
       </c>
       <c r="F72" t="n">
-        <v>283.83</v>
+        <v>289.43</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2244,7 +2246,7 @@
         <v>313.43</v>
       </c>
       <c r="C73" t="n">
-        <v>308.05</v>
+        <v>300.22</v>
       </c>
       <c r="D73" t="n">
         <v>300.03</v>
@@ -2253,7 +2255,7 @@
         <v>303.43</v>
       </c>
       <c r="F73" t="n">
-        <v>290.49</v>
+        <v>296.76</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2271,7 +2273,7 @@
         <v>320.43</v>
       </c>
       <c r="C74" t="n">
-        <v>307.12</v>
+        <v>313.79</v>
       </c>
       <c r="D74" t="n">
         <v>322.64</v>
@@ -2280,7 +2282,7 @@
         <v>325.51</v>
       </c>
       <c r="F74" t="n">
-        <v>321.24</v>
+        <v>315.91</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2298,7 +2300,7 @@
         <v>319.14</v>
       </c>
       <c r="C75" t="n">
-        <v>298.33</v>
+        <v>310</v>
       </c>
       <c r="D75" t="n">
         <v>301.71</v>
@@ -2307,7 +2309,7 @@
         <v>299.73</v>
       </c>
       <c r="F75" t="n">
-        <v>298.22</v>
+        <v>288.89</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2325,7 +2327,7 @@
         <v>300.48</v>
       </c>
       <c r="C76" t="n">
-        <v>308.78</v>
+        <v>285.28</v>
       </c>
       <c r="D76" t="n">
         <v>293.47</v>
@@ -2334,7 +2336,7 @@
         <v>299.79</v>
       </c>
       <c r="F76" t="n">
-        <v>290.87</v>
+        <v>309.67</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2357,7 +2359,7 @@
         <v>298.53</v>
       </c>
       <c r="F77" t="n">
-        <v>290.82</v>
+        <v>304.29</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2373,7 +2375,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>296.39</v>
+        <v>281.72</v>
       </c>
       <c r="D78" t="n">
         <v>294.07</v>
@@ -2382,7 +2384,7 @@
         <v>301.12</v>
       </c>
       <c r="F78" t="n">
-        <v>294.16</v>
+        <v>305.89</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2419,7 +2421,7 @@
         <v>292.2</v>
       </c>
       <c r="C80" t="n">
-        <v>285.76</v>
+        <v>291.09</v>
       </c>
       <c r="D80" t="n">
         <v>292.52</v>
@@ -2428,7 +2430,7 @@
         <v>302.46</v>
       </c>
       <c r="F80" t="n">
-        <v>296.93</v>
+        <v>292.66</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2446,7 +2448,7 @@
         <v>322.49</v>
       </c>
       <c r="C81" t="n">
-        <v>326.55</v>
+        <v>311.72</v>
       </c>
       <c r="D81" t="n">
         <v>321.24</v>
@@ -2455,7 +2457,7 @@
         <v>315.36</v>
       </c>
       <c r="F81" t="n">
-        <v>311.9</v>
+        <v>323.77</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2473,7 +2475,7 @@
         <v>310.44</v>
       </c>
       <c r="C82" t="n">
-        <v>325.6</v>
+        <v>303.43</v>
       </c>
       <c r="D82" t="n">
         <v>312.46</v>
@@ -2482,7 +2484,7 @@
         <v>313.52</v>
       </c>
       <c r="F82" t="n">
-        <v>299.27</v>
+        <v>317</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2498,7 +2500,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>313.74</v>
+        <v>316.41</v>
       </c>
       <c r="D83" t="n">
         <v>320.7</v>
@@ -2507,7 +2509,7 @@
         <v>321.87</v>
       </c>
       <c r="F83" t="n">
-        <v>320.21</v>
+        <v>318.08</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2526,7 +2528,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>251.47</v>
+        <v>265.47</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2541,11 +2543,13 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>252.51</v>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>278.98</v>
+        <v>270.31</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2564,7 +2568,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>276.07</v>
+        <v>293.54</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2582,7 +2586,7 @@
         <v>304.58</v>
       </c>
       <c r="C87" t="n">
-        <v>306.79</v>
+        <v>290.79</v>
       </c>
       <c r="D87" t="n">
         <v>310.66</v>
@@ -2591,7 +2595,7 @@
         <v>310.58</v>
       </c>
       <c r="F87" t="n">
-        <v>291.71</v>
+        <v>304.51</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2609,7 +2613,7 @@
         <v>281.09</v>
       </c>
       <c r="C88" t="n">
-        <v>277.54</v>
+        <v>292.21</v>
       </c>
       <c r="D88" t="n">
         <v>299.66</v>
@@ -2618,7 +2622,7 @@
         <v>299.53</v>
       </c>
       <c r="F88" t="n">
-        <v>295.92</v>
+        <v>284.19</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2636,7 +2640,7 @@
         <v>304.4</v>
       </c>
       <c r="C89" t="n">
-        <v>295.88</v>
+        <v>293.21</v>
       </c>
       <c r="D89" t="n">
         <v>302.77</v>
@@ -2645,7 +2649,7 @@
         <v>295.5</v>
       </c>
       <c r="F89" t="n">
-        <v>286.62</v>
+        <v>288.75</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2666,7 +2670,7 @@
         <v>299.4</v>
       </c>
       <c r="F90" t="n">
-        <v>280.39</v>
+        <v>294.12</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2684,7 +2688,7 @@
         <v>324.42</v>
       </c>
       <c r="C91" t="n">
-        <v>334.02</v>
+        <v>317.85</v>
       </c>
       <c r="D91" t="n">
         <v>330.77</v>
@@ -2693,7 +2697,7 @@
         <v>318.97</v>
       </c>
       <c r="F91" t="n">
-        <v>307.16</v>
+        <v>320.09</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2711,7 +2715,7 @@
         <v>297.59</v>
       </c>
       <c r="C92" t="n">
-        <v>295.56</v>
+        <v>298.06</v>
       </c>
       <c r="D92" t="n">
         <v>298.03</v>
@@ -2720,7 +2724,7 @@
         <v>296.83</v>
       </c>
       <c r="F92" t="n">
-        <v>293.46</v>
+        <v>291.46</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2738,7 +2742,7 @@
         <v>313.44</v>
       </c>
       <c r="C93" t="n">
-        <v>317.43</v>
+        <v>325.76</v>
       </c>
       <c r="D93" t="n">
         <v>320.88</v>
@@ -2747,7 +2751,7 @@
         <v>330.04</v>
       </c>
       <c r="F93" t="n">
-        <v>331.45</v>
+        <v>324.78</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2765,7 +2769,7 @@
         <v>321.61</v>
       </c>
       <c r="C94" t="n">
-        <v>316.33</v>
+        <v>296.66</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -2805,11 +2809,13 @@
         <v>293.69</v>
       </c>
       <c r="C96" t="n">
-        <v>281.42</v>
+        <v>263.59</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>284.59</v>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2824,13 +2830,15 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>288.12</v>
+        <v>267.95</v>
       </c>
       <c r="D97" t="n">
         <v>277.26</v>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>286.06</v>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2864,7 +2872,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>306.72</v>
+        <v>321.55</v>
       </c>
       <c r="D99" t="n">
         <v>310.3</v>
@@ -2873,7 +2881,7 @@
         <v>321.42</v>
       </c>
       <c r="F99" t="n">
-        <v>335.54</v>
+        <v>323.67</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -2891,7 +2899,7 @@
         <v>347.98</v>
       </c>
       <c r="C100" t="n">
-        <v>348.07</v>
+        <v>330.24</v>
       </c>
       <c r="D100" t="n">
         <v>341.73</v>
@@ -2900,7 +2908,7 @@
         <v>323.82</v>
       </c>
       <c r="F100" t="n">
-        <v>317.48</v>
+        <v>331.75</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -2918,7 +2926,7 @@
         <v>331.77</v>
       </c>
       <c r="C101" t="n">
-        <v>319.51</v>
+        <v>326.84</v>
       </c>
       <c r="D101" t="n">
         <v>309.26</v>
@@ -2927,7 +2935,7 @@
         <v>316.31</v>
       </c>
       <c r="F101" t="n">
-        <v>332.88</v>
+        <v>327.01</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -2948,7 +2956,7 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>311.57</v>
+        <v>317.7</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -2966,7 +2974,7 @@
         <v>310.89</v>
       </c>
       <c r="C103" t="n">
-        <v>301.14</v>
+        <v>313.81</v>
       </c>
       <c r="D103" t="n">
         <v>300.55</v>
@@ -2975,7 +2983,7 @@
         <v>307.65</v>
       </c>
       <c r="F103" t="n">
-        <v>327.54</v>
+        <v>317.41</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -2993,7 +3001,7 @@
         <v>296.65</v>
       </c>
       <c r="C104" t="n">
-        <v>314.22</v>
+        <v>294.89</v>
       </c>
       <c r="D104" t="n">
         <v>278.42</v>
@@ -3002,7 +3010,7 @@
         <v>286.74</v>
       </c>
       <c r="F104" t="n">
-        <v>276.6</v>
+        <v>292.07</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3020,7 +3028,7 @@
         <v>295.04</v>
       </c>
       <c r="C105" t="n">
-        <v>305.19</v>
+        <v>288.19</v>
       </c>
       <c r="D105" t="n">
         <v>302.27</v>
@@ -3029,7 +3037,7 @@
         <v>301.28</v>
       </c>
       <c r="F105" t="n">
-        <v>287.92</v>
+        <v>301.52</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3047,7 +3055,7 @@
         <v>293.42</v>
       </c>
       <c r="C106" t="n">
-        <v>291.35</v>
+        <v>286.52</v>
       </c>
       <c r="D106" t="n">
         <v>301.87</v>
@@ -3056,7 +3064,7 @@
         <v>297.47</v>
       </c>
       <c r="F106" t="n">
-        <v>284.49</v>
+        <v>288.36</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3073,7 +3081,9 @@
       <c r="B107" t="n">
         <v>256.25</v>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>254.77</v>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
         <v>254.27</v>
@@ -3096,7 +3106,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>302.85</v>
+        <v>320.85</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3114,7 +3124,7 @@
         <v>293.17</v>
       </c>
       <c r="C109" t="n">
-        <v>296.46</v>
+        <v>277.13</v>
       </c>
       <c r="D109" t="n">
         <v>283.89</v>
@@ -3123,7 +3133,7 @@
         <v>288.41</v>
       </c>
       <c r="F109" t="n">
-        <v>285.08</v>
+        <v>300.55</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3138,13 +3148,15 @@
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>264.32</v>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
         <v>293.24</v>
       </c>
       <c r="F110" t="n">
-        <v>298.84</v>
+        <v>289.51</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3162,7 +3174,7 @@
         <v>297.93</v>
       </c>
       <c r="C111" t="n">
-        <v>305.66</v>
+        <v>288.83</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -3180,7 +3192,9 @@
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>248.33</v>
+      </c>
       <c r="D112" t="n">
         <v>258.44</v>
       </c>
@@ -3188,7 +3202,7 @@
         <v>263.69</v>
       </c>
       <c r="F112" t="n">
-        <v>279.6</v>
+        <v>269.07</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3206,14 +3220,14 @@
         <v>304.66</v>
       </c>
       <c r="C113" t="n">
-        <v>285.16</v>
+        <v>287.83</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
         <v>304.35</v>
       </c>
       <c r="F113" t="n">
-        <v>288.13</v>
+        <v>286</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3229,14 +3243,14 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>290.37</v>
+        <v>269.2</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
         <v>333.15</v>
       </c>
       <c r="F114" t="n">
-        <v>312.49</v>
+        <v>329.42</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3254,7 +3268,7 @@
         <v>305.66</v>
       </c>
       <c r="C115" t="n">
-        <v>314.86</v>
+        <v>296.03</v>
       </c>
       <c r="D115" t="n">
         <v>291.33</v>
@@ -3263,7 +3277,7 @@
         <v>294.85</v>
       </c>
       <c r="F115" t="n">
-        <v>285.44</v>
+        <v>300.51</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3286,7 +3300,7 @@
         <v>301.24</v>
       </c>
       <c r="F116" t="n">
-        <v>299.65</v>
+        <v>289.38</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3304,7 +3318,7 @@
         <v>297.93</v>
       </c>
       <c r="C117" t="n">
-        <v>297.82</v>
+        <v>302.82</v>
       </c>
       <c r="D117" t="n">
         <v>318.87</v>
@@ -3313,7 +3327,7 @@
         <v>301.13</v>
       </c>
       <c r="F117" t="n">
-        <v>291.01</v>
+        <v>287.01</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3331,7 +3345,7 @@
         <v>305.19</v>
       </c>
       <c r="C118" t="n">
-        <v>302.08</v>
+        <v>291.08</v>
       </c>
       <c r="D118" t="n">
         <v>300.25</v>
@@ -3340,7 +3354,7 @@
         <v>282.17</v>
       </c>
       <c r="F118" t="n">
-        <v>285.12</v>
+        <v>293.92</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3365,7 +3379,7 @@
         <v>256.55</v>
       </c>
       <c r="F119" t="n">
-        <v>259.99</v>
+        <v>256.52</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3386,7 +3400,7 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>271.68</v>
+        <v>287.15</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3404,7 +3418,7 @@
         <v>299.09</v>
       </c>
       <c r="C121" t="n">
-        <v>278.6</v>
+        <v>285.93</v>
       </c>
       <c r="D121" t="n">
         <v>292.97</v>
@@ -3413,7 +3427,7 @@
         <v>276.44</v>
       </c>
       <c r="F121" t="n">
-        <v>286.38</v>
+        <v>280.51</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3431,7 +3445,7 @@
         <v>273.69</v>
       </c>
       <c r="C122" t="n">
-        <v>251.6</v>
+        <v>246.77</v>
       </c>
       <c r="D122" t="n">
         <v>258.4</v>
@@ -3440,7 +3454,7 @@
         <v>255.31</v>
       </c>
       <c r="F122" t="n">
-        <v>271.43</v>
+        <v>275.3</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3458,7 +3472,7 @@
         <v>272.96</v>
       </c>
       <c r="C123" t="n">
-        <v>252.46</v>
+        <v>261.96</v>
       </c>
       <c r="D123" t="n">
         <v>246.79</v>
@@ -3467,7 +3481,7 @@
         <v>276.51</v>
       </c>
       <c r="F123" t="n">
-        <v>283.98</v>
+        <v>276.38</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -3484,7 +3498,9 @@
       <c r="B124" t="n">
         <v>313.67</v>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>283.11</v>
+      </c>
       <c r="D124" t="n">
         <v>285.42</v>
       </c>
@@ -3492,7 +3508,7 @@
         <v>294.58</v>
       </c>
       <c r="F124" t="n">
-        <v>287.57</v>
+        <v>304.77</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3509,7 +3525,9 @@
       <c r="B125" t="n">
         <v>315.49</v>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>298.53</v>
+      </c>
       <c r="D125" t="n">
         <v>298.3</v>
       </c>
@@ -3517,7 +3535,7 @@
         <v>299.64</v>
       </c>
       <c r="F125" t="n">
-        <v>287.62</v>
+        <v>303.75</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3535,7 +3553,7 @@
         <v>284.17</v>
       </c>
       <c r="C126" t="n">
-        <v>260.24</v>
+        <v>268.74</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -3556,7 +3574,7 @@
         <v>315.76</v>
       </c>
       <c r="C127" t="n">
-        <v>327.14</v>
+        <v>337.81</v>
       </c>
       <c r="D127" t="n">
         <v>324.94</v>
@@ -3565,7 +3583,7 @@
         <v>314.1</v>
       </c>
       <c r="F127" t="n">
-        <v>299.15</v>
+        <v>290.62</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -3583,7 +3601,7 @@
         <v>286.89</v>
       </c>
       <c r="C128" t="n">
-        <v>296.41</v>
+        <v>309.24</v>
       </c>
       <c r="D128" t="n">
         <v>301.09</v>
@@ -3592,7 +3610,7 @@
         <v>280.02</v>
       </c>
       <c r="F128" t="n">
-        <v>281.09</v>
+        <v>270.82</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -3610,7 +3628,7 @@
         <v>302.66</v>
       </c>
       <c r="C129" t="n">
-        <v>296.24</v>
+        <v>299.91</v>
       </c>
       <c r="D129" t="n">
         <v>309.47</v>
@@ -3619,7 +3637,7 @@
         <v>296.29</v>
       </c>
       <c r="F129" t="n">
-        <v>296.98</v>
+        <v>294.05</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -3664,7 +3682,7 @@
         <v>306.57</v>
       </c>
       <c r="C131" t="n">
-        <v>303.66</v>
+        <v>296.83</v>
       </c>
       <c r="D131" t="n">
         <v>302.97</v>
@@ -3673,7 +3691,7 @@
         <v>297.5</v>
       </c>
       <c r="F131" t="n">
-        <v>294.73</v>
+        <v>300.2</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -3691,7 +3709,7 @@
         <v>288.43</v>
       </c>
       <c r="C132" t="n">
-        <v>299.52</v>
+        <v>279.19</v>
       </c>
       <c r="D132" t="n">
         <v>277.62</v>
@@ -3700,7 +3718,7 @@
         <v>285.46</v>
       </c>
       <c r="F132" t="n">
-        <v>271.57</v>
+        <v>287.84</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -3718,7 +3736,7 @@
         <v>292.24</v>
       </c>
       <c r="C133" t="n">
-        <v>301.77</v>
+        <v>283.1</v>
       </c>
       <c r="D133" t="n">
         <v>283.5</v>
@@ -3727,7 +3745,7 @@
         <v>302.83</v>
       </c>
       <c r="F133" t="n">
-        <v>287.27</v>
+        <v>302.2</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -3745,7 +3763,7 @@
         <v>302.94</v>
       </c>
       <c r="C134" t="n">
-        <v>295.07</v>
+        <v>300.4</v>
       </c>
       <c r="D134" t="n">
         <v>307.91</v>
@@ -3754,7 +3772,7 @@
         <v>305.23</v>
       </c>
       <c r="F134" t="n">
-        <v>304.49</v>
+        <v>300.22</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -3772,7 +3790,7 @@
         <v>283.23</v>
       </c>
       <c r="C135" t="n">
-        <v>301.16</v>
+        <v>281.16</v>
       </c>
       <c r="D135" t="n">
         <v>298.12</v>
@@ -3781,7 +3799,7 @@
         <v>313.73</v>
       </c>
       <c r="F135" t="n">
-        <v>303.46</v>
+        <v>319.46</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -3799,7 +3817,7 @@
         <v>305.63</v>
       </c>
       <c r="C136" t="n">
-        <v>301.27</v>
+        <v>304.6</v>
       </c>
       <c r="D136" t="n">
         <v>313.69</v>
@@ -3808,7 +3826,7 @@
         <v>310.19</v>
       </c>
       <c r="F136" t="n">
-        <v>317.57</v>
+        <v>314.9</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -3826,7 +3844,7 @@
         <v>294.66</v>
       </c>
       <c r="C137" t="n">
-        <v>287.25</v>
+        <v>289.75</v>
       </c>
       <c r="D137" t="n">
         <v>311.85</v>
@@ -3835,7 +3853,7 @@
         <v>310.37</v>
       </c>
       <c r="F137" t="n">
-        <v>305.91</v>
+        <v>303.91</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -3853,7 +3871,7 @@
         <v>297.91</v>
       </c>
       <c r="C138" t="n">
-        <v>294.7</v>
+        <v>306.03</v>
       </c>
       <c r="D138" t="n">
         <v>308.16</v>
@@ -3862,7 +3880,7 @@
         <v>308.49</v>
       </c>
       <c r="F138" t="n">
-        <v>322.11</v>
+        <v>313.04</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -3880,14 +3898,14 @@
         <v>275.73</v>
       </c>
       <c r="C139" t="n">
-        <v>252.7</v>
+        <v>257.37</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
         <v>272.23</v>
       </c>
       <c r="F139" t="n">
-        <v>251.98</v>
+        <v>248.25</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -3905,7 +3923,7 @@
         <v>273.02</v>
       </c>
       <c r="C140" t="n">
-        <v>259.94</v>
+        <v>274.61</v>
       </c>
       <c r="D140" t="n">
         <v>293.68</v>
@@ -3928,7 +3946,7 @@
         <v>271.73</v>
       </c>
       <c r="C141" t="n">
-        <v>243.3</v>
+        <v>247.8</v>
       </c>
       <c r="D141" t="n">
         <v>259.67</v>
@@ -3937,7 +3955,7 @@
         <v>270.8</v>
       </c>
       <c r="F141" t="n">
-        <v>272.76</v>
+        <v>269.16</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -3955,7 +3973,7 @@
         <v>282.19</v>
       </c>
       <c r="C142" t="n">
-        <v>293.47</v>
+        <v>273.8</v>
       </c>
       <c r="D142" t="n">
         <v>279.09</v>
@@ -3964,7 +3982,7 @@
         <v>294.67</v>
       </c>
       <c r="F142" t="n">
-        <v>287.46</v>
+        <v>303.19</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -3982,7 +4000,7 @@
         <v>296.08</v>
       </c>
       <c r="C143" t="n">
-        <v>297.35</v>
+        <v>276.85</v>
       </c>
       <c r="D143" t="n">
         <v>289.69</v>
@@ -3991,7 +4009,7 @@
         <v>302.32</v>
       </c>
       <c r="F143" t="n">
-        <v>296.67</v>
+        <v>313.07</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4009,7 +4027,7 @@
         <v>299.83</v>
       </c>
       <c r="C144" t="n">
-        <v>297.5</v>
+        <v>277.67</v>
       </c>
       <c r="D144" t="n">
         <v>287.69</v>
@@ -4018,7 +4036,7 @@
         <v>307.42</v>
       </c>
       <c r="F144" t="n">
-        <v>295.98</v>
+        <v>311.85</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4036,7 +4054,7 @@
         <v>302.02</v>
       </c>
       <c r="C145" t="n">
-        <v>302.59</v>
+        <v>282.42</v>
       </c>
       <c r="D145" t="n">
         <v>295.61</v>
@@ -4045,7 +4063,7 @@
         <v>299.74</v>
       </c>
       <c r="F145" t="n">
-        <v>288.65</v>
+        <v>304.78</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4063,7 +4081,7 @@
         <v>290.7</v>
       </c>
       <c r="C146" t="n">
-        <v>303.11</v>
+        <v>283.78</v>
       </c>
       <c r="D146" t="n">
         <v>291.08</v>
@@ -4072,7 +4090,7 @@
         <v>306.09</v>
       </c>
       <c r="F146" t="n">
-        <v>287.85</v>
+        <v>303.32</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4090,7 +4108,7 @@
         <v>286.6</v>
       </c>
       <c r="C147" t="n">
-        <v>303.3</v>
+        <v>284.47</v>
       </c>
       <c r="D147" t="n">
         <v>293.3</v>
@@ -4099,7 +4117,7 @@
         <v>309.98</v>
       </c>
       <c r="F147" t="n">
-        <v>300.55</v>
+        <v>315.62</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4117,7 +4135,7 @@
         <v>284.57</v>
       </c>
       <c r="C148" t="n">
-        <v>290</v>
+        <v>290.5</v>
       </c>
       <c r="D148" t="n">
         <v>312.04</v>
@@ -4126,7 +4144,7 @@
         <v>316.02</v>
       </c>
       <c r="F148" t="n">
-        <v>309.1</v>
+        <v>308.7</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4144,7 +4162,7 @@
         <v>265.44</v>
       </c>
       <c r="C149" t="n">
-        <v>244.06</v>
+        <v>254.56</v>
       </c>
       <c r="D149" t="n">
         <v>268.58</v>
@@ -4153,7 +4171,7 @@
         <v>271.91</v>
       </c>
       <c r="F149" t="n">
-        <v>280.84</v>
+        <v>272.44</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -4171,7 +4189,7 @@
         <v>281.43</v>
       </c>
       <c r="C150" t="n">
-        <v>283.8</v>
+        <v>286.3</v>
       </c>
       <c r="D150" t="n">
         <v>301.2</v>
@@ -4180,7 +4198,7 @@
         <v>301.56</v>
       </c>
       <c r="F150" t="n">
-        <v>298.32</v>
+        <v>296.32</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -4198,7 +4216,7 @@
         <v>287.07</v>
       </c>
       <c r="C151" t="n">
-        <v>291.87</v>
+        <v>271.37</v>
       </c>
       <c r="D151" t="n">
         <v>286.44</v>
@@ -4207,7 +4225,7 @@
         <v>285.56</v>
       </c>
       <c r="F151" t="n">
-        <v>281.25</v>
+        <v>297.65</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -4226,7 +4244,7 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
-        <v>306.99</v>
+        <v>300.19</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4244,7 +4262,7 @@
         <v>330.09</v>
       </c>
       <c r="C153" t="n">
-        <v>308.06</v>
+        <v>317.06</v>
       </c>
       <c r="D153" t="n">
         <v>318.06</v>
@@ -4267,7 +4285,7 @@
         <v>304</v>
       </c>
       <c r="C154" t="n">
-        <v>287.65</v>
+        <v>290.98</v>
       </c>
       <c r="D154" t="n">
         <v>285.92</v>
@@ -4276,7 +4294,7 @@
         <v>281.85</v>
       </c>
       <c r="F154" t="n">
-        <v>288.11</v>
+        <v>285.44</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -4294,7 +4312,7 @@
         <v>297.12</v>
       </c>
       <c r="C155" t="n">
-        <v>315.7</v>
+        <v>298.37</v>
       </c>
       <c r="D155" t="n">
         <v>302.08</v>
@@ -4319,7 +4337,7 @@
         <v>275.04</v>
       </c>
       <c r="C156" t="n">
-        <v>301.22</v>
+        <v>278.39</v>
       </c>
       <c r="D156" t="n">
         <v>281.51</v>
@@ -4328,7 +4346,7 @@
         <v>285.27</v>
       </c>
       <c r="F156" t="n">
-        <v>271.7</v>
+        <v>289.97</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -4347,7 +4365,7 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>264.91</v>
+        <v>279.04</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -4364,7 +4382,9 @@
       <c r="B158" t="n">
         <v>258.78</v>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="n">
+        <v>265</v>
+      </c>
       <c r="D158" t="n">
         <v>245.42</v>
       </c>
@@ -4372,7 +4392,7 @@
         <v>259.16</v>
       </c>
       <c r="F158" t="n">
-        <v>263.63</v>
+        <v>255.63</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4389,10 +4409,14 @@
       <c r="B159" t="n">
         <v>237.24</v>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>229.09</v>
+      </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="n">
+        <v>218</v>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>L8</t>
@@ -4409,13 +4433,15 @@
         <v>275.85</v>
       </c>
       <c r="C160" t="n">
-        <v>281.73</v>
+        <v>285.4</v>
       </c>
       <c r="D160" t="n">
         <v>300.3</v>
       </c>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>307.94</v>
+      </c>
       <c r="G160" t="inlineStr">
         <is>
           <t>L8</t>
@@ -4432,7 +4458,7 @@
         <v>256.4</v>
       </c>
       <c r="C161" t="n">
-        <v>279.99</v>
+        <v>268.99</v>
       </c>
       <c r="D161" t="n">
         <v>273.36</v>
@@ -4441,7 +4467,7 @@
         <v>265.13</v>
       </c>
       <c r="F161" t="n">
-        <v>270.76</v>
+        <v>279.56</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -4459,7 +4485,7 @@
         <v>267.61</v>
       </c>
       <c r="C162" t="n">
-        <v>310.87</v>
+        <v>292.87</v>
       </c>
       <c r="D162" t="n">
         <v>283.61</v>
@@ -4480,7 +4506,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>272.76</v>
+        <v>258.76</v>
       </c>
       <c r="D163" t="n">
         <v>262.56</v>
@@ -4489,7 +4515,7 @@
         <v>278.35</v>
       </c>
       <c r="F163" t="n">
-        <v>273.44</v>
+        <v>284.64</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -4512,7 +4538,7 @@
         <v>292.33</v>
       </c>
       <c r="F164" t="n">
-        <v>280.69</v>
+        <v>298.02</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -4535,7 +4561,7 @@
         <v>319.9</v>
       </c>
       <c r="F165" t="n">
-        <v>308.82</v>
+        <v>325.09</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -4553,7 +4579,7 @@
         <v>277.27</v>
       </c>
       <c r="C166" t="n">
-        <v>258.84</v>
+        <v>257.17</v>
       </c>
       <c r="D166" t="n">
         <v>294.53</v>
@@ -4578,7 +4604,7 @@
         <v>296.84</v>
       </c>
       <c r="C167" t="n">
-        <v>292.81</v>
+        <v>301.31</v>
       </c>
       <c r="D167" t="n">
         <v>298.93</v>
@@ -4587,7 +4613,7 @@
         <v>292.94</v>
       </c>
       <c r="F167" t="n">
-        <v>297.83</v>
+        <v>291.03</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -4605,7 +4631,7 @@
         <v>298.66</v>
       </c>
       <c r="C168" t="n">
-        <v>282.46</v>
+        <v>292.29</v>
       </c>
       <c r="D168" t="n">
         <v>298.3</v>
@@ -4614,7 +4640,7 @@
         <v>297.4</v>
       </c>
       <c r="F168" t="n">
-        <v>292.94</v>
+        <v>285.07</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -4637,7 +4663,7 @@
         <v>287.46</v>
       </c>
       <c r="F169" t="n">
-        <v>274.56</v>
+        <v>284.16</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -4653,7 +4679,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>282.78</v>
+        <v>263.95</v>
       </c>
       <c r="D170" t="n">
         <v>250.81</v>
@@ -4662,7 +4688,7 @@
         <v>262.19</v>
       </c>
       <c r="F170" t="n">
-        <v>263.32</v>
+        <v>278.39</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -4680,7 +4706,7 @@
         <v>275.05</v>
       </c>
       <c r="C171" t="n">
-        <v>270.99</v>
+        <v>282.49</v>
       </c>
       <c r="D171" t="n">
         <v>305.88</v>
@@ -4689,7 +4715,7 @@
         <v>313.74</v>
       </c>
       <c r="F171" t="n">
-        <v>344.96</v>
+        <v>335.76</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -4707,7 +4733,7 @@
         <v>292.93</v>
       </c>
       <c r="C172" t="n">
-        <v>290.93</v>
+        <v>295.26</v>
       </c>
       <c r="D172" t="n">
         <v>310.42</v>
@@ -4716,7 +4742,7 @@
         <v>309.53</v>
       </c>
       <c r="F172" t="n">
-        <v>310.38</v>
+        <v>306.91</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -4734,7 +4760,7 @@
         <v>265.87</v>
       </c>
       <c r="C173" t="n">
-        <v>277.64</v>
+        <v>276.81</v>
       </c>
       <c r="D173" t="n">
         <v>280.17</v>
@@ -4743,7 +4769,7 @@
         <v>293.12</v>
       </c>
       <c r="F173" t="n">
-        <v>284.55</v>
+        <v>285.22</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -4761,7 +4787,7 @@
         <v>310.05</v>
       </c>
       <c r="C174" t="n">
-        <v>325.36</v>
+        <v>309.53</v>
       </c>
       <c r="D174" t="n">
         <v>321.64</v>
@@ -4770,7 +4796,7 @@
         <v>320.98</v>
       </c>
       <c r="F174" t="n">
-        <v>309.84</v>
+        <v>322.51</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -4788,7 +4814,7 @@
         <v>270.17</v>
       </c>
       <c r="C175" t="n">
-        <v>304.95</v>
+        <v>283.62</v>
       </c>
       <c r="D175" t="n">
         <v>285.58</v>
@@ -4797,7 +4823,7 @@
         <v>296.71</v>
       </c>
       <c r="F175" t="n">
-        <v>290.1</v>
+        <v>307.17</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -4815,7 +4841,7 @@
         <v>297.48</v>
       </c>
       <c r="C176" t="n">
-        <v>322.27</v>
+        <v>301.1</v>
       </c>
       <c r="D176" t="n">
         <v>307.82</v>
@@ -4824,7 +4850,7 @@
         <v>311.49</v>
       </c>
       <c r="F176" t="n">
-        <v>296.82</v>
+        <v>313.75</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -4843,7 +4869,7 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
-        <v>275.02</v>
+        <v>286.89</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -4861,7 +4887,7 @@
         <v>307.41</v>
       </c>
       <c r="C178" t="n">
-        <v>304.62</v>
+        <v>315.12</v>
       </c>
       <c r="D178" t="n">
         <v>314.01</v>
@@ -4870,7 +4896,7 @@
         <v>317.92</v>
       </c>
       <c r="F178" t="n">
-        <v>323.29</v>
+        <v>314.89</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -4886,14 +4912,14 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>292.28</v>
+        <v>292.78</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
         <v>307.34</v>
       </c>
       <c r="F179" t="n">
-        <v>288.71</v>
+        <v>288.31</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -4911,7 +4937,7 @@
         <v>293.7</v>
       </c>
       <c r="C180" t="n">
-        <v>328.61</v>
+        <v>308.78</v>
       </c>
       <c r="D180" t="n">
         <v>298.48</v>
@@ -4920,7 +4946,7 @@
         <v>323.12</v>
       </c>
       <c r="F180" t="n">
-        <v>296.42</v>
+        <v>312.29</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -4938,7 +4964,7 @@
         <v>313.04</v>
       </c>
       <c r="C181" t="n">
-        <v>293.1</v>
+        <v>308.6</v>
       </c>
       <c r="D181" t="n">
         <v>308.73</v>
@@ -4947,7 +4973,7 @@
         <v>317.2</v>
       </c>
       <c r="F181" t="n">
-        <v>337.47</v>
+        <v>325.07</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -4965,7 +4991,7 @@
         <v>307.09</v>
       </c>
       <c r="C182" t="n">
-        <v>340.01</v>
+        <v>318.01</v>
       </c>
       <c r="D182" t="n">
         <v>308.72</v>
@@ -4974,7 +5000,7 @@
         <v>313.65</v>
       </c>
       <c r="F182" t="n">
-        <v>302.89</v>
+        <v>320.49</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -4992,7 +5018,7 @@
         <v>307.9</v>
       </c>
       <c r="C183" t="n">
-        <v>339.19</v>
+        <v>314.36</v>
       </c>
       <c r="D183" t="n">
         <v>305.98</v>
@@ -5001,7 +5027,7 @@
         <v>319.66</v>
       </c>
       <c r="F183" t="n">
-        <v>301.74</v>
+        <v>321.61</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -5019,7 +5045,7 @@
         <v>287.4</v>
       </c>
       <c r="C184" t="n">
-        <v>306.65</v>
+        <v>293.65</v>
       </c>
       <c r="D184" t="n">
         <v>288.37</v>
@@ -5028,7 +5054,7 @@
         <v>305.17</v>
       </c>
       <c r="F184" t="n">
-        <v>294.15</v>
+        <v>304.55</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -5046,7 +5072,7 @@
         <v>300.72</v>
       </c>
       <c r="C185" t="n">
-        <v>294.52</v>
+        <v>293.52</v>
       </c>
       <c r="D185" t="n">
         <v>310.03</v>
@@ -5055,7 +5081,7 @@
         <v>305.65</v>
       </c>
       <c r="F185" t="n">
-        <v>293.95</v>
+        <v>294.75</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -5073,7 +5099,7 @@
         <v>279.81</v>
       </c>
       <c r="C186" t="n">
-        <v>292.67</v>
+        <v>293.17</v>
       </c>
       <c r="D186" t="n">
         <v>290.07</v>
@@ -5082,7 +5108,7 @@
         <v>294.92</v>
       </c>
       <c r="F186" t="n">
-        <v>286.7</v>
+        <v>286.3</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -5100,7 +5126,7 @@
         <v>306.77</v>
       </c>
       <c r="C187" t="n">
-        <v>299.52</v>
+        <v>312.19</v>
       </c>
       <c r="D187" t="n">
         <v>310.63</v>
@@ -5109,7 +5135,7 @@
         <v>313.7</v>
       </c>
       <c r="F187" t="n">
-        <v>321.47</v>
+        <v>311.34</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -5127,7 +5153,7 @@
         <v>269.7</v>
       </c>
       <c r="C188" t="n">
-        <v>303.24</v>
+        <v>318.57</v>
       </c>
       <c r="D188" t="n">
         <v>320.01</v>
@@ -5136,7 +5162,7 @@
         <v>338.07</v>
       </c>
       <c r="F188" t="n">
-        <v>341.14</v>
+        <v>328.87</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -5154,7 +5180,7 @@
         <v>303.56</v>
       </c>
       <c r="C189" t="n">
-        <v>322.38</v>
+        <v>311.88</v>
       </c>
       <c r="D189" t="n">
         <v>308.28</v>
@@ -5163,7 +5189,7 @@
         <v>302.09</v>
       </c>
       <c r="F189" t="n">
-        <v>288.81</v>
+        <v>297.21</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -5181,7 +5207,7 @@
         <v>323.01</v>
       </c>
       <c r="C190" t="n">
-        <v>342.76</v>
+        <v>324.93</v>
       </c>
       <c r="D190" t="n">
         <v>305.51</v>
@@ -5190,7 +5216,7 @@
         <v>298.21</v>
       </c>
       <c r="F190" t="n">
-        <v>282.84</v>
+        <v>297.11</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5208,7 +5234,7 @@
         <v>336.68</v>
       </c>
       <c r="C191" t="n">
-        <v>355.54</v>
+        <v>333.21</v>
       </c>
       <c r="D191" t="n">
         <v>323.36</v>
@@ -5217,7 +5243,7 @@
         <v>312.8</v>
       </c>
       <c r="F191" t="n">
-        <v>291.94</v>
+        <v>309.81</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -5235,7 +5261,7 @@
         <v>328.48</v>
       </c>
       <c r="C192" t="n">
-        <v>302.74</v>
+        <v>309.07</v>
       </c>
       <c r="D192" t="n">
         <v>298.42</v>
@@ -5244,7 +5270,7 @@
         <v>291.32</v>
       </c>
       <c r="F192" t="n">
-        <v>288.46</v>
+        <v>283.39</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -5262,7 +5288,7 @@
         <v>313.02</v>
       </c>
       <c r="C193" t="n">
-        <v>336.08</v>
+        <v>319.91</v>
       </c>
       <c r="D193" t="n">
         <v>297.74</v>
@@ -5271,7 +5297,7 @@
         <v>288.78</v>
       </c>
       <c r="F193" t="n">
-        <v>275.36</v>
+        <v>288.29</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -5289,7 +5315,7 @@
         <v>312.11</v>
       </c>
       <c r="C194" t="n">
-        <v>313.11</v>
+        <v>306.28</v>
       </c>
       <c r="D194" t="n">
         <v>292.75</v>
@@ -5298,7 +5324,7 @@
         <v>283.23</v>
       </c>
       <c r="F194" t="n">
-        <v>277.35</v>
+        <v>282.82</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -5316,7 +5342,7 @@
         <v>323.87</v>
       </c>
       <c r="C195" t="n">
-        <v>318.35</v>
+        <v>314.85</v>
       </c>
       <c r="D195" t="n">
         <v>294.64</v>
@@ -5325,7 +5351,7 @@
         <v>292.8</v>
       </c>
       <c r="F195" t="n">
-        <v>281.28</v>
+        <v>284.08</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -5343,7 +5369,7 @@
         <v>333.89</v>
       </c>
       <c r="C196" t="n">
-        <v>321.78</v>
+        <v>328.95</v>
       </c>
       <c r="D196" t="n">
         <v>316.15</v>
@@ -5352,7 +5378,7 @@
         <v>314.47</v>
       </c>
       <c r="F196" t="n">
-        <v>309.87</v>
+        <v>304.14</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -5370,7 +5396,7 @@
         <v>339.07</v>
       </c>
       <c r="C197" t="n">
-        <v>338.83</v>
+        <v>328.16</v>
       </c>
       <c r="D197" t="n">
         <v>318.38</v>
@@ -5379,7 +5405,7 @@
         <v>320.18</v>
       </c>
       <c r="F197" t="n">
-        <v>293.96</v>
+        <v>302.49</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -5397,7 +5423,7 @@
         <v>317.44</v>
       </c>
       <c r="C198" t="n">
-        <v>307.38</v>
+        <v>310.55</v>
       </c>
       <c r="D198" t="n">
         <v>303.05</v>
@@ -5406,7 +5432,7 @@
         <v>303.75</v>
       </c>
       <c r="F198" t="n">
-        <v>297.97</v>
+        <v>295.44</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -5421,12 +5447,12 @@
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="n">
-        <v>279.31</v>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>261.9</v>
+      </c>
       <c r="G199" t="inlineStr">
         <is>
           <t>L9</t>
@@ -5446,7 +5472,7 @@
         <v>316.29</v>
       </c>
       <c r="F200" t="n">
-        <v>308.32</v>
+        <v>309.79</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -5464,7 +5490,7 @@
         <v>292.62</v>
       </c>
       <c r="C201" t="n">
-        <v>323.08</v>
+        <v>305.91</v>
       </c>
       <c r="D201" t="n">
         <v>292.78</v>
@@ -5473,7 +5499,7 @@
         <v>314.9</v>
       </c>
       <c r="F201" t="n">
-        <v>283.32</v>
+        <v>297.05</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -5491,7 +5517,7 @@
         <v>309.91</v>
       </c>
       <c r="C202" t="n">
-        <v>309.59</v>
+        <v>318.42</v>
       </c>
       <c r="D202" t="n">
         <v>323.32</v>
@@ -5500,7 +5526,7 @@
         <v>327.71</v>
       </c>
       <c r="F202" t="n">
-        <v>338.65</v>
+        <v>331.58</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -5518,7 +5544,7 @@
         <v>308.11</v>
       </c>
       <c r="C203" t="n">
-        <v>303.61</v>
+        <v>307.61</v>
       </c>
       <c r="D203" t="n">
         <v>317.59</v>
@@ -5527,7 +5553,7 @@
         <v>315.17</v>
       </c>
       <c r="F203" t="n">
-        <v>316.71</v>
+        <v>313.51</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -5545,7 +5571,7 @@
         <v>297.88</v>
       </c>
       <c r="C204" t="n">
-        <v>328.29</v>
+        <v>310.96</v>
       </c>
       <c r="D204" t="n">
         <v>295.53</v>
@@ -5554,7 +5580,7 @@
         <v>315.35</v>
       </c>
       <c r="F204" t="n">
-        <v>295.29</v>
+        <v>309.16</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -5572,7 +5598,7 @@
         <v>281.77</v>
       </c>
       <c r="C205" t="n">
-        <v>325.89</v>
+        <v>307.22</v>
       </c>
       <c r="D205" t="n">
         <v>292.59</v>
@@ -5581,7 +5607,7 @@
         <v>305.07</v>
       </c>
       <c r="F205" t="n">
-        <v>288.72</v>
+        <v>303.65</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -5599,7 +5625,7 @@
         <v>303.18</v>
       </c>
       <c r="C206" t="n">
-        <v>328.77</v>
+        <v>333.1</v>
       </c>
       <c r="D206" t="n">
         <v>326.79</v>
@@ -5608,7 +5634,7 @@
         <v>329.55</v>
       </c>
       <c r="F206" t="n">
-        <v>324.7</v>
+        <v>321.23</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -5626,7 +5652,7 @@
         <v>303.68</v>
       </c>
       <c r="C207" t="n">
-        <v>327.44</v>
+        <v>323.94</v>
       </c>
       <c r="D207" t="n">
         <v>303.18</v>
@@ -5649,14 +5675,14 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>283.5</v>
+        <v>274.17</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
         <v>272.84</v>
       </c>
       <c r="F208" t="n">
-        <v>275.43</v>
+        <v>282.9</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -5674,7 +5700,7 @@
         <v>317.68</v>
       </c>
       <c r="C209" t="n">
-        <v>306.3</v>
+        <v>312.47</v>
       </c>
       <c r="D209" t="n">
         <v>302.04</v>
@@ -5683,7 +5709,7 @@
         <v>306.51</v>
       </c>
       <c r="F209" t="n">
-        <v>304.62</v>
+        <v>299.69</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -5699,7 +5725,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>337.06</v>
+        <v>348.23</v>
       </c>
       <c r="D210" t="n">
         <v>341.23</v>
@@ -5708,7 +5734,7 @@
         <v>343.13</v>
       </c>
       <c r="F210" t="n">
-        <v>332.06</v>
+        <v>323.13</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -5728,7 +5754,9 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="n">
+        <v>274.86</v>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>L9</t>
@@ -5738,23 +5766,15 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2023-09-20 22:18:03+00:00</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>283.66</v>
-      </c>
-      <c r="C212" t="n">
-        <v>284.51</v>
-      </c>
-      <c r="D212" t="n">
-        <v>282.88</v>
-      </c>
-      <c r="E212" t="n">
-        <v>284.85</v>
-      </c>
+          <t>2023-07-02 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>283.66</v>
+        <v>253.37</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -5765,50 +5785,50 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2023-09-28 22:18:07+00:00</t>
+          <t>2023-09-20 22:18:03+00:00</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>279.75</v>
+        <v>283.66</v>
       </c>
       <c r="C213" t="n">
-        <v>294.94</v>
+        <v>282.18</v>
       </c>
       <c r="D213" t="n">
-        <v>271.53</v>
+        <v>282.88</v>
       </c>
       <c r="E213" t="n">
-        <v>277.56</v>
+        <v>284.85</v>
       </c>
       <c r="F213" t="n">
-        <v>269.41</v>
+        <v>285.53</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2023-10-14 22:17:45+00:00</t>
+          <t>2023-09-28 22:18:07+00:00</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>277.42</v>
+        <v>279.75</v>
       </c>
       <c r="C214" t="n">
-        <v>296.06</v>
+        <v>277.27</v>
       </c>
       <c r="D214" t="n">
-        <v>274.62</v>
+        <v>271.53</v>
       </c>
       <c r="E214" t="n">
-        <v>281.46</v>
+        <v>277.56</v>
       </c>
       <c r="F214" t="n">
-        <v>271.93</v>
+        <v>283.54</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -5819,19 +5839,23 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2023-11-15 22:17:47+00:00</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
+          <t>2023-10-14 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>277.42</v>
+      </c>
       <c r="C215" t="n">
-        <v>265.27</v>
-      </c>
-      <c r="D215" t="inlineStr"/>
+        <v>278.39</v>
+      </c>
+      <c r="D215" t="n">
+        <v>274.62</v>
+      </c>
       <c r="E215" t="n">
-        <v>254.3</v>
+        <v>281.46</v>
       </c>
       <c r="F215" t="n">
-        <v>255.59</v>
+        <v>286.06</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -5842,23 +5866,19 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2023-12-01 22:18:10+00:00</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>274.53</v>
-      </c>
+          <t>2023-11-15 22:17:47+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>277.4</v>
-      </c>
-      <c r="D216" t="n">
-        <v>286.75</v>
-      </c>
+        <v>246.44</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="n">
-        <v>286.03</v>
+        <v>254.3</v>
       </c>
       <c r="F216" t="n">
-        <v>284.03</v>
+        <v>270.66</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -5869,156 +5889,158 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2024-01-10 22:18:15+00:00</t>
+          <t>2023-12-01 22:18:10+00:00</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>289.71</v>
+        <v>274.53</v>
       </c>
       <c r="C217" t="n">
-        <v>307.83</v>
+        <v>270.73</v>
       </c>
       <c r="D217" t="n">
-        <v>294.76</v>
+        <v>286.75</v>
       </c>
       <c r="E217" t="n">
-        <v>301.26</v>
+        <v>286.03</v>
       </c>
       <c r="F217" t="n">
-        <v>297.63</v>
+        <v>289.36</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2024-02-19 22:18:03+00:00</t>
+          <t>2024-01-10 22:18:15+00:00</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>294.95</v>
+        <v>289.71</v>
       </c>
       <c r="C218" t="n">
-        <v>287.64</v>
+        <v>290.66</v>
       </c>
       <c r="D218" t="n">
-        <v>297.65</v>
+        <v>294.76</v>
       </c>
       <c r="E218" t="n">
-        <v>301.33</v>
+        <v>301.26</v>
       </c>
       <c r="F218" t="n">
-        <v>303.98</v>
+        <v>311.36</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2024-03-30 22:18:00+00:00</t>
+          <t>2024-02-19 22:18:03+00:00</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>274.33</v>
+        <v>294.95</v>
       </c>
       <c r="C219" t="n">
-        <v>276.51</v>
+        <v>290.31</v>
       </c>
       <c r="D219" t="n">
-        <v>294.22</v>
+        <v>297.65</v>
       </c>
       <c r="E219" t="n">
-        <v>292.76</v>
+        <v>301.33</v>
       </c>
       <c r="F219" t="n">
-        <v>288.34</v>
+        <v>301.85</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2024-04-23 22:17:27+00:00</t>
+          <t>2024-03-30 22:18:00+00:00</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>246.22</v>
+        <v>274.33</v>
       </c>
       <c r="C220" t="n">
-        <v>280.03</v>
+        <v>271.84</v>
       </c>
       <c r="D220" t="n">
-        <v>255.23</v>
+        <v>294.22</v>
       </c>
       <c r="E220" t="n">
-        <v>269.88</v>
+        <v>292.76</v>
       </c>
       <c r="F220" t="n">
-        <v>270.47</v>
+        <v>292.07</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2024-05-17 22:17:27+00:00</t>
+          <t>2024-04-23 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>239.03</v>
-      </c>
-      <c r="C221" t="inlineStr"/>
+        <v>246.22</v>
+      </c>
+      <c r="C221" t="n">
+        <v>262.03</v>
+      </c>
       <c r="D221" t="n">
-        <v>261.91</v>
+        <v>255.23</v>
       </c>
       <c r="E221" t="n">
-        <v>268.43</v>
+        <v>269.88</v>
       </c>
       <c r="F221" t="n">
-        <v>272.55</v>
+        <v>284.87</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2024-07-04 22:16:52+00:00</t>
+          <t>2024-05-17 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>278.03</v>
+        <v>239.03</v>
       </c>
       <c r="C222" t="n">
-        <v>294.87</v>
+        <v>240.92</v>
       </c>
       <c r="D222" t="n">
-        <v>294.5</v>
+        <v>261.91</v>
       </c>
       <c r="E222" t="n">
-        <v>295.77</v>
+        <v>268.43</v>
       </c>
       <c r="F222" t="n">
-        <v>287.95</v>
+        <v>265.62</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -6029,77 +6051,77 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2024-07-12 22:17:24+00:00</t>
+          <t>2024-07-04 22:16:52+00:00</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>313.81</v>
+        <v>278.03</v>
       </c>
       <c r="C223" t="n">
-        <v>295.52</v>
+        <v>284.37</v>
       </c>
       <c r="D223" t="n">
-        <v>315.27</v>
+        <v>294.5</v>
       </c>
       <c r="E223" t="n">
-        <v>313.89</v>
+        <v>295.77</v>
       </c>
       <c r="F223" t="n">
-        <v>318.03</v>
+        <v>296.35</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2024-08-05 22:17:30+00:00</t>
+          <t>2024-07-12 22:17:24+00:00</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>294.06</v>
+        <v>313.81</v>
       </c>
       <c r="C224" t="n">
-        <v>320.41</v>
+        <v>302.19</v>
       </c>
       <c r="D224" t="n">
-        <v>307.7</v>
+        <v>315.27</v>
       </c>
       <c r="E224" t="n">
-        <v>305.39</v>
+        <v>313.89</v>
       </c>
       <c r="F224" t="n">
-        <v>289.54</v>
+        <v>312.7</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21 22:17:19+00:00</t>
+          <t>2024-08-05 22:17:30+00:00</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>282.16</v>
+        <v>294.06</v>
       </c>
       <c r="C225" t="n">
-        <v>316.68</v>
+        <v>301.74</v>
       </c>
       <c r="D225" t="n">
-        <v>297.55</v>
+        <v>307.7</v>
       </c>
       <c r="E225" t="n">
-        <v>305.44</v>
+        <v>305.39</v>
       </c>
       <c r="F225" t="n">
-        <v>282.76</v>
+        <v>304.47</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -6110,48 +6132,50 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 22:17:45+00:00</t>
+          <t>2024-08-21 22:17:19+00:00</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>263.01</v>
-      </c>
-      <c r="C226" t="inlineStr"/>
+        <v>282.16</v>
+      </c>
+      <c r="C226" t="n">
+        <v>292.85</v>
+      </c>
       <c r="D226" t="n">
-        <v>278.24</v>
+        <v>297.55</v>
       </c>
       <c r="E226" t="n">
-        <v>277.75</v>
+        <v>305.44</v>
       </c>
       <c r="F226" t="n">
-        <v>280.17</v>
+        <v>301.83</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01 22:17:55+00:00</t>
+          <t>2024-08-29 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>277.15</v>
+        <v>263.01</v>
       </c>
       <c r="C227" t="n">
-        <v>310.02</v>
+        <v>268.71</v>
       </c>
       <c r="D227" t="n">
-        <v>275.49</v>
+        <v>278.24</v>
       </c>
       <c r="E227" t="n">
-        <v>281.54</v>
+        <v>277.75</v>
       </c>
       <c r="F227" t="n">
-        <v>270.45</v>
+        <v>274.97</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -6162,23 +6186,23 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03 22:17:45+00:00</t>
+          <t>2024-11-01 22:17:55+00:00</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>313.57</v>
+        <v>277.15</v>
       </c>
       <c r="C228" t="n">
-        <v>341.98</v>
+        <v>292.69</v>
       </c>
       <c r="D228" t="n">
-        <v>317.6</v>
+        <v>275.49</v>
       </c>
       <c r="E228" t="n">
-        <v>320.27</v>
+        <v>281.54</v>
       </c>
       <c r="F228" t="n">
-        <v>303</v>
+        <v>284.32</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -6189,50 +6213,50 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2025-01-12 22:17:45+00:00</t>
+          <t>2024-12-03 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>323.51</v>
+        <v>313.57</v>
       </c>
       <c r="C229" t="n">
-        <v>339.66</v>
+        <v>325.15</v>
       </c>
       <c r="D229" t="n">
-        <v>322.37</v>
+        <v>317.6</v>
       </c>
       <c r="E229" t="n">
-        <v>316.59</v>
+        <v>320.27</v>
       </c>
       <c r="F229" t="n">
-        <v>299.11</v>
+        <v>316.47</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2025-02-13 22:17:46+00:00</t>
+          <t>2025-01-12 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>321.68</v>
+        <v>323.51</v>
       </c>
       <c r="C230" t="n">
-        <v>352.15</v>
+        <v>325.16</v>
       </c>
       <c r="D230" t="n">
-        <v>327.6</v>
+        <v>322.37</v>
       </c>
       <c r="E230" t="n">
-        <v>332.18</v>
+        <v>316.59</v>
       </c>
       <c r="F230" t="n">
-        <v>300.5</v>
+        <v>310.71</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -6243,23 +6267,23 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2025-03-01 22:18:03+00:00</t>
+          <t>2025-02-13 22:17:46+00:00</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>322.5</v>
+        <v>321.68</v>
       </c>
       <c r="C231" t="n">
-        <v>355.91</v>
+        <v>330.15</v>
       </c>
       <c r="D231" t="n">
-        <v>329.81</v>
+        <v>327.6</v>
       </c>
       <c r="E231" t="n">
-        <v>335.77</v>
+        <v>332.18</v>
       </c>
       <c r="F231" t="n">
-        <v>304.3</v>
+        <v>318.1</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -6270,50 +6294,50 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2025-03-09 22:17:50+00:00</t>
+          <t>2025-03-01 22:18:03+00:00</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>331.71</v>
+        <v>322.5</v>
       </c>
       <c r="C232" t="n">
-        <v>319.45</v>
+        <v>329.91</v>
       </c>
       <c r="D232" t="n">
-        <v>318.68</v>
+        <v>329.81</v>
       </c>
       <c r="E232" t="n">
-        <v>319.36</v>
+        <v>335.77</v>
       </c>
       <c r="F232" t="n">
-        <v>323.82</v>
+        <v>325.1</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2025-03-25 22:17:40+00:00</t>
+          <t>2025-03-09 22:17:50+00:00</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>326.49</v>
+        <v>331.71</v>
       </c>
       <c r="C233" t="n">
-        <v>319.06</v>
+        <v>321.78</v>
       </c>
       <c r="D233" t="n">
-        <v>315.55</v>
+        <v>318.68</v>
       </c>
       <c r="E233" t="n">
-        <v>317.3</v>
+        <v>319.36</v>
       </c>
       <c r="F233" t="n">
-        <v>312.38</v>
+        <v>321.95</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -6324,43 +6348,43 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2025-04-18 22:17:25+00:00</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
+          <t>2025-03-25 22:17:40+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>326.49</v>
+      </c>
       <c r="C234" t="n">
-        <v>344.41</v>
-      </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
+        <v>322.06</v>
+      </c>
+      <c r="D234" t="n">
+        <v>315.55</v>
+      </c>
+      <c r="E234" t="n">
+        <v>317.3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>309.98</v>
+      </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2025-05-04 22:17:41+00:00</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>338.03</v>
-      </c>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>330.16</v>
-      </c>
-      <c r="D235" t="n">
-        <v>318.69</v>
-      </c>
-      <c r="E235" t="n">
-        <v>322.06</v>
-      </c>
-      <c r="F235" t="n">
-        <v>330.17</v>
-      </c>
+        <v>341.74</v>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
         <is>
           <t>L9</t>
@@ -6370,102 +6394,104 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12 22:16:59+00:00</t>
+          <t>2025-05-04 22:17:41+00:00</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>289.61</v>
+        <v>338.03</v>
       </c>
       <c r="C236" t="n">
-        <v>325.63</v>
+        <v>340.66</v>
       </c>
       <c r="D236" t="n">
-        <v>289.82</v>
+        <v>318.69</v>
       </c>
       <c r="E236" t="n">
-        <v>307.5</v>
+        <v>322.06</v>
       </c>
       <c r="F236" t="n">
-        <v>283.48</v>
+        <v>321.77</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05 22:17:00+00:00</t>
+          <t>2025-05-12 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>275.84</v>
-      </c>
-      <c r="C237" t="inlineStr"/>
+        <v>289.61</v>
+      </c>
+      <c r="C237" t="n">
+        <v>308.96</v>
+      </c>
       <c r="D237" t="n">
-        <v>248.76</v>
+        <v>289.82</v>
       </c>
       <c r="E237" t="n">
-        <v>288.3</v>
+        <v>307.5</v>
       </c>
       <c r="F237" t="n">
-        <v>282.31</v>
+        <v>296.81</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13 22:17:36+00:00</t>
+          <t>2025-06-05 22:17:00+00:00</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>305.95</v>
+        <v>275.84</v>
       </c>
       <c r="C238" t="n">
-        <v>333.28</v>
+        <v>294.46</v>
       </c>
       <c r="D238" t="n">
-        <v>282.88</v>
+        <v>248.76</v>
       </c>
       <c r="E238" t="n">
-        <v>310.9</v>
+        <v>288.3</v>
       </c>
       <c r="F238" t="n">
-        <v>284.53</v>
+        <v>274.58</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2025-06-29 22:17:21+00:00</t>
+          <t>2025-06-13 22:17:36+00:00</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>313.77</v>
+        <v>305.95</v>
       </c>
       <c r="C239" t="n">
-        <v>313.01</v>
+        <v>317.95</v>
       </c>
       <c r="D239" t="n">
-        <v>302.91</v>
+        <v>282.88</v>
       </c>
       <c r="E239" t="n">
-        <v>309.82</v>
+        <v>310.9</v>
       </c>
       <c r="F239" t="n">
-        <v>298.07</v>
+        <v>296.8</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -6476,96 +6502,98 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2025-07-23 22:17:51+00:00</t>
+          <t>2025-06-29 22:17:21+00:00</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>300.55</v>
+        <v>313.77</v>
       </c>
       <c r="C240" t="n">
-        <v>336.86</v>
+        <v>308.18</v>
       </c>
       <c r="D240" t="n">
-        <v>317.65</v>
+        <v>302.91</v>
       </c>
       <c r="E240" t="n">
-        <v>317.73</v>
+        <v>309.82</v>
       </c>
       <c r="F240" t="n">
-        <v>303.14</v>
+        <v>301.94</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2025-08-16 22:18:02+00:00</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
+          <t>2025-07-23 22:17:51+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>300.55</v>
+      </c>
+      <c r="C241" t="n">
+        <v>325.03</v>
+      </c>
+      <c r="D241" t="n">
+        <v>317.65</v>
+      </c>
       <c r="E241" t="n">
-        <v>339.89</v>
-      </c>
-      <c r="F241" t="inlineStr"/>
+        <v>317.73</v>
+      </c>
+      <c r="F241" t="n">
+        <v>312.61</v>
+      </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2025-08-24 22:17:43+00:00</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>291.53</v>
-      </c>
-      <c r="C242" t="n">
-        <v>339.82</v>
-      </c>
-      <c r="D242" t="n">
-        <v>301.26</v>
-      </c>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>328.8</v>
+        <v>339.89</v>
       </c>
       <c r="F242" t="n">
-        <v>308.16</v>
+        <v>363.55</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2025-09-25 22:18:16+00:00</t>
+          <t>2025-08-24 22:17:43+00:00</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>274.15</v>
+        <v>291.53</v>
       </c>
       <c r="C243" t="n">
-        <v>305.89</v>
+        <v>318.99</v>
       </c>
       <c r="D243" t="n">
-        <v>272.74</v>
+        <v>301.26</v>
       </c>
       <c r="E243" t="n">
-        <v>302.31</v>
+        <v>328.8</v>
       </c>
       <c r="F243" t="n">
-        <v>287.38</v>
+        <v>324.83</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -6576,23 +6604,100 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
+          <t>2025-09-25 22:18:16+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>274.15</v>
+      </c>
+      <c r="C244" t="n">
+        <v>293.56</v>
+      </c>
+      <c r="D244" t="n">
+        <v>272.74</v>
+      </c>
+      <c r="E244" t="n">
+        <v>302.31</v>
+      </c>
+      <c r="F244" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
           <t>2025-10-11 22:18:21+00:00</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="n">
-        <v>306.67</v>
-      </c>
-      <c r="D244" t="n">
+      <c r="B245" t="n">
+        <v>322.6</v>
+      </c>
+      <c r="C245" t="n">
+        <v>303</v>
+      </c>
+      <c r="D245" t="n">
         <v>300</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E245" t="n">
         <v>320.87</v>
       </c>
-      <c r="F244" t="n">
-        <v>318.33</v>
-      </c>
-      <c r="G244" t="inlineStr">
+      <c r="F245" t="n">
+        <v>321.26</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>288.71</v>
+      </c>
+      <c r="C246" t="n">
+        <v>305.95</v>
+      </c>
+      <c r="D246" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="E246" t="n">
+        <v>282.14</v>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:17:59+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>315.69</v>
+      </c>
+      <c r="C247" t="n">
+        <v>312.99</v>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>332.33</v>
+      </c>
+      <c r="G247" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -6609,7 +6714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9457,6 +9562,36 @@
       </c>
       <c r="B284" t="n">
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-11-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9624,34 +9759,34 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0265</v>
+        <v>0.0259</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0329</v>
+        <v>0.0327</v>
       </c>
       <c r="I2" t="n">
-        <v>0.187198224088064</v>
+        <v>0.2196123843774238</v>
       </c>
       <c r="J2" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004594571446529527</v>
+        <v>0.006455710895368338</v>
       </c>
       <c r="M2" t="n">
-        <v>16.65070128514895</v>
+        <v>16.64475988027322</v>
       </c>
       <c r="N2" t="n">
-        <v>448.3074940040543</v>
+        <v>446.6209711973715</v>
       </c>
       <c r="O2" t="n">
-        <v>21.17327310559363</v>
+        <v>21.13340888728961</v>
       </c>
       <c r="P2" t="n">
-        <v>292.7737752043045</v>
+        <v>292.4668142466869</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9705,31 +9840,31 @@
         <v>0.0278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0356</v>
+        <v>0.0355</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7087457733073119</v>
+        <v>0.5386395668930579</v>
       </c>
       <c r="J3" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K3" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06116492112140259</v>
+        <v>0.03483531824156549</v>
       </c>
       <c r="M3" t="n">
-        <v>17.65228218591779</v>
+        <v>18.14462036850503</v>
       </c>
       <c r="N3" t="n">
-        <v>485.5375064067789</v>
+        <v>498.9758432285727</v>
       </c>
       <c r="O3" t="n">
-        <v>22.03491562059585</v>
+        <v>22.33776719434091</v>
       </c>
       <c r="P3" t="n">
-        <v>291.0169996946196</v>
+        <v>285.8743418171562</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9786,28 +9921,28 @@
         <v>0.0286</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1213005589249804</v>
+        <v>-0.1257165180519504</v>
       </c>
       <c r="J4" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K4" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002297143092734766</v>
+        <v>0.002493911199351384</v>
       </c>
       <c r="M4" t="n">
-        <v>15.02330674933987</v>
+        <v>14.9727156189877</v>
       </c>
       <c r="N4" t="n">
-        <v>371.250347538815</v>
+        <v>369.4770681584645</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2678578866156</v>
+        <v>19.2217862894806</v>
       </c>
       <c r="P4" t="n">
-        <v>299.9492913686742</v>
+        <v>299.9921439121682</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -9858,34 +9993,34 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0277</v>
+        <v>0.0274</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0393</v>
+        <v>0.0384</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1930139130692022</v>
+        <v>-0.2110230951490095</v>
       </c>
       <c r="J5" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K5" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006132778694873386</v>
+        <v>0.007361427017411049</v>
       </c>
       <c r="M5" t="n">
-        <v>14.85693251676623</v>
+        <v>14.88566272651145</v>
       </c>
       <c r="N5" t="n">
-        <v>350.5044704039238</v>
+        <v>350.5559695656369</v>
       </c>
       <c r="O5" t="n">
-        <v>18.72176461778974</v>
+        <v>18.72313994942186</v>
       </c>
       <c r="P5" t="n">
-        <v>306.3373267023883</v>
+        <v>306.5141413090008</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -9936,34 +10071,34 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0275</v>
+        <v>0.0268</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0366</v>
+        <v>0.036</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2325847281969792</v>
+        <v>-0.1905005582249134</v>
       </c>
       <c r="J6" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007155571828488139</v>
+        <v>0.005038991192362618</v>
       </c>
       <c r="M6" t="n">
-        <v>15.62971421822733</v>
+        <v>15.71741812030514</v>
       </c>
       <c r="N6" t="n">
-        <v>422.7080843020269</v>
+        <v>401.8063516321383</v>
       </c>
       <c r="O6" t="n">
-        <v>20.55986586293857</v>
+        <v>20.04510792268623</v>
       </c>
       <c r="P6" t="n">
-        <v>299.5588584537431</v>
+        <v>303.3460227294547</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10001,7 +10136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10055,7 +10190,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-35.332694739085134,173.18608272713536</t>
+          <t>-35.33273117891928,173.1860243396617</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -10080,16 +10215,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.3326939195983,173.18608404019636</t>
+          <t>-35.33272216457015,173.1860387833445</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-35.33086483995668,173.18457939775385</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10109,7 +10240,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.333039632515266,173.1855301011638</t>
+          <t>-35.33294768667643,173.1856774276981</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -10124,7 +10255,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-35.33101786336687,173.1843342087687</t>
+          <t>-35.33109145209823,173.18421629713504</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -10146,7 +10277,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.33292823762269,173.18570859120024</t>
+          <t>-35.33287999737883,173.1857858871257</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -10161,7 +10292,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-35.33114089360876,173.1841370765038</t>
+          <t>-35.33117951804544,173.18407518805392</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -10183,7 +10314,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.332862241897224,173.18581433690522</t>
+          <t>-35.33282673091387,173.18587123642692</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -10198,7 +10329,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-35.33100939546538,173.18434777690877</t>
+          <t>-35.33103780390308,173.18430225797593</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -10220,7 +10351,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.332809958793945,173.1858981104914</t>
+          <t>-35.332854593380006,173.18582659219103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -10245,14 +10376,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.33275117437847,173.18599230093574</t>
+          <t>-35.332705665575105,173.1860652196525</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-35.33089865702596,173.18452521290604</t>
+          <t>-35.33093509639323,173.1844668262747</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -10274,7 +10405,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.33268594325888,173.1860968206556</t>
+          <t>-35.33271965147854,173.18604281006756</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -10299,7 +10430,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-35.33284350302782,173.18584436235136</t>
+          <t>-35.332865355936015,173.18580934725247</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10314,7 +10445,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-35.33125447230722,173.18395508752764</t>
+          <t>-35.331236990274355,173.183983099332</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -10332,7 +10463,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.332753141144494,173.18598914958477</t>
+          <t>-35.33271216683543,173.18605480269798</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -10357,7 +10488,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.3329405844948,173.18568880763038</t>
+          <t>-35.332856833303026,173.1858230031433</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10390,7 +10521,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.3329792640555,173.18562683074416</t>
+          <t>-35.33299838529549,173.18559619243112</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10405,7 +10536,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-35.33119175548411,173.1840555798199</t>
+          <t>-35.33117645868528,173.1840800901115</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -10427,7 +10558,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.33303531658271,173.18553701667705</t>
+          <t>-35.332943370735414,173.18568434319565</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10442,7 +10573,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-35.331099319038195,173.18420369186978</t>
+          <t>-35.331172907641985,173.18408577999932</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -10464,7 +10595,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.33299237576376,173.18560582161678</t>
+          <t>-35.33292774593303,173.1857093790414</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10479,7 +10610,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-35.33112035216982,173.18416999028054</t>
+          <t>-35.33117208817041,173.18408709305027</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -10501,7 +10632,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.33288753662745,173.18577380690786</t>
+          <t>-35.33284749118431,173.18583797209723</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10516,7 +10647,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-35.33099355229073,173.18437316245362</t>
+          <t>-35.33102562105594,173.18432177859913</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -10538,7 +10669,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.3326761094139,173.18611257738272</t>
+          <t>-35.332743471210776,173.18600464372548</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10571,14 +10702,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.332637156441066,173.18617499149198</t>
+          <t>-35.33258618426935,173.1862566637211</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-35.330968367095224,173.1844135166959</t>
+          <t>-35.33100917693886,173.1843481270543</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10600,14 +10731,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.33282121305099,173.18588007773275</t>
+          <t>-35.33269189819733,173.1860872790801</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-35.33089581617455,173.18452976478514</t>
+          <t>-35.33099923398156,173.18436405867317</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10629,7 +10760,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.332711839040805,173.18605532792262</t>
+          <t>-35.33262808744136,173.18618952267852</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -10640,7 +10771,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-35.330837797210094,173.1846227280924</t>
+          <t>-35.330904830414,173.18451532132153</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -10662,7 +10793,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.33272134508376,173.18604009640637</t>
+          <t>-35.33277324585907,173.1859569357663</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10677,7 +10808,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-35.331112321338864,173.18418285816213</t>
+          <t>-35.33107080137456,173.1842493859447</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -10695,7 +10826,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.332837766637724,173.18585355381168</t>
+          <t>-35.332792257918214,173.18592647268414</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10710,7 +10841,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-35.331045233799344,173.18429035301904</t>
+          <t>-35.33108167305297,173.18423196617664</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -10732,7 +10863,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.33296828299701,173.18564442588314</t>
+          <t>-35.332900921522395,173.18575236013874</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10747,7 +10878,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-35.331126252371284,173.1841605363251</t>
+          <t>-35.331180173622606,173.18407413761298</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -10769,7 +10900,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.33294724961911,173.18567812800168</t>
+          <t>-35.33287529900589,173.18579341537625</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10784,7 +10915,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-35.33114750401673,173.18412648456678</t>
+          <t>-35.33120503091619,173.18403430838075</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -10806,7 +10937,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.332795918285036,173.1859206076638</t>
+          <t>-35.33285147934049,173.18583158184245</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10821,7 +10952,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-35.331309103618025,173.183867550561</t>
+          <t>-35.33126468836717,173.1839387181238</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -10839,7 +10970,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.33268321163548,173.18610119752464</t>
+          <t>-35.332736041203866,173.18601654882542</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10868,7 +10999,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.33284869309444,173.1858360462671</t>
+          <t>-35.33287600922509,173.18579227738493</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10897,7 +11028,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.33286759585853,173.1858057582038</t>
+          <t>-35.33281842680313,173.18588454215404</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10912,7 +11043,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-35.331096478198916,173.18420824377142</t>
+          <t>-35.33113581288134,173.1841452174129</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -10934,7 +11065,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.33261896380735,173.18620414139906</t>
+          <t>-35.3325434069379,173.1863252052876</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10963,7 +11094,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.33271555404633,173.18604937537646</t>
+          <t>-35.33266185033502,173.18613542463024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10978,7 +11109,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-35.33104408653603,173.18429219128458</t>
+          <t>-35.33108708157547,173.18422330005913</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -11000,7 +11131,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.33286442718762,173.1858108353946</t>
+          <t>-35.33276789188701,173.1859655144478</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -11015,7 +11146,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-35.331103798822866,173.18419651387043</t>
+          <t>-35.33118099309402,173.18407282456172</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -11035,11 +11166,7 @@
           <t>-35.33348425655901,173.1862961277509</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>-35.33297653244915,173.18563120764486</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>-35.33245918811896,173.1849816950333</t>
@@ -11066,7 +11193,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.33290097615461,173.1857522726009</t>
+          <t>-35.33296560602217,173.18564871524464</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -11079,7 +11206,11 @@
           <t>-35.3318319748616,173.18450822089926</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-35.33130484237806,173.18387437844865</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11102,7 +11233,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-35.33105091548393,173.18428124922696</t>
+          <t>-35.33107347832074,173.1842450966555</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -11124,7 +11255,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.33301007656411,173.18557745928405</t>
+          <t>-35.33305831667443,173.18550016311065</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -11157,7 +11288,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.33285262661823,173.18582974354985</t>
+          <t>-35.33272604347211,173.1860325681844</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -11172,7 +11303,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-35.33112444953203,173.18416342503386</t>
+          <t>-35.33122568158087,173.18400121946158</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -11194,7 +11325,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.33275958776587,173.1859788201556</t>
+          <t>-35.33265125162991,173.18615240687032</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -11240,7 +11371,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.332660102095154,173.18613822582478</t>
+          <t>-35.332725661045174,173.1860331809467</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -11265,7 +11396,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.33296462264361,173.1856502909284</t>
+          <t>-35.33290999046946,173.18573782885443</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -11280,7 +11411,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-35.331157283048285,173.18411081549974</t>
+          <t>-35.331200988192414,173.18404078610368</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -11309,7 +11440,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-35.33111620017576,173.18417664306318</t>
+          <t>-35.33112931173472,173.18415563427357</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -11331,7 +11462,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.3329797011125,173.18562613044003</t>
+          <t>-35.33301428323482,173.1855707188513</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -11346,7 +11477,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-35.331463983038866,173.18361938261958</t>
+          <t>-35.33143628506352,173.1836637640459</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -11368,7 +11499,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-35.3329185130928,173.18572417294575</t>
+          <t>-35.33295582686786,173.18566438454246</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -11383,7 +11514,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-35.33142852744227,173.18367619434133</t>
+          <t>-35.33139864419907,173.1837240772177</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -11405,7 +11536,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.3328743702577,173.1857949035187</t>
+          <t>-35.332925342116816,173.18571323070913</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -11420,7 +11551,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-35.33134647139804,173.18380767520793</t>
+          <t>-35.33130566184733,173.18387306539339</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -11463,7 +11594,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.332938890897495,173.18569152130624</t>
+          <t>-35.332848747726715,173.18583595872934</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -11476,7 +11607,11 @@
           <t>-35.331753906239626,173.18463331155607</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-35.33113275351835,173.1841501194652</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>L5</t>
@@ -11490,22 +11625,14 @@
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>-35.33302176782983,173.18555872613155</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>-35.33185874433823,173.1844653276165</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-35.33145502353778,173.18363373874502</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11525,7 +11652,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.332746858419426,173.18599921639978</t>
+          <t>-35.33279056431556,173.1859291863501</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -11538,7 +11665,11 @@
           <t>-35.331551768547136,173.18495719807188</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-35.33091706792421,173.18449571322031</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>L5</t>
@@ -11563,7 +11694,11 @@
           <t>-35.331695996611195,173.184726100831</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-35.33108369442003,173.18422872732478</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11583,7 +11718,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.332958176050354,173.1856606204098</t>
+          <t>-35.33298002890525,173.18562560521195</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -11598,7 +11733,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-35.3312985051487,173.18388453274176</t>
+          <t>-35.3312810231322,173.18391254457657</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -11616,7 +11751,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.33268922120675,173.1860915684124</t>
+          <t>-35.3327019505688,173.1860711721972</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -11641,7 +11776,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-35.33283946023868,173.18585084014256</t>
+          <t>-35.33289316374702,173.1857647905119</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -11677,7 +11812,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-35.33131549547724,173.1838573087282</t>
+          <t>-35.33126523468048,173.18393784275452</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -11699,7 +11834,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.33288037980452,173.18578527436108</t>
+          <t>-35.332920425219626,173.18572110911967</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -11714,7 +11849,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-35.331154278318145,173.18411563001794</t>
+          <t>-35.33112220964073,173.18416701403547</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -11743,7 +11878,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-35.33107402463624,173.18424422129033</t>
+          <t>-35.33114029266253,173.18413803940706</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -11759,7 +11894,11 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-35.33252548743114,173.1863539174421</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>-35.332148222880654,173.18547995808336</t>
@@ -11770,11 +11909,7 @@
           <t>-35.331533740008005,173.18498608516921</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>-35.33096689203996,173.1844158801757</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11794,7 +11929,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.33280356681182,173.18590835239576</t>
+          <t>-35.332720689494664,173.1860411468559</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11809,7 +11944,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-35.33106009358835,173.18426654309863</t>
+          <t>-35.33112636163427,173.18416036125183</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -11831,7 +11966,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.33273401980472,173.18601978771252</t>
+          <t>-35.33270397196932,173.18606793331267</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -11846,7 +11981,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-35.331100411668636,173.1842019411383</t>
+          <t>-35.33112444953203,173.18416342503386</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -11868,7 +12003,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-35.332593231871954,173.18624537142546</t>
+          <t>-35.33263786666386,173.18617385350737</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -11883,7 +12018,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-35.33103518158648,173.18430645972492</t>
+          <t>-35.33099950713975,173.18436362099138</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -11905,7 +12040,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.332685123771874,173.18609813371634</t>
+          <t>-35.33272243773226,173.18603834565715</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11920,7 +12055,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-35.33115253011142,173.184118431192</t>
+          <t>-35.331122646692705,173.18416631374248</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -11938,7 +12073,7 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.3327757589478,173.1859529090379</t>
+          <t>-35.33272205530529,173.1860389584194</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11953,7 +12088,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-35.33109167062437,173.18421594698881</t>
+          <t>-35.33113466562024,173.18414705568253</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11975,7 +12110,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.33269047775338,173.18608955505238</t>
+          <t>-35.33271325948413,173.18605305194916</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11990,7 +12125,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-35.33099879692844,173.18436475896402</t>
+          <t>-35.330980604588866,173.18439390856395</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -12010,7 +12145,11 @@
           <t>-35.33342749339086,173.18638707991371</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-35.3328506052241,173.1858329824463</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>-35.332323209370365,173.18519957616599</t>
@@ -12023,7 +12162,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-35.331095877252125,173.18420920667364</t>
+          <t>-35.33117236132762,173.18408665536663</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -12045,7 +12184,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.33290507357066,173.185745707262</t>
+          <t>-35.332916000011714,173.18572819968836</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -12060,7 +12199,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-35.33121311636271,173.18402135293294</t>
+          <t>-35.3312043753394,173.18403535882237</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -12082,7 +12221,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.33268080780676,173.18610504916913</t>
+          <t>-35.332643493813315,173.18616483716693</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -12115,7 +12254,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.33289414712707,173.18576321483093</t>
+          <t>-35.33279673777011,173.1859192945995</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -12130,7 +12269,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-35.331080635053645,173.18423362937077</t>
+          <t>-35.3311585942032,173.18410871461893</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -12152,7 +12291,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.33290999046946,173.18573782885443</t>
+          <t>-35.33276701776907,173.18596691504874</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -12167,7 +12306,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-35.331013820627,173.18434068646175</t>
+          <t>-35.33112816447346,173.18415747254295</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -12189,7 +12328,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.33293129702493,173.18570368907731</t>
+          <t>-35.332832030246934,173.1858627452707</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -12204,7 +12343,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-35.33112035216982,173.18416999028054</t>
+          <t>-35.33119973167009,173.18404279944988</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -12226,7 +12365,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.33273374664265,173.18602022539997</t>
+          <t>-35.33281203482214,173.18589478406057</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12241,7 +12380,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-35.33102720537257,173.18431924004307</t>
+          <t>-35.330964542877794,173.1844196442359</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -12263,7 +12402,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.332748825185625,173.18599606504918</t>
+          <t>-35.33271697448954,173.1860470994028</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -12278,7 +12417,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-35.33100426009212,173.18435600532786</t>
+          <t>-35.33102977305801,173.18431512583135</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -12300,7 +12439,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.33272708148806,173.18603090497245</t>
+          <t>-35.33265152479245,173.18615196918378</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -12315,7 +12454,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-35.330979184165656,173.18439618450813</t>
+          <t>-35.33103966137726,173.1842992817369</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -12337,7 +12476,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.332833013628274,173.1858611695921</t>
+          <t>-35.332794771005915,173.18592244595385</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -12352,7 +12491,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-35.33101229094154,173.18434313748057</t>
+          <t>-35.33104288464109,173.18429411708652</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -12374,7 +12513,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.33289431102374,173.18576295221743</t>
+          <t>-35.33285153397276,173.1858314943047</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -12389,7 +12528,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-35.33104867558913,173.18428483822206</t>
+          <t>-35.33108292957844,173.18422995283632</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -12411,7 +12550,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.33288923022662,173.18577109323542</t>
+          <t>-35.33292566990993,173.18571270548173</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -12426,7 +12565,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-35.331216667402956,173.18401566303947</t>
+          <t>-35.331187548864925,173.184062320151</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -12448,7 +12587,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-35.33284120847187,173.18584803893563</t>
+          <t>-35.33290496430623,173.1857458823377</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -12463,7 +12602,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-35.33109090578291,173.18421717250058</t>
+          <t>-35.33103993453522,173.1842988440547</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12485,7 +12624,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.33289829917593,173.1857565619553</t>
+          <t>-35.33276991328471,173.18596227555796</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -12500,7 +12639,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-35.331050751589196,173.18428151183636</t>
+          <t>-35.331153458846245,173.1841169430683</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12529,7 +12668,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-35.331050478431294,173.1842819495187</t>
+          <t>-35.33112406711158,173.18416403779023</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12547,7 +12686,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.3328306098072,173.1858650212508</t>
+          <t>-35.3327504641574,173.18599343892353</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -12562,7 +12701,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-35.331068725375374,173.18425271233204</t>
+          <t>-35.33113280814982,173.18415003192854</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12605,7 +12744,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.332772535638334,173.18595807375473</t>
+          <t>-35.33280165468024,173.18591141621297</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -12620,7 +12759,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-35.331083858314656,173.18422846471515</t>
+          <t>-35.33106053064089,173.18426584280672</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12642,7 +12781,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.33299538052971,173.18560100702413</t>
+          <t>-35.332914361045724,173.1857308258247</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -12657,7 +12796,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-35.33116564166024,173.18409742238356</t>
+          <t>-35.33123048914171,173.18399351621872</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12679,7 +12818,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.3329901904793,173.1856093231385</t>
+          <t>-35.332869070929405,173.1858033946838</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -12694,7 +12833,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-35.33109664209349,173.1842079811617</t>
+          <t>-35.33119350368937,173.18405277864312</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12712,7 +12851,7 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-35.332925396749,173.18571314317123</t>
+          <t>-35.33293998354093,173.18568977054764</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -12727,7 +12866,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-35.33121104036981,173.1840246793319</t>
+          <t>-35.33119940388166,173.18404332467063</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12748,7 +12887,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-35.33083550267332,173.18462640460467</t>
+          <t>-35.33091198717258,173.18450385408445</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12764,12 +12903,16 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-35.3325908826712,173.18624913552424</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-35.33098579459637,173.18438559261335</t>
+          <t>-35.33093842892767,173.18446148656514</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12790,7 +12933,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-35.33096989678209,173.18441106567974</t>
+          <t>-35.33106533821863,173.18425813959522</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12812,7 +12955,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-35.33288742736299,173.1857739819835</t>
+          <t>-35.33280001571025,173.18591404234192</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -12827,7 +12970,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-35.33105534064163,173.18427415877264</t>
+          <t>-35.33112526900442,173.18416211198445</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -12849,7 +12992,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.33272762781225,173.18603002959773</t>
+          <t>-35.332807773501024,173.18590161199734</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -12864,7 +13007,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-35.33107834052869,173.18423730590504</t>
+          <t>-35.33101425767997,173.1843399861706</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -12886,7 +13029,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.33282782355992,173.18586948567312</t>
+          <t>-35.33281323673317,173.1858928582321</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -12901,7 +13044,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-35.3310275331622,173.18431871482457</t>
+          <t>-35.331039169692936,173.1843000695649</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -12926,7 +13069,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-35.33099349765909,173.18437324999</t>
+          <t>-35.33106850684916,173.18425306247806</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -12948,7 +13091,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.33303619069566,173.18553561606683</t>
+          <t>-35.33294785057291,173.18567716508426</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -12963,7 +13106,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-35.33113974634779,173.18413891477368</t>
+          <t>-35.331210384793096,173.1840257297737</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -12985,7 +13128,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.33282607532624,173.18587228687917</t>
+          <t>-35.33283973340013,173.185850402454</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -13000,7 +13143,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-35.33106490116612,173.18425883988724</t>
+          <t>-35.33105397485227,173.18427634718455</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -13022,7 +13165,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.33294555602205,173.185680841678</t>
+          <t>-35.3329910645931,173.18560792252984</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -13037,7 +13180,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-35.3312724460155,173.18392628787862</t>
+          <t>-35.331236006909805,173.18398467499568</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -13059,7 +13202,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.332939546483566,173.18569047085109</t>
+          <t>-35.332832084879236,173.185862657733</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -13105,12 +13248,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.332748825185625,173.18599606504918</t>
+          <t>-35.33265141552743,173.1861521442584</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-35.331016442944794,173.18433648471498</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13126,7 +13273,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-35.33278542887488,173.18593741488485</t>
+          <t>-35.332675235294246,173.1861139779805</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -13135,7 +13282,11 @@
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-35.331024473792155,173.1843236168638</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13172,7 +13323,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.33288704493736,173.18577459474824</t>
+          <t>-35.33296806446845,173.1856447760351</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -13187,7 +13338,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-35.33129479022074,173.18389048525768</t>
+          <t>-35.33122994282802,173.18399439158728</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -13209,7 +13360,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.33311294867613,173.1854126248644</t>
+          <t>-35.333015539772745,173.18556870547513</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -13224,7 +13375,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-35.331196125997124,173.18404857687773</t>
+          <t>-35.33127408495511,173.1839236617702</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -13246,7 +13397,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.33295691951091,173.18566263378312</t>
+          <t>-35.33299696486079,173.1855984684206</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -13261,7 +13412,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-35.33128025829383,173.18391377009405</t>
+          <t>-35.33124818970241,173.18396515427122</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -13286,7 +13437,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>-35.3311638388225,173.18410031109514</t>
+          <t>-35.33119732788815,173.1840466510685</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -13308,7 +13459,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.3328565601417,173.18582344083205</t>
+          <t>-35.33292577917431,173.1857125304059</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -13323,7 +13474,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-35.33125108516386,173.18396051481568</t>
+          <t>-35.33119574357727,173.1840491896352</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -13345,7 +13496,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.33292801909395,173.1857089413519</t>
+          <t>-35.332822414961754,173.18587815190386</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -13360,7 +13511,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>-35.3309727922607,173.184406426256</t>
+          <t>-35.33105730737825,173.1842710074594</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -13382,7 +13533,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.332878686205035,173.18578798803293</t>
+          <t>-35.33278581130133,173.18593680212163</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -13397,7 +13548,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>-35.3310346352705,173.18430733508927</t>
+          <t>-35.33110893418525,173.18418828543116</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -13419,7 +13570,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.332803075120836,173.18590914023446</t>
+          <t>-35.33277668769794,173.18595142089904</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -13434,7 +13585,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>-35.33101589662859,173.1843373600789</t>
+          <t>-35.331037039060746,173.1843034834861</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -13454,7 +13605,11 @@
           <t>-35.33319453969011,173.1867603413544</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-35.332603229631964,173.18622935211894</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
@@ -13480,7 +13635,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>-35.33111620017576,173.18417664306318</t>
+          <t>-35.33121453677884,173.1840190769756</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -13502,7 +13657,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.33283099223329,173.18586440848696</t>
+          <t>-35.33272538788305,173.186033618634</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -13517,7 +13672,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>-35.33101911989406,173.18433219543152</t>
+          <t>-35.3311036349283,173.18419677648018</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -13533,7 +13688,11 @@
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>-35.33265540370024,173.18614575403453</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
@@ -13542,7 +13701,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-35.33109429293781,173.184211745234</t>
+          <t>-35.33104332169381,173.18429341679493</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -13564,7 +13723,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.332881253920355,173.1857838737562</t>
+          <t>-35.33278930777162,173.18593119971507</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -13583,7 +13742,11 @@
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>-35.33256804624851,173.18628572605442</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>-35.332040051075,173.18565328129853</t>
@@ -13596,7 +13759,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-35.330989181758845,173.1843801653608</t>
+          <t>-35.33093165459514,173.18447234105622</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13618,7 +13781,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.33276925769627,173.18596332600873</t>
+          <t>-35.33278384453668,173.18593995347516</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -13629,7 +13792,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>-35.33103578253405,173.18430549682415</t>
+          <t>-35.33102414600248,173.18432414208226</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -13647,7 +13810,7 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.33279772115219,173.18591771892227</t>
+          <t>-35.3326820643536,173.18610303580954</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -13658,7 +13821,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>-35.33116886491543,173.18409225771714</t>
+          <t>-35.33126135585588,173.18394405787632</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13680,7 +13843,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.33293151555366,173.18570333892566</t>
+          <t>-35.33282864304443,173.18586817260777</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -13695,7 +13858,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>-35.331021086632205,173.18432904412106</t>
+          <t>-35.33110341640224,173.18419712662651</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -13724,7 +13887,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>-35.33109871809144,173.1842046547721</t>
+          <t>-35.331042611483156,173.18429455476877</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -13746,7 +13909,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.3328384222252,173.18585250335911</t>
+          <t>-35.332865738361825,173.1858087344881</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -13761,7 +13924,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>-35.3310515164313,173.1842802863258</t>
+          <t>-35.33102966379481,173.1843153009042</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -13783,7 +13946,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.3328616955746,173.18581521228288</t>
+          <t>-35.332801600047915,173.18591150375062</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -13798,7 +13961,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-35.33101933842052,173.1843318452859</t>
+          <t>-35.33106741421795,173.18425481320816</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -13831,7 +13994,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>-35.33088204896912,173.18455182388703</t>
+          <t>-35.33086309173919,173.18458219890795</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -13856,7 +14019,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>-35.330945913471346,173.18444949410116</t>
+          <t>-35.331030428637256,173.18431407539427</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -13878,7 +14041,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.33273341884819,173.1860207506249</t>
+          <t>-35.33277346438854,173.18595658561603</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -13893,7 +14056,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>-35.33102622200363,173.18432081569856</t>
+          <t>-35.330994153238834,173.18437219955382</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -13915,7 +14078,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-35.33258591110644,173.18625710140697</t>
+          <t>-35.3325595235616,173.18629938184512</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -13930,7 +14093,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-35.33094454767879,173.18445168250716</t>
+          <t>-35.33096569014306,173.184417805974</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -13952,7 +14115,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.33259060950832,173.18624957321012</t>
+          <t>-35.332642510428016,173.18616641283816</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -13967,7 +14130,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>-35.3310131104159,173.18434182443477</t>
+          <t>-35.330971590363944,173.18440835205456</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -13987,7 +14150,11 @@
           <t>-35.33350824020619,173.18625769845423</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>-35.332758058059184,173.18598127120674</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>-35.33218744875674,173.1854171064194</t>
@@ -14000,7 +14167,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>-35.33103272316453,173.18431039886437</t>
+          <t>-35.33112668942322,173.18415983603205</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -14020,7 +14187,11 @@
           <t>-35.333518183309174,173.18624176648402</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>-35.33284230111757,173.18584628818124</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>-35.332257814870225,173.1853043584353</t>
@@ -14033,7 +14204,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>-35.331032996322534,173.1843099611822</t>
+          <t>-35.331121117010795,173.18416876476786</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -14055,7 +14226,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.33263311363418,173.18618146925024</t>
+          <t>-35.33267955125988,173.18610706252866</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -14080,7 +14251,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.332998603823896,173.1855958422789</t>
+          <t>-35.33305689624152,173.1855024391035</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -14095,7 +14266,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>-35.33109598651517,173.18420903160052</t>
+          <t>-35.33104938579969,173.18428370024802</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -14117,7 +14288,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.3328307190718,173.18586484617543</t>
+          <t>-35.33290081225796,173.18575253521445</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -14132,7 +14303,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>-35.330997321874136,173.1843671224456</t>
+          <t>-35.3309412151448,173.18445702221752</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -14154,7 +14325,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.33282979032272,173.18586633431624</t>
+          <t>-35.33284984037223,173.1858342079746</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -14169,7 +14340,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>-35.33108413147235,173.18422802703247</t>
+          <t>-35.331068124428235,173.1842536752336</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -14228,7 +14399,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.33287032747122,173.18580138131486</t>
+          <t>-35.332833013628274,173.1858611695921</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -14243,7 +14414,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>-35.33107183937412,173.18424772275097</t>
+          <t>-35.33110172282514,173.18419984026048</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -14265,7 +14436,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.33284770971343,173.1858376219463</t>
+          <t>-35.33273664216035,173.18601558591303</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -14280,7 +14451,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-35.33094531252263,173.1844504569998</t>
+          <t>-35.331034198217715,173.18430803538072</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -14302,7 +14473,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-35.332860001974446,173.18581792595344</t>
+          <t>-35.332758003426804,173.18598135874427</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -14317,7 +14488,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-35.331031084216484,173.18431302495716</t>
+          <t>-35.3311126491279,173.18418233294253</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -14339,7 +14510,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.332823398343294,173.1858765762256</t>
+          <t>-35.332852517353686,173.18582991862536</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -14354,7 +14525,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-35.33112515974144,173.1841622870577</t>
+          <t>-35.33110183208817,173.18419966518732</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -14376,7 +14547,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.33285666940623,173.18582326575654</t>
+          <t>-35.33274740474337,173.1859983410246</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -14391,7 +14562,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>-35.33111953269733,173.1841713033298</t>
+          <t>-35.33120694301515,173.18403124459266</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -14413,7 +14584,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.33285727036117,173.18582230284125</t>
+          <t>-35.33287546290263,173.18579315276287</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -14428,7 +14599,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>-35.33119661767983,173.1840477890467</t>
+          <t>-35.33118203109114,173.18407116136348</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -14450,7 +14621,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.33278067586012,173.18594503065543</t>
+          <t>-35.3327943339472,173.1859231462548</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -14465,7 +14636,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-35.3311329174128,173.18414985685527</t>
+          <t>-35.33112199111474,173.18416736418195</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -14487,7 +14658,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.33282137694791,173.1858798151197</t>
+          <t>-35.33288327531316,173.18578063485734</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -14502,7 +14673,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-35.33122142033334,173.18400804733517</t>
+          <t>-35.33117186964466,173.18408744319717</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -14524,7 +14695,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.332591920690156,173.18624747231783</t>
+          <t>-35.332617434096086,173.1862065924417</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -14535,7 +14706,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>-35.33083828889654,173.18462194026833</t>
+          <t>-35.33081791122086,173.18465459119162</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -14557,7 +14728,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.33263147465832,173.18618409536825</t>
+          <t>-35.33271162051106,173.18605567807236</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -14586,7 +14757,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-35.33254056604093,173.18632975721536</t>
+          <t>-35.33256515072045,173.1862903655221</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -14601,7 +14772,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>-35.33095181369471,173.1844400401864</t>
+          <t>-35.330932146280595,173.1844715532303</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -14623,7 +14794,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.33281465717342,173.18589058225294</t>
+          <t>-35.332707195283504,173.18606276860453</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -14638,7 +14809,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>-35.33103212221692,173.18431136176505</t>
+          <t>-35.331118057646826,173.1841736668184</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -14660,7 +14831,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.33283585450754,173.18585661763146</t>
+          <t>-35.332723858175264,173.1860360696831</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -14675,7 +14846,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>-35.33108243789458,173.18423074066513</t>
+          <t>-35.331172033538984,173.184087180587</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -14697,7 +14868,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.33283667399192,173.18585530456585</t>
+          <t>-35.332728338033675,173.18602889161056</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -14712,7 +14883,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-35.33107866831798,173.18423678068586</t>
+          <t>-35.33116536850302,173.18409786006717</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -14734,7 +14905,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.33286448181989,173.1858107478568</t>
+          <t>-35.33275428842464,173.18598731129666</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -14749,7 +14920,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-35.33103862337699,173.18430094492933</t>
+          <t>-35.3311267440547,173.1841597484954</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -14771,7 +14942,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.332867322697254,173.18580619589267</t>
+          <t>-35.33276171842867,173.18597540619137</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -14786,7 +14957,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>-35.33103425284931,173.1843079478443</t>
+          <t>-35.33111876785633,173.18417252884242</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -14808,7 +14979,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.3328683607101,173.18580453267492</t>
+          <t>-35.33276548806262,173.18596936610032</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -14823,7 +14994,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>-35.3311036349283,173.18419677648018</t>
+          <t>-35.331185964553704,173.1840648587171</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -14845,7 +15016,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.332795699755685,173.18592095781432</t>
+          <t>-35.332798431372545,173.18591658093314</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -14860,7 +15031,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>-35.33115034485292,173.18412193265942</t>
+          <t>-35.33114815959433,173.18412543412663</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -14882,7 +15053,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-35.332544718121035,173.18632310439773</t>
+          <t>-35.33260208234814,173.1862311904002</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -14897,7 +15068,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-35.330995956083086,173.18436931085438</t>
+          <t>-35.330950065480465,173.18444284134645</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -14919,7 +15090,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.33276182769343,173.18597523111626</t>
+          <t>-35.33277548578599,173.18595334672577</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -14934,7 +15105,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>-35.33109145209823,173.18421629713504</t>
+          <t>-35.33108052579053,173.18423380444383</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -14956,7 +15127,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.33280591600193,173.18590458827723</t>
+          <t>-35.3326939195983,173.18608404019636</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -14971,7 +15142,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>-35.330998195980406,173.18436572186394</t>
+          <t>-35.33108779178543,173.184222162084</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -14992,7 +15163,7 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>-35.331138817612675,173.18414040289687</t>
+          <t>-35.331101668193625,173.18419992779704</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -15014,7 +15185,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-35.33289436565597,173.1857628646796</t>
+          <t>-35.332943534631916,173.1856840805818</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -15043,7 +15214,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.33278286115432,173.18594152915182</t>
+          <t>-35.33280105372458,173.18591237912693</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -15058,7 +15229,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>-35.331035673270854,173.18430567189702</t>
+          <t>-35.331021086632205,173.18432904412106</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -15080,7 +15251,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.33293610465662,173.1856959857405</t>
+          <t>-35.33284142700101,173.18584768878475</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -15113,7 +15284,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.332856997199826,173.18582274053003</t>
+          <t>-35.33273227156755,173.18602258891204</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -15128,7 +15299,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>-35.33094602273475,173.18444931902866</t>
+          <t>-35.33104583474678,173.18428939011798</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -15149,7 +15320,7 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-35.33090892779501,173.1845087561097</t>
+          <t>-35.3309861223863,173.1843850673954</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -15169,7 +15340,11 @@
           <t>-35.33320836178761,173.1867381943353</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>-35.332659118710225,173.18613980149664</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>-35.33196891978224,173.1857672541911</t>
@@ -15182,7 +15357,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-35.33090193493122,173.18451996073745</t>
+          <t>-35.330858229508955,173.18458998961705</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -15202,10 +15377,18 @@
           <t>-35.33309068261409,173.18692675013764</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>-35.332462933001906,173.1864541472722</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>-35.33065264958366,173.18491938694717</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
           <t>L8</t>
@@ -15225,7 +15408,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.33275051878979,173.185993351386</t>
+          <t>-35.33277056887311,173.18596122510718</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -15234,7 +15417,11 @@
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>-35.33114400760271,173.18413208691382</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr">
         <is>
           <t>L8</t>
@@ -15254,7 +15441,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-35.332741012752734,173.1860085829132</t>
+          <t>-35.3326809170717,173.18610487409438</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -15269,7 +15456,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>-35.33094088735456,173.1844575474349</t>
+          <t>-35.33098896323225,173.18438051550615</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -15291,7 +15478,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.332909717308425,173.18573826654378</t>
+          <t>-35.3328113792343,173.1858958345124</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -15316,7 +15503,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.332701513509214,173.18607187249654</t>
+          <t>-35.33262502801937,173.1861944247648</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -15331,7 +15518,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-35.33095552864979,173.1844340877208</t>
+          <t>-35.3310167161029,173.18433604703299</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -15360,7 +15547,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>-35.33099513660843,173.1843706238996</t>
+          <t>-35.33108981315223,173.18421892323167</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -15389,7 +15576,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>-35.331148815171915,173.18412438368648</t>
+          <t>-35.331237700482056,173.1839819613527</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -15411,7 +15598,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.332625465079666,173.1861937244668</t>
+          <t>-35.33261634144515,173.1862083431864</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -15444,7 +15631,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-35.33281105144037,173.18589635973834</t>
+          <t>-35.33285748889024,173.18582195269025</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -15459,7 +15646,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>-35.33108877515308,173.18422058642614</t>
+          <t>-35.33105162569446,173.18428011125286</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -15481,7 +15668,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.33275450695419,173.1859869611465</t>
+          <t>-35.3328082105596,173.18590091169614</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -15496,7 +15683,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-35.331062060324776,173.18426339178498</t>
+          <t>-35.331019065262446,173.18433228296792</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -15525,7 +15712,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-35.330961647398695,173.1844242836587</t>
+          <t>-35.3310140937851,173.1843402487798</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -15543,7 +15730,7 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.332756255190525,173.18598415994546</t>
+          <t>-35.33265338229763,173.18614899291518</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -15558,7 +15745,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-35.33090024134685,173.18452267435796</t>
+          <t>-35.33098257132862,173.18439075725647</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -15580,7 +15767,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.332691843564874,173.18608736661753</t>
+          <t>-35.33275467085133,173.18598669853392</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -15595,7 +15782,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>-35.33134625287309,173.18380802535634</t>
+          <t>-35.33129599210923,173.18388855944374</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -15617,7 +15804,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.33280078056292,173.1859128168151</t>
+          <t>-35.33282443635709,173.18587491300968</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -15632,7 +15819,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-35.331157337679755,173.18411072796303</t>
+          <t>-35.33113838056086,173.18414110319011</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -15654,7 +15841,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.33272817413643,173.18602915422298</t>
+          <t>-35.33272363964557,173.186036419833</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -15669,7 +15856,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-35.33101622441831,173.18433683486052</t>
+          <t>-35.33101988473668,173.18433096992192</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -15691,7 +15878,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.33298887930857,173.18561142405142</t>
+          <t>-35.33290239659221,173.18574999661683</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -15706,7 +15893,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>-35.33115438758106,173.18411545494456</t>
+          <t>-35.331223605588534,173.18400454586163</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -15728,7 +15915,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.3328773750312,173.18579008894008</t>
+          <t>-35.33276084431061,173.18597680679207</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -15743,7 +15930,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>-35.331046544957395,173.18428825214406</t>
+          <t>-35.33113980097925,173.184138827237</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -15765,7 +15952,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.332971997982256,173.18563847329935</t>
+          <t>-35.332856341612626,173.18582379098305</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -15780,7 +15967,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>-35.33108325736769,173.18422942761708</t>
+          <t>-35.33117574847664,173.18408122808913</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -15801,7 +15988,7 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-35.33096416045603,173.18442025698988</t>
+          <t>-35.33102900821555,173.18431635134127</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -15823,7 +16010,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.332875572167126,173.1857929776873</t>
+          <t>-35.332932935990335,173.18570106293987</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -15838,7 +16025,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>-35.33122786683586,173.18399771798767</t>
+          <t>-35.331181976459725,173.18407124890024</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -15856,7 +16043,7 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.332808155927275,173.1859009992338</t>
+          <t>-35.332810887543424,173.1858966223513</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -15867,7 +16054,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>-35.331038951166555,173.18430041971067</t>
+          <t>-35.33103676590277,173.1843039211683</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -15889,7 +16076,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.33300663474235,173.18558297418303</t>
+          <t>-35.33289829917593,173.1857565619553</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -15904,7 +16091,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>-35.33108107210598,173.1842329290785</t>
+          <t>-35.33116777228659,173.18409400845158</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -15926,7 +16113,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.33281263577766,173.18589382114632</t>
+          <t>-35.33289731579597,173.18575813763644</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -15941,7 +16128,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>-35.33130533405962,173.1838735906155</t>
+          <t>-35.331237591219335,173.18398213642644</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -15963,7 +16150,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.33306891528772,173.1854831807001</t>
+          <t>-35.33294872468749,173.18567576447705</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -15978,7 +16165,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>-35.33111641870177,173.18417629291673</t>
+          <t>-35.331212570048784,173.1840222283011</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -16000,7 +16187,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.33306443546178,173.18549035883294</t>
+          <t>-35.332928783944524,173.1857077158212</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -16015,7 +16202,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>-35.331110136078486,173.1841863596261</t>
+          <t>-35.33121868876422,173.18401242417684</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -16037,7 +16224,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.33288666251174,173.18577520751293</t>
+          <t>-35.33281564055512,173.18588900657502</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -16052,7 +16239,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>-35.33106867074382,173.18425279986855</t>
+          <t>-35.3311254875304,173.1841617618379</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -16074,7 +16261,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.332820393566344,173.18588139079785</t>
+          <t>-35.33281493033501,173.18589014456464</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -16089,7 +16276,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>-35.331067578112645,173.18425455059867</t>
+          <t>-35.33107194863722,173.18424754767796</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -16111,7 +16298,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.33281028658788,173.18589758526548</t>
+          <t>-35.33281301820389,173.18589320838274</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -16126,7 +16313,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>-35.33102797021505,173.18431801453323</t>
+          <t>-35.331025784950754,173.1843215159899</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -16148,7 +16335,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.33284770971343,173.1858376219463</t>
+          <t>-35.33291692875909,173.18572671154436</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -16163,7 +16350,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-35.33121792392483,173.18401364969245</t>
+          <t>-35.33116258229918,173.1841023244395</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -16185,7 +16372,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.33286803291658,173.18580505790158</t>
+          <t>-35.3329517840884,173.18567086235163</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -16200,7 +16387,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>-35.331325383736356,173.18384146452215</t>
+          <t>-35.33125835113239,173.18394887240686</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -16222,7 +16409,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.33297259893572,173.18563751038133</t>
+          <t>-35.33291523516093,173.18572942521865</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -16237,7 +16424,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>-35.331039497482486,173.18429954434626</t>
+          <t>-35.331085387997774,173.184226013692</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -16259,7 +16446,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.333083939091146,173.18545910768785</t>
+          <t>-35.332986530127606,173.18561518818692</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -16274,7 +16461,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>-35.33100688241044,173.18435180358208</t>
+          <t>-35.331084841682376,173.18422688905744</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -16296,7 +16483,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.33315375873997,173.1853472337175</t>
+          <t>-35.33303176549865,173.18554270665572</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -16311,7 +16498,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-35.33105659716783,173.18427214543362</t>
+          <t>-35.33115422368669,173.18411571755462</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -16333,7 +16520,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-35.33286530130376,173.18580943479026</t>
+          <t>-35.33289988351027,173.18575402335784</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -16348,7 +16535,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>-35.331037585376706,173.1843026081217</t>
+          <t>-35.331009887150024,173.18434698908138</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -16370,7 +16557,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.33304744489849,173.1855175832076</t>
+          <t>-35.332959104796906,173.18565913226428</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -16385,7 +16572,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>-35.33096601793312,173.18441728075626</t>
+          <t>-35.3310366566396,173.18430409624116</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -16407,7 +16594,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.332921954921034,173.18571865805873</t>
+          <t>-35.33288464111908,173.1857784464121</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -16422,7 +16609,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-35.33097688963578,173.1843998610332</t>
+          <t>-35.33100677314719,173.18435197865483</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -16444,7 +16631,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.33295058218092,173.18567278818665</t>
+          <t>-35.332931460921486,173.1857034264636</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -16459,7 +16646,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>-35.330998359875316,173.18436545925488</t>
+          <t>-35.33101365673213,173.1843409490709</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -16481,7 +16668,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.332969321007624,173.18564276266125</t>
+          <t>-35.33300849223348,173.18557999788842</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -16496,7 +16683,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>-35.33115455147544,173.18411519233447</t>
+          <t>-35.33112324763915,173.1841653508396</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -16518,7 +16705,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.33306246870878,173.18549351020806</t>
+          <t>-35.33300417629806,173.18558691339635</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -16533,7 +16720,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-35.331067632744194,173.18425446306213</t>
+          <t>-35.331114233441596,173.18417979438104</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -16555,7 +16742,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.332890650664574,173.185768817252</t>
+          <t>-35.33290796907779,173.18574106775546</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -16570,7 +16757,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-35.331089539994565,173.18421936091443</t>
+          <t>-35.33107571821435,173.18424150765821</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -16586,14 +16773,14 @@
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>-35.332737297749226,173.18601453546307</t>
-        </is>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-35.330892483637086,173.18453510448907</t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr">
         <is>
           <t>L9</t>
@@ -16616,7 +16803,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-35.33114608359856,173.1841287605203</t>
+          <t>-35.33115411442377,173.18411589262803</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -16638,7 +16825,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.33297642318489,173.18563138272086</t>
+          <t>-35.33288261972633,173.18578168531104</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -16653,7 +16840,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>-35.33100950472862,173.18434760183604</t>
+          <t>-35.331084513893146,173.18422741427668</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -16675,7 +16862,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.332902724385505,173.18574947138973</t>
+          <t>-35.33295096460603,173.18567217542096</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -16690,7 +16877,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-35.33131178055062,173.18386326124661</t>
+          <t>-35.331273156222665,173.1839251498983</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -16712,7 +16899,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.33287005430996,173.18580181900379</t>
+          <t>-35.33289190720582,173.185766803882</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -16727,7 +16914,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>-35.33119191937836,173.18405531720958</t>
+          <t>-35.33117443732221,173.1840833289708</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -16749,7 +16936,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.33300488651532,173.18558577540142</t>
+          <t>-35.332910208998285,173.18573747870298</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -16764,7 +16951,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>-35.331074898741086,173.18424282070603</t>
+          <t>-35.331150672641705,173.1841214074393</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -16786,7 +16973,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.332991774810544,173.18560678453528</t>
+          <t>-35.332889776548924,173.1857702178572</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -16801,7 +16988,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>-35.33103900579815,173.18430033217425</t>
+          <t>-35.331120570695816,173.18416964013406</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -16823,7 +17010,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.333007508855836,173.1855815735738</t>
+          <t>-35.33303116454594,173.18554366957517</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -16838,7 +17025,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>-35.3312355698589,173.1839853752906</t>
+          <t>-35.33121661277158,173.18401575057632</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -16860,7 +17047,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-35.33300024278695,173.1855932161371</t>
+          <t>-35.33298112154773,173.18562385445153</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -16889,7 +17076,7 @@
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.33276018872206,173.18597785724262</t>
+          <t>-35.33270921668381,173.18605952971956</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -16900,7 +17087,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>-35.33096640035487,173.18441666800226</t>
+          <t>-35.33100721020022,173.18435127836383</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -16922,7 +17109,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.33288475038355,173.18577827133643</t>
+          <t>-35.3329184584606,173.18572426048365</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -16937,7 +17124,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>-35.331125869950846,173.18416114908152</t>
+          <t>-35.33109893661752,173.18420430462578</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -16955,7 +17142,7 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.33305279883871,173.18550900446698</t>
+          <t>-35.333113822787645,173.1854112242515</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -16970,7 +17157,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>-35.331275778526,173.18392094812467</t>
+          <t>-35.331226992733875,173.18399911857725</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -16993,7 +17180,11 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>-35.330963286349146,173.18442165757037</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
           <t>L9</t>
@@ -17003,32 +17194,16 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2023-09-20 22:18:03+00:00</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>-35.3333442879685,173.18652040032268</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>-35.33276570659213,173.1859690159501</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>-35.33217357219708,173.18543934085903</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>-35.33160110115067,173.18487815240357</t>
-        </is>
-      </c>
+          <t>2023-07-02 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>-35.331011362203924,173.18434462559907</t>
+          <t>-35.330845882719785,173.1846097727619</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -17040,69 +17215,69 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2023-09-28 22:18:07+00:00</t>
+          <t>2023-09-20 22:18:03+00:00</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.333322926605184,173.18655462764553</t>
+          <t>-35.3333442879685,173.18652040032268</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.3328226881233,173.18587771421545</t>
+          <t>-35.33275297724733,173.1859894121974</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-35.332111564685526,173.18553869544695</t>
+          <t>-35.33217357219708,173.18543934085903</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-35.33156127450135,173.18494196668814</t>
+          <t>-35.33160110115067,173.18487815240357</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>-35.33093351207352,173.18446936482496</t>
+          <t>-35.33102157831672,173.18432825629344</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2023-10-14 22:17:45+00:00</t>
+          <t>2023-09-28 22:18:07+00:00</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.3333101971948,173.18657502397</t>
+          <t>-35.333322926605184,173.18655462764553</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.332828806941336,173.18586790999473</t>
+          <t>-35.332726152736946,173.18603239310946</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-35.332128446033785,173.18551164650373</t>
+          <t>-35.332111564685526,173.18553869544695</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>-35.33158258094347,173.18490782736671</t>
+          <t>-35.33156127450135,173.18494196668814</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>-35.33094727926386,173.18444730569507</t>
+          <t>-35.331010706624426,173.18434567603566</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -17114,24 +17289,32 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2023-11-15 22:17:47+00:00</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
+          <t>2023-10-14 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>-35.3333101971948,173.18657502397</t>
+        </is>
+      </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.33266059378764,173.18613743798883</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>-35.33273227156755,173.18602258891204</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>-35.332128446033785,173.18551164650373</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>-35.33143420049471,173.1851455767299</t>
+          <t>-35.33158258094347,173.18490782736671</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>-35.33085801098173,173.1845903397613</t>
+          <t>-35.331024473792155,173.1843236168638</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -17143,32 +17326,24 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2023-12-01 22:18:10+00:00</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>-35.33329440835051,173.18660032240646</t>
-        </is>
-      </c>
+          <t>2023-11-15 22:17:47+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.33272686295839,173.18603125512234</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>-35.33219471482768,173.18540546397358</t>
-        </is>
-      </c>
+          <t>-35.332557720685315,173.18630227056968</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-35.331607547710774,173.18486782306218</t>
+          <t>-35.33143420049471,173.1851455767299</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>-35.33101338357401,173.18434138675283</t>
+          <t>-35.33094034103749,173.1844584227972</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -17180,213 +17355,217 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2024-01-10 22:18:15+00:00</t>
+          <t>2023-12-01 22:18:10+00:00</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-35.33337734069824,173.18646743985155</t>
+          <t>-35.33329440835051,173.18660032240646</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.3328931091148,173.18576487804972</t>
+          <t>-35.33269042312091,173.18608964258976</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-35.33223847512593,173.18533534664297</t>
+          <t>-35.33219471482768,173.18540546397358</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-35.33169075196207,173.18473450438142</t>
+          <t>-35.331607547710774,173.18486782306218</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-35.33108768252236,173.1842223371571</t>
+          <t>-35.33104250221997,173.18429472984167</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2024-02-19 22:18:03+00:00</t>
+          <t>2024-01-10 22:18:15+00:00</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.33340596816769,173.18642156992098</t>
+          <t>-35.33337734069824,173.18646743985155</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.33278280652196,173.18594161668943</t>
+          <t>-35.332799305489914,173.1859151803311</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-35.332254263787846,173.18531004836154</t>
+          <t>-35.33223847512593,173.18533534664297</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>-35.33169113438443,173.18473389162259</t>
+          <t>-35.33169075196207,173.18473450438142</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>-35.331122373535216,173.18416675142558</t>
+          <t>-35.33116269156208,173.18410214936605</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2024-03-30 22:18:00+00:00</t>
+          <t>2024-02-19 22:18:03+00:00</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-35.333293315696736,173.186602073163</t>
+          <t>-35.33340596816769,173.18642156992098</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-35.33272200067287,173.18603904595685</t>
+          <t>-35.33279739335816,173.185918244148</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-35.332235524994736,173.18534007365642</t>
+          <t>-35.332254263787846,173.18531004836154</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-35.33164431493913,173.18480891077016</t>
+          <t>-35.33169113438443,173.18473389162259</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>-35.33103692979758,173.18430365855897</t>
+          <t>-35.33111073702511,173.1841853967235</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2024-04-23 22:17:27+00:00</t>
+          <t>2024-03-30 22:18:00+00:00</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.33313974295531,173.18684814151777</t>
+          <t>-35.333293315696736,173.186602073163</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.33274123128234,173.18600823276319</t>
+          <t>-35.33269648732371,173.1860799259384</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-35.33202251410729,173.18568138062471</t>
+          <t>-35.332235524994736,173.18534007365642</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>-35.33151931717172,173.18500919483782</t>
+          <t>-35.33164431493913,173.18480891077016</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>-35.330939303035024,173.18446008598553</t>
+          <t>-35.33105730737825,173.1842710074594</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2024-05-17 22:17:27+00:00</t>
+          <t>2024-04-23 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.33310046190669,173.18691108094373</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr"/>
+          <t>-35.33313974295531,173.18684814151777</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>-35.33264289285564,173.18616580007713</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-35.3320590084751,173.18562290600082</t>
+          <t>-35.33202251410729,173.18568138062471</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>-35.331511395536275,173.18502188764475</t>
+          <t>-35.33151931717172,173.18500919483782</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-35.33095066642912,173.1844418784477</t>
+          <t>-35.331017972630114,173.1843340336959</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2024-07-04 22:16:52+00:00</t>
+          <t>2024-05-17 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.33331352978755,173.18656968416036</t>
+          <t>-35.33310046190669,173.18691108094373</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-35.33282230569715,173.1858783269792</t>
+          <t>-35.33252756347191,173.18635059103457</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-35.33223705469242,173.18533762261245</t>
+          <t>-35.3320590084751,173.18562290600082</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>-35.33166075911367,173.1847825621646</t>
+          <t>-35.331511395536275,173.18502188764475</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>-35.331034799165295,173.18430707247998</t>
+          <t>-35.3309128066487,173.18450254104192</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -17398,106 +17577,106 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2024-07-12 22:17:24+00:00</t>
+          <t>2024-07-04 22:16:52+00:00</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.33350900506033,173.1862564729182</t>
+          <t>-35.33331352978755,173.18656968416036</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.33282585679702,173.1858726370299</t>
+          <t>-35.33276494173888,173.18597024147587</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-35.332350525341795,173.18515580741536</t>
+          <t>-35.33223705469242,173.18533762261245</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-35.331759751830226,173.18462394508413</t>
+          <t>-35.33166075911367,173.1847825621646</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>-35.33119913072462,173.18404376235455</t>
+          <t>-35.33108068968517,173.18423354183423</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2024-08-05 22:17:30+00:00</t>
+          <t>2024-07-12 22:17:24+00:00</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-35.33340110586971,173.18642936080843</t>
+          <t>-35.33350900506033,173.1862564729182</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.33296183640426,173.18565475536548</t>
+          <t>-35.332862296529484,173.18581424936747</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-35.332309168954865,173.18522207329238</t>
+          <t>-35.332350525341795,173.18515580741536</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>-35.33171331487547,173.18469835159945</t>
+          <t>-35.331759751830226,173.18462394508413</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>-35.331043485588566,173.18429315418555</t>
+          <t>-35.33117001217571,173.18409041944594</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21 22:17:19+00:00</t>
+          <t>2024-08-05 22:17:30+00:00</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.333336093073235,173.18653353101132</t>
+          <t>-35.33340110586971,173.18642936080843</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.332941458609525,173.18568740702344</t>
+          <t>-35.33285983807765,173.18581818856674</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-35.332253717467424,173.1853109237348</t>
+          <t>-35.332309168954865,173.18522207329238</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>-35.33171358803417,173.1846979139143</t>
+          <t>-35.33171331487547,173.18469835159945</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>-35.33100644535741,173.18435250387307</t>
+          <t>-35.33112505047847,173.18416246213093</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -17509,65 +17688,69 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 22:17:45+00:00</t>
+          <t>2024-08-21 22:17:19+00:00</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.333231471451406,173.18670116590314</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
+          <t>-35.333336093073235,173.18653353101132</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-35.33281126996967,173.1858960095877</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-35.332148222880654,173.18547995808336</t>
+          <t>-35.332253717467424,173.1853109237348</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>-35.33156231250772,173.18494030349083</t>
+          <t>-35.33171358803417,173.1846979139143</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-35.33099229576286,173.1843751757895</t>
+          <t>-35.33111062776207,173.18418557179672</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01 22:17:55+00:00</t>
+          <t>2024-08-29 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.33330872211268,173.18657738749215</t>
+          <t>-35.333231471451406,173.18670116590314</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.33290507357066,173.185745707262</t>
+          <t>-35.332679387362454,173.18610732514077</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-35.33213319903364,173.1855040307798</t>
+          <t>-35.332148222880654,173.18547995808336</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-35.331583017998575,173.1849071270728</t>
+          <t>-35.33156231250772,173.18494030349083</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-35.330939193771606,173.18446026105798</t>
+          <t>-35.33096388729762,173.1844206946713</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -17579,32 +17762,32 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03 22:17:45+00:00</t>
+          <t>2024-11-01 22:17:55+00:00</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.333507693881785,173.1862585738371</t>
+          <t>-35.33330872211268,173.18657738749215</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.333079677794665,173.1854659356704</t>
+          <t>-35.332810395852526,173.18589741019017</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-35.332363254579064,173.18513541116747</t>
+          <t>-35.33213319903364,173.1855040307798</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>-35.33179460683199,173.18456809637314</t>
+          <t>-35.331583017998575,173.1849071270728</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-35.33111701964829,173.18417533001403</t>
+          <t>-35.33101496789105,173.18433884819754</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -17616,69 +17799,69 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2025-01-12 22:17:45+00:00</t>
+          <t>2024-12-03 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.333561998496144,173.18617156072264</t>
+          <t>-35.333507693881785,173.1862585738371</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.333067003166946,173.18548624453737</t>
+          <t>-35.332987732034155,173.1856132623502</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-35.33238931399396,173.18509365573874</t>
+          <t>-35.332363254579064,173.18513541116747</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-35.33177450238272,173.18460031005557</t>
+          <t>-35.33179460683199,173.18456809637314</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>-35.33109576798906,173.18420938174677</t>
+          <t>-35.33119060822436,173.1840574180921</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2025-02-13 22:17:46+00:00</t>
+          <t>2025-01-12 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.333552000770055,173.18618758024843</t>
+          <t>-35.333561998496144,173.18617156072264</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.333135238514586,173.18537690922605</t>
+          <t>-35.33298778666628,173.18561317481215</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-35.33241788645952,173.18504787355022</t>
+          <t>-35.33238931399396,173.18509365573874</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>-35.33185967307491,173.18446383948168</t>
+          <t>-35.33177450238272,173.18460031005557</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>-35.33110336177072,173.18419721416308</t>
+          <t>-35.33115914051775,173.18410783925194</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -17690,32 +17873,32 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2025-03-01 22:18:03+00:00</t>
+          <t>2025-02-13 22:17:46+00:00</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.33355648062572,173.18618040210077</t>
+          <t>-35.333552000770055,173.18618758024843</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.33315578012106,173.18534399479688</t>
+          <t>-35.33301504808399,173.18556949331798</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-35.33242996009652,173.1850285277209</t>
+          <t>-35.33241788645952,173.18504787355022</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>-35.331879285803836,173.18443241356806</t>
+          <t>-35.33185967307491,173.18446383948168</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-35.33112412174307,173.1841639502536</t>
+          <t>-35.331199513144455,173.18404314959704</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -17727,69 +17910,69 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2025-03-09 22:17:50+00:00</t>
+          <t>2025-03-01 22:18:03+00:00</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.33360679702413,173.18609977919243</t>
+          <t>-35.33355648062572,173.18618040210077</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.332956591718,173.18566315901094</t>
+          <t>-35.33301373691397,173.1855715942322</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-35.332369154825216,173.18512595711047</t>
+          <t>-35.33242996009652,173.1850285277209</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-35.33178963535214,173.18457606225806</t>
+          <t>-35.331879285803836,173.18443241356806</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>-35.331230762298574,173.18399307853443</t>
+          <t>-35.33123775511343,173.18398187381584</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2025-03-25 22:17:40+00:00</t>
+          <t>2025-03-09 22:17:50+00:00</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.33357827894175,173.18614547427325</t>
+          <t>-35.33360679702413,173.18609977919243</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.332954461064034,173.18566657299155</t>
+          <t>-35.332969321007624,173.18564276266125</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-35.33235205503572,173.18515335636442</t>
+          <t>-35.332369154825216,173.18512595711047</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>-35.33177838123094,173.184594094917</t>
+          <t>-35.33178963535214,173.18457606225806</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>-35.331168263969566,173.18409322062107</t>
+          <t>-35.33122054623124,173.18400944792452</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -17801,55 +17984,55 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2025-04-18 22:17:25+00:00</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
+          <t>2025-03-25 22:17:40+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-35.33357827894175,173.18614547427325</t>
+        </is>
+      </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.33309295337087,173.18544466387624</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
+          <t>-35.33297085070743,173.18564031159735</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>-35.33235205503572,173.18515335636442</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>-35.33177838123094,173.184594094917</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>-35.33115515242148,173.18411422943086</t>
+        </is>
+      </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2025-05-04 22:17:41+00:00</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>-35.33364132464095,173.18604445483697</t>
-        </is>
-      </c>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-35.33301510271607,173.1855694057799</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>-35.33236920945711,173.18512586957291</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>-35.33180438589526,173.18455242721205</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>-35.331265453205795,173.1839374926068</t>
-        </is>
-      </c>
+          <t>-35.33307836662643,173.185468036588</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
         <is>
           <t>L9</t>
@@ -17859,139 +18042,143 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12 22:16:59+00:00</t>
+          <t>2025-05-04 22:17:41+00:00</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-35.33337679437233,173.1864683152316</t>
+          <t>-35.33364132464095,173.18604445483697</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.33299035437564,173.18560906052437</t>
+          <t>-35.333072466368954,173.1854774907162</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-35.332211486881896,173.1853785900493</t>
+          <t>-35.33236920945711,173.18512586957291</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>-35.331724842170885,173.18467988128418</t>
+          <t>-35.33180438589526,173.18455242721205</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-35.33101037883465,173.18434620125396</t>
+          <t>-35.33121956286636,173.18401102358752</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05 22:17:00+00:00</t>
+          <t>2025-05-12 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.33330156523214,173.18658885495034</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
+          <t>-35.33337679437233,173.1864683152316</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-35.33289928255588,173.18575498627413</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-35.33198716699051,173.18573801692435</t>
+          <t>-35.332211486881896,173.1853785900493</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>-35.331619949141675,173.1848479522059</t>
+          <t>-35.331724842170885,173.18467988128418</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-35.33100398693394,173.1843564430097</t>
+          <t>-35.33108320273616,173.18422951515362</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13 22:17:36+00:00</t>
+          <t>2025-06-05 22:17:00+00:00</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.33346606394379,173.1863252779767</t>
+          <t>-35.33330156523214,173.18658885495034</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.3330321479231,173.1855420938888</t>
+          <t>-35.332820065772474,173.18588191602387</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-35.33217357219708,173.18543934085903</t>
+          <t>-35.33198716699051,173.18573801692435</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>-35.331743416953735,173.18465011867983</t>
+          <t>-35.331619949141675,173.1848479522059</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-35.33101611515507,173.18433700993333</t>
+          <t>-35.330961756662056,173.18442410858611</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2025-06-29 22:17:21+00:00</t>
+          <t>2025-06-13 22:17:36+00:00</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-35.33350878653057,173.18625682307135</t>
+          <t>-35.33346606394379,173.1863252779767</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-35.332921408599105,173.18571953343766</t>
+          <t>-35.33294839689451,173.18567628970473</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-35.33228300023152,173.1852640037133</t>
+          <t>-35.33217357219708,173.18543934085903</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>-35.331737516729376,173.18465957268504</t>
+          <t>-35.331743416953735,173.18465011867983</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-35.33109008630991,173.1842184855489</t>
+          <t>-35.331083148104625,173.18422960269015</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -18003,127 +18190,131 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2025-07-23 22:17:51+00:00</t>
+          <t>2025-06-29 22:17:21+00:00</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.333436562390574,173.18637254858538</t>
+          <t>-35.33350878653057,173.18625682307135</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.33305170619791,173.18551075523044</t>
+          <t>-35.33289502124264,173.18576181422557</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-35.33236352773863,173.18513497347965</t>
+          <t>-35.33228300023152,173.1852640037133</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>-35.33178073039238,173.1845903308187</t>
+          <t>-35.331737516729376,173.18465957268504</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>-35.33111778448933,173.18417410450147</t>
+          <t>-35.33111122870868,173.18418460889413</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2025-08-16 22:18:02+00:00</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
+          <t>2025-07-23 22:17:51+00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>-35.333436562390574,173.18637254858538</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>-35.33298707644878,173.1856143128066</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>-35.33236352773863,173.18513497347965</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>-35.331901793995186,173.18439634815545</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr"/>
+          <t>-35.33178073039238,173.1845903308187</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>-35.33116952049275,173.18409120727645</t>
+        </is>
+      </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2025-08-24 22:17:43+00:00</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>-35.33338728382892,173.1864515079328</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>-35.333067877279305,173.18548484392608</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>-35.33227398594973,173.18527844738026</t>
-        </is>
-      </c>
+          <t>2025-08-16 22:18:02+00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>-35.33184120760119,173.18449342709675</t>
+          <t>-35.331901793995186,173.18439634815545</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-35.33114520949507,173.18413016110708</t>
+          <t>-35.3314478122308,173.18364529367295</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2025-09-25 22:18:16+00:00</t>
+          <t>2025-08-24 22:17:43+00:00</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-35.33329233230832,173.18660364884377</t>
+          <t>-35.33338728382892,173.1864515079328</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.33288251046184,173.18578186038667</t>
+          <t>-35.33295407863895,173.1856671857573</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-35.33211817518183,173.1855281034673</t>
+          <t>-35.33227398594973,173.18527844738026</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-35.33169648829701,173.18472531299807</t>
+          <t>-35.33184120760119,173.18449342709675</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>-35.331031685164106,173.18431206205648</t>
+          <t>-35.331236280066626,173.18398423731134</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -18135,31 +18326,134 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
+          <t>2025-09-25 22:18:16+00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>-35.33329233230832,173.18660364884377</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>-35.33281514886428,173.18588979441398</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>-35.33211817518183,173.1855281034673</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>-35.33169648829701,173.18472531299807</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>-35.33108560652392,173.18422566354582</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
           <t>2025-10-11 22:18:21+00:00</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>-35.332886771776195,173.1857750324373</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>-35.333557026949556,173.18617952671684</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>-35.33286672174245,173.1858071588082</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
         <is>
           <t>-35.332267102315214,173.1852894770874</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>-35.33179788473052,173.1845628441408</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>-35.33120076966679,173.18404113625087</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>-35.33121677666574,173.18401548796584</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>-35.333371877438736,173.1864761936514</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>-35.33288283825526,173.18578133515982</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>-35.332224762477544,173.1853573184988</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>-35.331586295911855,173.18490187486782</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:17:59+00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>-35.33351927595771,173.18624001571783</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>-35.332921299334714,173.18571970851343</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>-35.33127725357155,173.18391858462687</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
